--- a/DriverDeltafr60.xlsx
+++ b/DriverDeltafr60.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
   <si>
     <t>time [s]</t>
   </si>
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -59,11 +59,19 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -77,6 +85,14 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -90,14 +106,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="true"/>
-    <col min="2" max="2" width="13.7109375" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
@@ -106,7 +122,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.014699452079987907</v>
+        <v>3.0892601679111706</v>
       </c>
     </row>
     <row r="3">
@@ -114,7 +130,7 @@
         <v>0.001</v>
       </c>
       <c r="B3">
-        <v>0.016639035988255758</v>
+        <v>3.0904525987091747</v>
       </c>
     </row>
     <row r="4">
@@ -122,7 +138,7 @@
         <v>0.002</v>
       </c>
       <c r="B4">
-        <v>0.02245499634911171</v>
+        <v>3.094028141648562</v>
       </c>
     </row>
     <row r="5">
@@ -130,7 +146,7 @@
         <v>0.0030000000000000001</v>
       </c>
       <c r="B5">
-        <v>0.03213896519555965</v>
+        <v>3.0999815527173822</v>
       </c>
     </row>
     <row r="6">
@@ -138,7 +154,7 @@
         <v>0.0040000000000000001</v>
       </c>
       <c r="B6">
-        <v>0.045677016318418834</v>
+        <v>3.1083041063909911</v>
       </c>
     </row>
     <row r="7">
@@ -146,7 +162,7 @@
         <v>0.0050000000000000001</v>
       </c>
       <c r="B7">
-        <v>0.063049695822198493</v>
+        <v>3.1189836173360561</v>
       </c>
     </row>
     <row r="8">
@@ -154,7 +170,7 @@
         <v>0.0060000000000000001</v>
       </c>
       <c r="B8">
-        <v>0.084232064807713461</v>
+        <v>3.1320044707184214</v>
       </c>
     </row>
     <row r="9">
@@ -162,7 +178,7 @@
         <v>0.0070000000000000001</v>
       </c>
       <c r="B9">
-        <v>0.10919375408601902</v>
+        <v>3.1473476610372924</v>
       </c>
     </row>
     <row r="10">
@@ -170,7 +186,7 @@
         <v>0.0080000000000000002</v>
       </c>
       <c r="B10">
-        <v>0.13789903080124799</v>
+        <v>3.1649908393863222</v>
       </c>
     </row>
     <row r="11">
@@ -178,7 +194,7 @@
         <v>0.0090000000000000011</v>
       </c>
       <c r="B11">
-        <v>0.17030687681313852</v>
+        <v>3.1849083690204951</v>
       </c>
     </row>
     <row r="12">
@@ -186,7 +202,7 @@
         <v>0.01</v>
       </c>
       <c r="B12">
-        <v>0.20637107866349372</v>
+        <v>3.2070713890863103</v>
       </c>
     </row>
     <row r="13">
@@ -194,7 +210,7 @@
         <v>0.010999999999999999</v>
       </c>
       <c r="B13">
-        <v>0.24604032892455854</v>
+        <v>3.2314478863516256</v>
       </c>
     </row>
     <row r="14">
@@ -202,7 +218,7 @@
         <v>0.012</v>
       </c>
       <c r="B14">
-        <v>0.28925833870138218</v>
+        <v>3.2580027747507665</v>
       </c>
     </row>
     <row r="15">
@@ -210,7 +226,7 @@
         <v>0.013000000000000001</v>
       </c>
       <c r="B15">
-        <v>0.33596396103470122</v>
+        <v>3.2866979825401121</v>
       </c>
     </row>
     <row r="16">
@@ -218,7 +234,7 @@
         <v>0.014</v>
       </c>
       <c r="B16">
-        <v>0.38609132492577647</v>
+        <v>3.3174925468394285</v>
       </c>
     </row>
     <row r="17">
@@ -226,7 +242,7 @@
         <v>0.014999999999999999</v>
       </c>
       <c r="B17">
-        <v>0.43956997967999267</v>
+        <v>3.3503427153147491</v>
       </c>
     </row>
     <row r="18">
@@ -234,7 +250,7 @@
         <v>0.016</v>
       </c>
       <c r="B18">
-        <v>0.49632504924193194</v>
+        <v>3.3852020547396702</v>
       </c>
     </row>
     <row r="19">
@@ -242,7 +258,7 @@
         <v>0.017000000000000001</v>
       </c>
       <c r="B19">
-        <v>0.55627739617110605</v>
+        <v>3.422021566153548</v>
       </c>
     </row>
     <row r="20">
@@ -250,7 +266,7 @@
         <v>0.018000000000000002</v>
       </c>
       <c r="B20">
-        <v>0.61934379488462865</v>
+        <v>3.4607498063173354</v>
       </c>
     </row>
     <row r="21">
@@ -258,7 +274,7 @@
         <v>0.019</v>
       </c>
       <c r="B21">
-        <v>0.68543711377087646</v>
+        <v>3.5013330151506961</v>
       </c>
     </row>
     <row r="22">
@@ -266,7 +282,7 @@
         <v>0.02</v>
       </c>
       <c r="B22">
-        <v>0.75446650575667051</v>
+        <v>3.5437152488176364</v>
       </c>
     </row>
     <row r="23">
@@ -274,7 +290,7 @@
         <v>0.021000000000000001</v>
       </c>
       <c r="B23">
-        <v>0.82633760688976221</v>
+        <v>3.5878385181122336</v>
       </c>
     </row>
     <row r="24">
@@ -282,7 +298,7 @@
         <v>0.021999999999999999</v>
       </c>
       <c r="B24">
-        <v>0.90095274247847923</v>
+        <v>3.6336429317811749</v>
       </c>
     </row>
     <row r="25">
@@ -290,7 +306,7 @@
         <v>0.023</v>
       </c>
       <c r="B25">
-        <v>0.97821114031131584</v>
+        <v>3.6810668444057772</v>
       </c>
     </row>
     <row r="26">
@@ -298,7 +314,7 @@
         <v>0.024</v>
       </c>
       <c r="B26">
-        <v>1.0580091504611082</v>
+        <v>3.7300470084529644</v>
       </c>
     </row>
     <row r="27">
@@ -306,7 +322,7 @@
         <v>0.025000000000000001</v>
       </c>
       <c r="B27">
-        <v>1.1402404711612382</v>
+        <v>3.7805187300924099</v>
       </c>
     </row>
     <row r="28">
@@ -314,7 +330,7 @@
         <v>0.026000000000000002</v>
       </c>
       <c r="B28">
-        <v>1.2247963802251423</v>
+        <v>3.8324160283657194</v>
       </c>
     </row>
     <row r="29">
@@ -322,7 +338,7 @@
         <v>0.027000000000000003</v>
       </c>
       <c r="B29">
-        <v>1.3115659714652743</v>
+        <v>3.8856717972831549</v>
       </c>
     </row>
     <row r="30">
@@ -330,7 +346,7 @@
         <v>0.028000000000000004</v>
       </c>
       <c r="B30">
-        <v>1.4004363955536676</v>
+        <v>3.9402179704140723</v>
       </c>
     </row>
     <row r="31">
@@ -338,7 +354,7 @@
         <v>0.029000000000000001</v>
       </c>
       <c r="B31">
-        <v>1.49129310475338</v>
+        <v>3.9959856875289281</v>
       </c>
     </row>
     <row r="32">
@@ -346,7 +362,7 @@
         <v>0.030000000000000002</v>
       </c>
       <c r="B32">
-        <v>1.5840201009384418</v>
+        <v>4.0529054628435022</v>
       </c>
     </row>
     <row r="33">
@@ -354,7 +370,7 @@
         <v>0.031000000000000003</v>
       </c>
       <c r="B33">
-        <v>1.678500186309513</v>
+        <v>4.1109073544098562</v>
       </c>
     </row>
     <row r="34">
@@ -362,7 +378,7 @@
         <v>0.032000000000000001</v>
       </c>
       <c r="B34">
-        <v>1.7746152162033124</v>
+        <v>4.1699211341935811</v>
       </c>
     </row>
     <row r="35">
@@ -370,7 +386,7 @@
         <v>0.033000000000000002</v>
       </c>
       <c r="B35">
-        <v>1.8722463533860825</v>
+        <v>4.2298764583730701</v>
       </c>
     </row>
     <row r="36">
@@ -378,7 +394,7 @@
         <v>0.034000000000000002</v>
       </c>
       <c r="B36">
-        <v>1.9712743232148944</v>
+        <v>4.2907030373939001</v>
       </c>
     </row>
     <row r="37">
@@ -386,7 +402,7 @@
         <v>0.035000000000000003</v>
       </c>
       <c r="B37">
-        <v>2.0715796690455655</v>
+        <v>4.3523308053100385</v>
       </c>
     </row>
     <row r="38">
@@ -394,7 +410,7 @@
         <v>0.036000000000000004</v>
       </c>
       <c r="B38">
-        <v>2.1730430072623426</v>
+        <v>4.4146900879433248</v>
       </c>
     </row>
     <row r="39">
@@ -402,7 +418,7 @@
         <v>0.037000000000000005</v>
       </c>
       <c r="B39">
-        <v>2.2755452813023673</v>
+        <v>4.4777117693937996</v>
       </c>
     </row>
     <row r="40">
@@ -410,7 +426,7 @@
         <v>0.038000000000000006</v>
       </c>
       <c r="B40">
-        <v>2.3789680140472989</v>
+        <v>4.5413274564357087</v>
       </c>
     </row>
     <row r="41">
@@ -418,7 +434,7 @@
         <v>0.039000000000000007</v>
       </c>
       <c r="B41">
-        <v>2.4831935579553419</v>
+        <v>4.6054696403376099</v>
       </c>
     </row>
     <row r="42">
@@ -426,7 +442,7 @@
         <v>0.040000000000000001</v>
       </c>
       <c r="B42">
-        <v>2.5881053423093587</v>
+        <v>4.6700718556498728</v>
       </c>
     </row>
     <row r="43">
@@ -434,7 +450,7 @@
         <v>0.041000000000000002</v>
       </c>
       <c r="B43">
-        <v>2.6935881169607456</v>
+        <v>4.7350688355089776</v>
       </c>
     </row>
     <row r="44">
@@ -442,7 +458,7 @@
         <v>0.042000000000000003</v>
       </c>
       <c r="B44">
-        <v>2.7995281919543111</v>
+        <v>4.8003966630154631</v>
       </c>
     </row>
     <row r="45">
@@ -450,7 +466,7 @@
         <v>0.043000000000000003</v>
       </c>
       <c r="B45">
-        <v>2.9058136724265946</v>
+        <v>4.8659929182510533</v>
       </c>
     </row>
     <row r="46">
@@ -458,7 +474,7 @@
         <v>0.044000000000000004</v>
       </c>
       <c r="B46">
-        <v>3.0123346881788167</v>
+        <v>4.9317968205105149</v>
       </c>
     </row>
     <row r="47">
@@ -466,7 +482,7 @@
         <v>0.045000000000000005</v>
       </c>
       <c r="B47">
-        <v>3.1189836173360561</v>
+        <v>4.9977493653350082</v>
       </c>
     </row>
     <row r="48">
@@ -474,7 +490,7 @@
         <v>0.045999999999999999</v>
       </c>
       <c r="B48">
-        <v>3.2256553035162367</v>
+        <v>5.0637934559462403</v>
       </c>
     </row>
     <row r="49">
@@ -482,7 +498,7 @@
         <v>0.047</v>
       </c>
       <c r="B49">
-        <v>3.3322472659461155</v>
+        <v>5.1298740286944646</v>
       </c>
     </row>
     <row r="50">
@@ -490,7 +506,7 @@
         <v>0.048000000000000001</v>
       </c>
       <c r="B50">
-        <v>3.4386599019766564</v>
+        <v>5.1959381721483764</v>
       </c>
     </row>
     <row r="51">
@@ -498,7 +514,7 @@
         <v>0.049000000000000002</v>
       </c>
       <c r="B51">
-        <v>3.5447966814669565</v>
+        <v>5.2619352394711081</v>
       </c>
     </row>
     <row r="52">
@@ -506,7 +522,7 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="B52">
-        <v>3.6505643325242425</v>
+        <v>5.3278169537439144</v>
       </c>
     </row>
     <row r="53">
@@ -514,7 +530,7 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="B53">
-        <v>3.6505643325242425</v>
+        <v>5.3278169537439144</v>
       </c>
     </row>
     <row r="54">
@@ -522,7 +538,7 @@
         <v>0.051000000000000004</v>
       </c>
       <c r="B54">
-        <v>3.7548429894613311</v>
+        <v>5.3928940485816952</v>
       </c>
     </row>
     <row r="55">
@@ -530,7 +546,7 @@
         <v>0.052000000000000005</v>
       </c>
       <c r="B55">
-        <v>3.8566167415175188</v>
+        <v>5.4565371417657147</v>
       </c>
     </row>
     <row r="56">
@@ -538,7 +554,7 @@
         <v>0.053000000000000005</v>
       </c>
       <c r="B56">
-        <v>3.9559498764356738</v>
+        <v>5.5187889121643279</v>
       </c>
     </row>
     <row r="57">
@@ -546,7 +562,7 @@
         <v>0.054000000000000006</v>
       </c>
       <c r="B57">
-        <v>4.0529054628435022</v>
+        <v>5.5796911062509098</v>
       </c>
     </row>
     <row r="58">
@@ -554,7 +570,7 @@
         <v>0.055</v>
       </c>
       <c r="B58">
-        <v>4.147545365234282</v>
+        <v>5.6392845515851224</v>
       </c>
     </row>
     <row r="59">
@@ -562,7 +578,7 @@
         <v>0.056000000000000001</v>
       </c>
       <c r="B59">
-        <v>4.2399302588946783</v>
+        <v>5.6976091702011811</v>
       </c>
     </row>
     <row r="60">
@@ -570,7 +586,7 @@
         <v>0.057000000000000002</v>
       </c>
       <c r="B60">
-        <v>4.3301196447766941</v>
+        <v>5.7547039919020122</v>
       </c>
     </row>
     <row r="61">
@@ -578,7 +594,7 @@
         <v>0.058000000000000003</v>
       </c>
       <c r="B61">
-        <v>4.4181718643109278</v>
+        <v>5.8106071674581949</v>
       </c>
     </row>
     <row r="62">
@@ -586,7 +602,7 @@
         <v>0.059000000000000004</v>
       </c>
       <c r="B62">
-        <v>4.5041441141584118</v>
+        <v>5.8653559817106826</v>
       </c>
     </row>
     <row r="63">
@@ -594,7 +610,7 @@
         <v>0.060000000000000005</v>
       </c>
       <c r="B63">
-        <v>4.5880924608984381</v>
+        <v>5.9189868665763425</v>
       </c>
     </row>
     <row r="64">
@@ -602,7 +618,7 @@
         <v>0.060999999999999999</v>
       </c>
       <c r="B64">
-        <v>4.6700718556498728</v>
+        <v>5.9715354139554115</v>
       </c>
     </row>
     <row r="65">
@@ -610,7 +626,7 @@
         <v>0.062</v>
       </c>
       <c r="B65">
-        <v>4.7501361486235485</v>
+        <v>6.023036388540036</v>
       </c>
     </row>
     <row r="66">
@@ -618,7 +634,7 @@
         <v>0.063</v>
       </c>
       <c r="B66">
-        <v>4.8283381036034738</v>
+        <v>6.0735237405230915</v>
       </c>
     </row>
     <row r="67">
@@ -626,7 +642,7 @@
         <v>0.064000000000000001</v>
       </c>
       <c r="B67">
-        <v>4.9047294123546319</v>
+        <v>6.1230306182065704</v>
       </c>
     </row>
     <row r="68">
@@ -634,7 +650,7 @@
         <v>0.065000000000000002</v>
       </c>
       <c r="B68">
-        <v>4.9793607089553023</v>
+        <v>6.1715893805088307</v>
       </c>
     </row>
     <row r="69">
@@ -642,7 +658,7 @@
         <v>0.066000000000000003</v>
       </c>
       <c r="B69">
-        <v>5.0522815840518787</v>
+        <v>6.2192316093700981</v>
       </c>
     </row>
     <row r="70">
@@ -650,7 +666,7 @@
         <v>0.067000000000000004</v>
       </c>
       <c r="B70">
-        <v>5.1235405990342855</v>
+        <v>6.2659881220556146</v>
       </c>
     </row>
     <row r="71">
@@ -658,7 +674,7 @@
         <v>0.068000000000000005</v>
       </c>
       <c r="B71">
-        <v>5.1931853001301524</v>
+        <v>6.3118889833559093</v>
       </c>
     </row>
     <row r="72">
@@ -666,7 +682,7 @@
         <v>0.069000000000000006</v>
       </c>
       <c r="B72">
-        <v>5.261262232416021</v>
+        <v>6.3569635176836963</v>
       </c>
     </row>
     <row r="73">
@@ -674,7 +690,7 @@
         <v>0.070000000000000007</v>
       </c>
       <c r="B73">
-        <v>5.3278169537439144</v>
+        <v>6.4012403210669451</v>
       </c>
     </row>
     <row r="74">
@@ -682,7 +698,7 @@
         <v>0.071000000000000008</v>
       </c>
       <c r="B74">
-        <v>5.3928940485816952</v>
+        <v>6.4447472730377209</v>
       </c>
     </row>
     <row r="75">
@@ -690,7 +706,7 @@
         <v>0.072000000000000008</v>
       </c>
       <c r="B75">
-        <v>5.4565371417657147</v>
+        <v>6.4875115484164283</v>
       </c>
     </row>
     <row r="76">
@@ -698,7 +714,7 @@
         <v>0.073000000000000009</v>
       </c>
       <c r="B76">
-        <v>5.5187889121643279</v>
+        <v>6.5295596289911249</v>
       </c>
     </row>
     <row r="77">
@@ -706,7 +722,7 @@
         <v>0.07400000000000001</v>
       </c>
       <c r="B77">
-        <v>5.5796911062509098</v>
+        <v>6.57091731509162</v>
       </c>
     </row>
     <row r="78">
@@ -714,7 +730,7 @@
         <v>0.075000000000000011</v>
       </c>
       <c r="B78">
-        <v>5.6392845515851224</v>
+        <v>6.6116097370581084</v>
       </c>
     </row>
     <row r="79">
@@ -722,7 +738,7 @@
         <v>0.076000000000000012</v>
       </c>
       <c r="B79">
-        <v>5.6976091702011811</v>
+        <v>6.6516613666041113</v>
       </c>
     </row>
     <row r="80">
@@ -730,7 +746,7 @@
         <v>0.076999999999999999</v>
       </c>
       <c r="B80">
-        <v>5.7547039919020122</v>
+        <v>6.691096028073547</v>
       </c>
     </row>
     <row r="81">
@@ -738,7 +754,7 @@
         <v>0.078</v>
       </c>
       <c r="B81">
-        <v>5.8106071674581949</v>
+        <v>6.72993690959178</v>
       </c>
     </row>
     <row r="82">
@@ -746,7 +762,7 @@
         <v>0.079000000000000001</v>
       </c>
       <c r="B82">
-        <v>5.8653559817106826</v>
+        <v>6.7682065741105282</v>
       </c>
     </row>
     <row r="83">
@@ -754,7 +770,7 @@
         <v>0.080000000000000002</v>
       </c>
       <c r="B83">
-        <v>5.9189868665763425</v>
+        <v>6.8059269703465386</v>
       </c>
     </row>
     <row r="84">
@@ -762,7 +778,7 @@
         <v>0.081000000000000003</v>
       </c>
       <c r="B84">
-        <v>5.9715354139554115</v>
+        <v>6.8431194436139666</v>
       </c>
     </row>
     <row r="85">
@@ -770,7 +786,7 @@
         <v>0.082000000000000003</v>
       </c>
       <c r="B85">
-        <v>6.023036388540036</v>
+        <v>6.8798047465504419</v>
       </c>
     </row>
     <row r="86">
@@ -778,7 +794,7 @@
         <v>0.083000000000000004</v>
       </c>
       <c r="B86">
-        <v>6.0735237405230915</v>
+        <v>6.9160030497367995</v>
       </c>
     </row>
     <row r="87">
@@ -786,7 +802,7 @@
         <v>0.084000000000000005</v>
       </c>
       <c r="B87">
-        <v>6.1230306182065704</v>
+        <v>6.9517339522105059</v>
       </c>
     </row>
     <row r="88">
@@ -794,7 +810,7 @@
         <v>0.085000000000000006</v>
       </c>
       <c r="B88">
-        <v>6.1715893805088307</v>
+        <v>6.9870164918728355</v>
       </c>
     </row>
     <row r="89">
@@ -802,7 +818,7 @@
         <v>0.086000000000000007</v>
       </c>
       <c r="B89">
-        <v>6.2192316093700981</v>
+        <v>7.0218691557898483</v>
       </c>
     </row>
     <row r="90">
@@ -810,7 +826,7 @@
         <v>0.086999999999999994</v>
       </c>
       <c r="B90">
-        <v>6.2659881220556146</v>
+        <v>7.0563098903872898</v>
       </c>
     </row>
     <row r="91">
@@ -818,7 +834,7 @@
         <v>0.087999999999999995</v>
       </c>
       <c r="B91">
-        <v>6.3118889833559093</v>
+        <v>7.0903561115395011</v>
       </c>
     </row>
     <row r="92">
@@ -826,7 +842,7 @@
         <v>0.088999999999999996</v>
       </c>
       <c r="B92">
-        <v>6.3569635176836963</v>
+        <v>7.1240247145525109</v>
       </c>
     </row>
     <row r="93">
@@ -834,7 +850,7 @@
         <v>0.089999999999999997</v>
       </c>
       <c r="B93">
-        <v>6.4012403210669451</v>
+        <v>7.1573320840414381</v>
       </c>
     </row>
     <row r="94">
@@ -842,7 +858,7 @@
         <v>0.090999999999999998</v>
       </c>
       <c r="B94">
-        <v>6.4447472730377209</v>
+        <v>7.1902941037024064</v>
       </c>
     </row>
     <row r="95">
@@ -850,7 +866,7 @@
         <v>0.091999999999999998</v>
       </c>
       <c r="B95">
-        <v>6.4875115484164283</v>
+        <v>7.2229261659791595</v>
       </c>
     </row>
     <row r="96">
@@ -858,7 +874,7 @@
         <v>0.092999999999999999</v>
       </c>
       <c r="B96">
-        <v>6.5295596289911249</v>
+        <v>7.2552431816245964</v>
       </c>
     </row>
     <row r="97">
@@ -866,7 +882,7 @@
         <v>0.094</v>
       </c>
       <c r="B97">
-        <v>6.57091731509162</v>
+        <v>7.287259589157463</v>
       </c>
     </row>
     <row r="98">
@@ -874,7 +890,7 @@
         <v>0.095000000000000001</v>
       </c>
       <c r="B98">
-        <v>6.6116097370581084</v>
+        <v>7.3189893642144463</v>
       </c>
     </row>
     <row r="99">
@@ -882,7 +898,7 @@
         <v>0.096000000000000002</v>
       </c>
       <c r="B99">
-        <v>6.6516613666041113</v>
+        <v>7.3504460287979505</v>
       </c>
     </row>
     <row r="100">
@@ -890,7 +906,7 @@
         <v>0.097000000000000003</v>
       </c>
       <c r="B100">
-        <v>6.691096028073547</v>
+        <v>7.3816426604198231</v>
       </c>
     </row>
     <row r="101">
@@ -898,7 +914,7 @@
         <v>0.098000000000000004</v>
       </c>
       <c r="B101">
-        <v>6.72993690959178</v>
+        <v>7.4125919011413455</v>
       </c>
     </row>
     <row r="102">
@@ -906,7 +922,7 @@
         <v>0.099000000000000005</v>
       </c>
       <c r="B102">
-        <v>6.7682065741105282</v>
+        <v>7.4433059665097829</v>
       </c>
     </row>
     <row r="103">
@@ -914,7 +930,7 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="B103">
-        <v>6.8059269703465386</v>
+        <v>7.4737966543918395</v>
       </c>
     </row>
     <row r="104">
@@ -922,7 +938,7 @@
         <v>0.10100000000000001</v>
       </c>
       <c r="B104">
-        <v>6.8431194436139666</v>
+        <v>7.5040753537043416</v>
       </c>
     </row>
     <row r="105">
@@ -930,7 +946,7 @@
         <v>0.10200000000000001</v>
       </c>
       <c r="B105">
-        <v>6.8798047465504419</v>
+        <v>7.5341530530425098</v>
       </c>
     </row>
     <row r="106">
@@ -938,7 +954,7 @@
         <v>0.10300000000000001</v>
       </c>
       <c r="B106">
-        <v>6.9160030497367995</v>
+        <v>7.5640403492061781</v>
       </c>
     </row>
     <row r="107">
@@ -946,7 +962,7 @@
         <v>0.10400000000000001</v>
       </c>
       <c r="B107">
-        <v>6.9517339522105059</v>
+        <v>7.5937474556243449</v>
       </c>
     </row>
     <row r="108">
@@ -954,7 +970,7 @@
         <v>0.10500000000000001</v>
       </c>
       <c r="B108">
-        <v>6.9870164918728355</v>
+        <v>7.6232842106784284</v>
       </c>
     </row>
     <row r="109">
@@ -962,7 +978,7 @@
         <v>0.10600000000000001</v>
       </c>
       <c r="B109">
-        <v>7.0218691557898483</v>
+        <v>7.6526600859246319</v>
       </c>
     </row>
     <row r="110">
@@ -970,7 +986,7 @@
         <v>0.10700000000000001</v>
       </c>
       <c r="B110">
-        <v>7.0563098903872898</v>
+        <v>7.681884194215824</v>
       </c>
     </row>
     <row r="111">
@@ -978,7 +994,7 @@
         <v>0.10800000000000001</v>
       </c>
       <c r="B111">
-        <v>7.0903561115395011</v>
+        <v>7.710965297723348</v>
       </c>
     </row>
     <row r="112">
@@ -986,7 +1002,7 @@
         <v>0.10900000000000001</v>
       </c>
       <c r="B112">
-        <v>7.1240247145525109</v>
+        <v>7.7399118158591866</v>
       </c>
     </row>
     <row r="113">
@@ -994,7 +1010,7 @@
         <v>0.11</v>
       </c>
       <c r="B113">
-        <v>7.1573320840414381</v>
+        <v>7.7687318330989124</v>
       </c>
     </row>
     <row r="114">
@@ -1002,7 +1018,7 @@
         <v>0.111</v>
       </c>
       <c r="B114">
-        <v>7.1902941037024064</v>
+        <v>7.7974331067058706</v>
       </c>
     </row>
     <row r="115">
@@ -1010,7 +1026,7 @@
         <v>0.112</v>
       </c>
       <c r="B115">
-        <v>7.2229261659791595</v>
+        <v>7.8260230743570407</v>
       </c>
     </row>
     <row r="116">
@@ -1018,7 +1034,7 @@
         <v>0.113</v>
       </c>
       <c r="B116">
-        <v>7.2552431816245964</v>
+        <v>7.8545088616710288</v>
       </c>
     </row>
     <row r="117">
@@ -1026,7 +1042,7 @@
         <v>0.114</v>
       </c>
       <c r="B117">
-        <v>7.287259589157463</v>
+        <v>7.8828972896386702</v>
       </c>
     </row>
     <row r="118">
@@ -1034,7 +1050,7 @@
         <v>0.115</v>
       </c>
       <c r="B118">
-        <v>7.3189893642144463</v>
+        <v>7.9111948819566882</v>
       </c>
     </row>
     <row r="119">
@@ -1042,7 +1058,7 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="B119">
-        <v>7.3504460287979505</v>
+        <v>7.9394078722649128</v>
       </c>
     </row>
     <row r="120">
@@ -1050,7 +1066,7 @@
         <v>0.11700000000000001</v>
       </c>
       <c r="B120">
-        <v>7.3816426604198231</v>
+        <v>7.9675422112875198</v>
       </c>
     </row>
     <row r="121">
@@ -1058,7 +1074,7 @@
         <v>0.11800000000000001</v>
       </c>
       <c r="B121">
-        <v>7.4125919011413455</v>
+        <v>7.9956035738787943</v>
       </c>
     </row>
     <row r="122">
@@ -1066,7 +1082,7 @@
         <v>0.11900000000000001</v>
       </c>
       <c r="B122">
-        <v>7.4433059665097829</v>
+        <v>8.0235973659739006</v>
       </c>
     </row>
     <row r="123">
@@ -1074,7 +1090,7 @@
         <v>0.12000000000000001</v>
       </c>
       <c r="B123">
-        <v>7.4737966543918395</v>
+        <v>8.0515287314451687</v>
       </c>
     </row>
     <row r="124">
@@ -1082,7 +1098,7 @@
         <v>0.12100000000000001</v>
       </c>
       <c r="B124">
-        <v>7.5040753537043416</v>
+        <v>8.0794025588643947</v>
       </c>
     </row>
     <row r="125">
@@ -1090,7 +1106,7 @@
         <v>0.12200000000000001</v>
       </c>
       <c r="B125">
-        <v>7.5341530530425098</v>
+        <v>8.1072234881716589</v>
       </c>
     </row>
     <row r="126">
@@ -1098,7 +1114,7 @@
         <v>0.123</v>
       </c>
       <c r="B126">
-        <v>7.5640403492061781</v>
+        <v>8.1349959172511905</v>
       </c>
     </row>
     <row r="127">
@@ -1106,7 +1122,7 @@
         <v>0.124</v>
       </c>
       <c r="B127">
-        <v>7.5937474556243449</v>
+        <v>8.1627240084147772</v>
       </c>
     </row>
     <row r="128">
@@ -1114,7 +1130,7 @@
         <v>0.125</v>
       </c>
       <c r="B128">
-        <v>7.6232842106784284</v>
+        <v>8.1904116947932515</v>
       </c>
     </row>
     <row r="129">
@@ -1122,7 +1138,7 @@
         <v>0.126</v>
       </c>
       <c r="B129">
-        <v>7.6526600859246319</v>
+        <v>8.2180626866365767</v>
       </c>
     </row>
     <row r="130">
@@ -1130,7 +1146,7 @@
         <v>0.127</v>
       </c>
       <c r="B130">
-        <v>7.681884194215824</v>
+        <v>8.2456804775230541</v>
       </c>
     </row>
     <row r="131">
@@ -1138,7 +1154,7 @@
         <v>0.128</v>
       </c>
       <c r="B131">
-        <v>7.710965297723348</v>
+        <v>8.2732683504781903</v>
       </c>
     </row>
     <row r="132">
@@ -1146,7 +1162,7 @@
         <v>0.129</v>
       </c>
       <c r="B132">
-        <v>7.7399118158591866</v>
+        <v>8.300829384003757</v>
       </c>
     </row>
     <row r="133">
@@ -1154,7 +1170,7 @@
         <v>0.13</v>
       </c>
       <c r="B133">
-        <v>7.7687318330989124</v>
+        <v>8.3283664580175749</v>
       </c>
     </row>
     <row r="134">
@@ -1162,7 +1178,7 @@
         <v>0.13100000000000001</v>
       </c>
       <c r="B134">
-        <v>7.7974331067058706</v>
+        <v>8.3558822597045577</v>
       </c>
     </row>
     <row r="135">
@@ -1170,7 +1186,7 @@
         <v>0.13200000000000001</v>
       </c>
       <c r="B135">
-        <v>7.8260230743570407</v>
+        <v>8.3833792892795849</v>
       </c>
     </row>
     <row r="136">
@@ -1178,7 +1194,7 @@
         <v>0.13300000000000001</v>
       </c>
       <c r="B136">
-        <v>7.8545088616710288</v>
+        <v>8.4108598656626992</v>
       </c>
     </row>
     <row r="137">
@@ -1186,7 +1202,7 @@
         <v>0.13400000000000001</v>
       </c>
       <c r="B137">
-        <v>7.8828972896386702</v>
+        <v>8.4383261320672283</v>
       </c>
     </row>
     <row r="138">
@@ -1194,7 +1210,7 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="B138">
-        <v>7.9111948819566882</v>
+        <v>8.4657800615013343</v>
       </c>
     </row>
     <row r="139">
@@ -1202,7 +1218,7 @@
         <v>0.13600000000000001</v>
       </c>
       <c r="B139">
-        <v>7.9394078722649128</v>
+        <v>8.4932234621835754</v>
       </c>
     </row>
     <row r="140">
@@ -1210,7 +1226,7 @@
         <v>0.13700000000000001</v>
       </c>
       <c r="B140">
-        <v>7.9675422112875198</v>
+        <v>8.5206579828730042</v>
       </c>
     </row>
     <row r="141">
@@ -1218,7 +1234,7 @@
         <v>0.13800000000000001</v>
       </c>
       <c r="B141">
-        <v>7.9956035738787943</v>
+        <v>8.5480851181143791</v>
       </c>
     </row>
     <row r="142">
@@ -1226,7 +1242,7 @@
         <v>0.13900000000000001</v>
       </c>
       <c r="B142">
-        <v>8.0235973659739006</v>
+        <v>8.5755062133990236</v>
       </c>
     </row>
     <row r="143">
@@ -1234,7 +1250,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="B143">
-        <v>8.0515287314451687</v>
+        <v>8.6029224702419071</v>
       </c>
     </row>
     <row r="144">
@@ -1242,7 +1258,7 @@
         <v>0.14100000000000001</v>
       </c>
       <c r="B144">
-        <v>8.0794025588643947</v>
+        <v>8.6303349511754952</v>
       </c>
     </row>
     <row r="145">
@@ -1250,7 +1266,7 @@
         <v>0.14200000000000002</v>
       </c>
       <c r="B145">
-        <v>8.1072234881716589</v>
+        <v>8.6577445846609287</v>
       </c>
     </row>
     <row r="146">
@@ -1258,7 +1274,7 @@
         <v>0.14300000000000002</v>
       </c>
       <c r="B146">
-        <v>8.1349959172511905</v>
+        <v>8.6851521699170942</v>
       </c>
     </row>
     <row r="147">
@@ -1266,7 +1282,7 @@
         <v>0.14400000000000002</v>
       </c>
       <c r="B147">
-        <v>8.1627240084147772</v>
+        <v>8.7125583816681473</v>
       </c>
     </row>
     <row r="148">
@@ -1274,7 +1290,7 @@
         <v>0.14500000000000002</v>
       </c>
       <c r="B148">
-        <v>8.1904116947932515</v>
+        <v>8.7399637748100503</v>
       </c>
     </row>
     <row r="149">
@@ -1282,7 +1298,7 @@
         <v>0.14600000000000002</v>
       </c>
       <c r="B149">
-        <v>8.2180626866365767</v>
+        <v>8.7673687889966789</v>
       </c>
     </row>
     <row r="150">
@@ -1290,7 +1306,7 @@
         <v>0.14700000000000002</v>
       </c>
       <c r="B150">
-        <v>8.2456804775230541</v>
+        <v>8.7947737531460781</v>
       </c>
     </row>
     <row r="151">
@@ -1298,7 +1314,7 @@
         <v>0.14800000000000002</v>
       </c>
       <c r="B151">
-        <v>8.2732683504781903</v>
+        <v>8.8221788898674145</v>
       </c>
     </row>
     <row r="152">
@@ -1306,7 +1322,7 @@
         <v>0.14900000000000002</v>
       </c>
       <c r="B152">
-        <v>8.300829384003757</v>
+        <v>8.849584319809205</v>
       </c>
     </row>
     <row r="153">
@@ -1314,7 +1330,7 @@
         <v>0.15000000000000002</v>
       </c>
       <c r="B153">
-        <v>8.3283664580175749</v>
+        <v>8.8769900659293626</v>
       </c>
     </row>
     <row r="154">
@@ -1322,7 +1338,7 @@
         <v>0.15100000000000002</v>
       </c>
       <c r="B154">
-        <v>8.3558822597045577</v>
+        <v>8.9043960576876664</v>
       </c>
     </row>
     <row r="155">
@@ -1330,7 +1346,7 @@
         <v>0.15200000000000002</v>
       </c>
       <c r="B155">
-        <v>8.3833792892795849</v>
+        <v>8.9318021351611794</v>
       </c>
     </row>
     <row r="156">
@@ -1338,7 +1354,7 @@
         <v>0.15300000000000002</v>
       </c>
       <c r="B156">
-        <v>8.4108598656626992</v>
+        <v>8.9592080530831986</v>
       </c>
     </row>
     <row r="157">
@@ -1346,7 +1362,7 @@
         <v>0.15400000000000003</v>
       </c>
       <c r="B157">
-        <v>8.4383261320672283</v>
+        <v>8.9866134848063215</v>
       </c>
     </row>
     <row r="158">
@@ -1354,7 +1370,7 @@
         <v>0.15500000000000003</v>
       </c>
       <c r="B158">
-        <v>8.4657800615013343</v>
+        <v>9.0140180261901612</v>
       </c>
     </row>
     <row r="159">
@@ -1362,7 +1378,7 @@
         <v>0.15600000000000003</v>
       </c>
       <c r="B159">
-        <v>8.4932234621835754</v>
+        <v>9.0414211994143123</v>
       </c>
     </row>
     <row r="160">
@@ -1370,7 +1386,7 @@
         <v>0.157</v>
       </c>
       <c r="B160">
-        <v>8.5206579828730042</v>
+        <v>9.0688224567171023</v>
       </c>
     </row>
     <row r="161">
@@ -1378,7 +1394,7 @@
         <v>0.158</v>
       </c>
       <c r="B161">
-        <v>8.5480851181143791</v>
+        <v>9.0962211840607345</v>
       </c>
     </row>
     <row r="162">
@@ -1386,7 +1402,7 @@
         <v>0.159</v>
       </c>
       <c r="B162">
-        <v>8.5755062133990236</v>
+        <v>9.1236167047233501</v>
       </c>
     </row>
     <row r="163">
@@ -1394,7 +1410,7 @@
         <v>0.16</v>
       </c>
       <c r="B163">
-        <v>8.6029224702419071</v>
+        <v>9.151008282818621</v>
       </c>
     </row>
     <row r="164">
@@ -1402,7 +1418,7 @@
         <v>0.161</v>
       </c>
       <c r="B164">
-        <v>8.6303349511754952</v>
+        <v>9.1783951267433981</v>
       </c>
     </row>
     <row r="165">
@@ -1410,7 +1426,7 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="B165">
-        <v>8.6577445846609287</v>
+        <v>9.2057763925540179</v>
       </c>
     </row>
     <row r="166">
@@ -1418,7 +1434,7 @@
         <v>0.16300000000000001</v>
       </c>
       <c r="B166">
-        <v>8.6851521699170942</v>
+        <v>9.2331511872718171</v>
       </c>
     </row>
     <row r="167">
@@ -1426,7 +1442,7 @@
         <v>0.16400000000000001</v>
       </c>
       <c r="B167">
-        <v>8.7125583816681473</v>
+        <v>9.2605185721184409</v>
       </c>
     </row>
     <row r="168">
@@ -1434,7 +1450,7 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="B168">
-        <v>8.7399637748100503</v>
+        <v>9.2878775656814945</v>
       </c>
     </row>
     <row r="169">
@@ -1442,7 +1458,7 @@
         <v>0.16600000000000001</v>
       </c>
       <c r="B169">
-        <v>8.7673687889966789</v>
+        <v>9.315227147011111</v>
       </c>
     </row>
     <row r="170">
@@ -1450,7 +1466,7 @@
         <v>0.16700000000000001</v>
       </c>
       <c r="B170">
-        <v>8.7947737531460781</v>
+        <v>9.3425662586480307</v>
       </c>
     </row>
     <row r="171">
@@ -1458,7 +1474,7 @@
         <v>0.16800000000000001</v>
       </c>
       <c r="B171">
-        <v>8.8221788898674145</v>
+        <v>9.3698938095837185</v>
       </c>
     </row>
     <row r="172">
@@ -1466,7 +1482,7 @@
         <v>0.16900000000000001</v>
       </c>
       <c r="B172">
-        <v>8.849584319809205</v>
+        <v>9.3972086781531257</v>
       </c>
     </row>
     <row r="173">
@@ -1474,7 +1490,7 @@
         <v>0.17000000000000001</v>
       </c>
       <c r="B173">
-        <v>8.8769900659293626</v>
+        <v>9.4245097148606369</v>
       </c>
     </row>
     <row r="174">
@@ -1482,7 +1498,7 @@
         <v>0.17100000000000001</v>
       </c>
       <c r="B174">
-        <v>8.9043960576876664</v>
+        <v>9.4517957451398029</v>
       </c>
     </row>
     <row r="175">
@@ -1490,7 +1506,7 @@
         <v>0.17200000000000001</v>
       </c>
       <c r="B175">
-        <v>8.9318021351611794</v>
+        <v>9.4790655720473858</v>
       </c>
     </row>
     <row r="176">
@@ -1498,7 +1514,7 @@
         <v>0.17300000000000001</v>
       </c>
       <c r="B176">
-        <v>8.9592080530831986</v>
+        <v>9.5063179788923318</v>
       </c>
     </row>
     <row r="177">
@@ -1506,7 +1522,7 @@
         <v>0.17400000000000002</v>
       </c>
       <c r="B177">
-        <v>8.9866134848063215</v>
+        <v>9.5335517318002072</v>
       </c>
     </row>
     <row r="178">
@@ -1514,7 +1530,7 @@
         <v>0.17500000000000002</v>
       </c>
       <c r="B178">
-        <v>9.0140180261901612</v>
+        <v>9.560765582213687</v>
       </c>
     </row>
     <row r="179">
@@ -1522,7 +1538,7 @@
         <v>0.17600000000000002</v>
       </c>
       <c r="B179">
-        <v>9.0414211994143123</v>
+        <v>9.5879582693296417</v>
       </c>
     </row>
     <row r="180">
@@ -1530,7 +1546,7 @@
         <v>0.17700000000000002</v>
       </c>
       <c r="B180">
-        <v>9.0688224567171023</v>
+        <v>9.6151285224734249</v>
       </c>
     </row>
     <row r="181">
@@ -1538,7 +1554,7 @@
         <v>0.17800000000000002</v>
       </c>
       <c r="B181">
-        <v>9.0962211840607345</v>
+        <v>9.6422750634109065</v>
       </c>
     </row>
     <row r="182">
@@ -1546,7 +1562,7 @@
         <v>0.17900000000000002</v>
       </c>
       <c r="B182">
-        <v>9.1236167047233501</v>
+        <v>9.669396608598813</v>
       </c>
     </row>
     <row r="183">
@@ -1554,7 +1570,7 @@
         <v>0.18000000000000002</v>
       </c>
       <c r="B183">
-        <v>9.151008282818621</v>
+        <v>9.6964918713739827</v>
       </c>
     </row>
     <row r="184">
@@ -1562,7 +1578,7 @@
         <v>0.18100000000000002</v>
       </c>
       <c r="B184">
-        <v>9.1783951267433981</v>
+        <v>9.7235595640820609</v>
       </c>
     </row>
     <row r="185">
@@ -1570,7 +1586,7 @@
         <v>0.182</v>
       </c>
       <c r="B185">
-        <v>9.2057763925540179</v>
+        <v>9.7505984001462291</v>
       </c>
     </row>
     <row r="186">
@@ -1578,7 +1594,7 @@
         <v>0.183</v>
       </c>
       <c r="B186">
-        <v>9.2331511872718171</v>
+        <v>9.7776070960765331</v>
       </c>
     </row>
     <row r="187">
@@ -1586,7 +1602,7 @@
         <v>0.184</v>
       </c>
       <c r="B187">
-        <v>9.2605185721184409</v>
+        <v>9.8045843734203846</v>
       </c>
     </row>
     <row r="188">
@@ -1594,7 +1610,7 @@
         <v>0.185</v>
       </c>
       <c r="B188">
-        <v>9.2878775656814945</v>
+        <v>9.8315289606547793</v>
       </c>
     </row>
     <row r="189">
@@ -1602,7 +1618,7 @@
         <v>0.186</v>
       </c>
       <c r="B189">
-        <v>9.315227147011111</v>
+        <v>9.8584395950208457</v>
       </c>
     </row>
     <row r="190">
@@ -1610,7 +1626,7 @@
         <v>0.187</v>
       </c>
       <c r="B190">
-        <v>9.3425662586480307</v>
+        <v>9.8853150243012475</v>
       </c>
     </row>
     <row r="191">
@@ -1618,7 +1634,7 @@
         <v>0.188</v>
       </c>
       <c r="B191">
-        <v>9.3698938095837185</v>
+        <v>9.9121540085410409</v>
       </c>
     </row>
     <row r="192">
@@ -1626,7 +1642,7 @@
         <v>0.189</v>
       </c>
       <c r="B192">
-        <v>9.3972086781531257</v>
+        <v>9.9389553217125535</v>
       </c>
     </row>
     <row r="193">
@@ -1634,7 +1650,7 @@
         <v>0.19</v>
       </c>
       <c r="B193">
-        <v>9.4245097148606369</v>
+        <v>9.9657177533248209</v>
       </c>
     </row>
     <row r="194">
@@ -1642,7 +1658,7 @@
         <v>0.191</v>
       </c>
       <c r="B194">
-        <v>9.4517957451398029</v>
+        <v>9.9924401099782045</v>
       </c>
     </row>
     <row r="195">
@@ -1650,7 +1666,7 @@
         <v>0.192</v>
       </c>
       <c r="B195">
-        <v>9.4790655720473858</v>
+        <v>10.019121216864718</v>
       </c>
     </row>
     <row r="196">
@@ -1658,7 +1674,7 @@
         <v>0.193</v>
       </c>
       <c r="B196">
-        <v>9.5063179788923318</v>
+        <v>10.045759919214643</v>
       </c>
     </row>
     <row r="197">
@@ -1666,7 +1682,7 @@
         <v>0.19400000000000001</v>
       </c>
       <c r="B197">
-        <v>9.5335517318002072</v>
+        <v>10.072355083690017</v>
       </c>
     </row>
     <row r="198">
@@ -1674,7 +1690,7 @@
         <v>0.19500000000000001</v>
       </c>
       <c r="B198">
-        <v>9.560765582213687</v>
+        <v>10.098905599725544</v>
       </c>
     </row>
     <row r="199">
@@ -1682,7 +1698,7 @@
         <v>0.19600000000000001</v>
       </c>
       <c r="B199">
-        <v>9.5879582693296417</v>
+        <v>10.125410380817524</v>
       </c>
     </row>
     <row r="200">
@@ -1690,7 +1706,7 @@
         <v>0.19700000000000001</v>
       </c>
       <c r="B200">
-        <v>9.6151285224734249</v>
+        <v>10.151868365761327</v>
       </c>
     </row>
     <row r="201">
@@ -1698,7 +1714,7 @@
         <v>0.19800000000000001</v>
       </c>
       <c r="B201">
-        <v>9.6422750634109065</v>
+        <v>10.178278519838035</v>
       </c>
     </row>
     <row r="202">
@@ -1706,7 +1722,7 @@
         <v>0.19900000000000001</v>
       </c>
       <c r="B202">
-        <v>9.669396608598813</v>
+        <v>10.204639835950791</v>
       </c>
     </row>
     <row r="203">
@@ -1714,7 +1730,7 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="B203">
-        <v>9.6964918713739827</v>
+        <v>10.230951335711424</v>
       </c>
     </row>
     <row r="204">
@@ -1722,7 +1738,7 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="B204">
-        <v>9.6964918713739827</v>
+        <v>10.230951335711424</v>
       </c>
     </row>
     <row r="205">
@@ -1730,7 +1746,7 @@
         <v>0.20100000000000001</v>
       </c>
       <c r="B205">
-        <v>9.7232890278531858</v>
+        <v>10.2569497174569</v>
       </c>
     </row>
     <row r="206">
@@ -1738,7 +1754,7 @@
         <v>0.20200000000000001</v>
       </c>
       <c r="B206">
-        <v>9.7495174168651939</v>
+        <v>10.282373763802454</v>
       </c>
     </row>
     <row r="207">
@@ -1746,7 +1762,7 @@
         <v>0.20300000000000001</v>
       </c>
       <c r="B207">
-        <v>9.7751775810561607</v>
+        <v>10.307225696828095</v>
       </c>
     </row>
     <row r="208">
@@ -1754,7 +1770,7 @@
         <v>0.20400000000000001</v>
       </c>
       <c r="B208">
-        <v>9.8002701728768926</v>
+        <v>10.3315077996506</v>
       </c>
     </row>
     <row r="209">
@@ -1762,7 +1778,7 @@
         <v>0.20500000000000002</v>
       </c>
       <c r="B209">
-        <v>9.8247959477677522</v>
+        <v>10.355222406556013</v>
       </c>
     </row>
     <row r="210">
@@ -1770,7 +1786,7 @@
         <v>0.20600000000000002</v>
       </c>
       <c r="B210">
-        <v>9.8487557571245521</v>
+        <v>10.378371893536315</v>
       </c>
     </row>
     <row r="211">
@@ -1778,7 +1794,7 @@
         <v>0.20700000000000002</v>
       </c>
       <c r="B211">
-        <v>9.8721505411190531</v>
+        <v>10.400958669245099</v>
       </c>
     </row>
     <row r="212">
@@ -1786,7 +1802,7 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="B212">
-        <v>9.8949813214390403</v>
+        <v>10.422985166382475</v>
       </c>
     </row>
     <row r="213">
@@ -1794,7 +1810,7 @@
         <v>0.20900000000000002</v>
       </c>
       <c r="B213">
-        <v>9.9172491940049046</v>
+        <v>10.444453833515281</v>
       </c>
     </row>
     <row r="214">
@@ -1802,7 +1818,7 @@
         <v>0.21000000000000002</v>
       </c>
       <c r="B214">
-        <v>9.9389553217125535</v>
+        <v>10.465367127335089</v>
       </c>
     </row>
     <row r="215">
@@ -1810,7 +1826,7 @@
         <v>0.21100000000000002</v>
       </c>
       <c r="B215">
-        <v>9.960100927245696</v>
+        <v>10.485727505353175</v>
       </c>
     </row>
     <row r="216">
@@ -1818,7 +1834,7 @@
         <v>0.21200000000000002</v>
       </c>
       <c r="B216">
-        <v>9.9806872859946676</v>
+        <v>10.505537419028911</v>
       </c>
     </row>
     <row r="217">
@@ -1826,7 +1842,7 @@
         <v>0.21300000000000002</v>
       </c>
       <c r="B217">
-        <v>10.000715719113371</v>
+        <v>10.524799307325473</v>
       </c>
     </row>
     <row r="218">
@@ -1834,7 +1850,7 @@
         <v>0.21400000000000002</v>
       </c>
       <c r="B218">
-        <v>10.020187586741033</v>
+        <v>10.543515590684683</v>
       </c>
     </row>
     <row r="219">
@@ -1842,7 +1858,7 @@
         <v>0.21500000000000002</v>
       </c>
       <c r="B219">
-        <v>10.039104281410939</v>
+        <v>10.56168866541096</v>
       </c>
     </row>
     <row r="220">
@@ -1850,7 +1866,7 @@
         <v>0.21600000000000003</v>
       </c>
       <c r="B220">
-        <v>10.057467221664302</v>
+        <v>10.579320898452805</v>
       </c>
     </row>
     <row r="221">
@@ -1858,7 +1874,7 @@
         <v>0.21700000000000003</v>
       </c>
       <c r="B221">
-        <v>10.075277845883736</v>
+        <v>10.596414622568917</v>
       </c>
     </row>
     <row r="222">
@@ -1866,7 +1882,7 @@
         <v>0.21800000000000003</v>
       </c>
       <c r="B222">
-        <v>10.092537606357622</v>
+        <v>10.612972131865043</v>
       </c>
     </row>
     <row r="223">
@@ -1874,7 +1890,7 @@
         <v>0.219</v>
       </c>
       <c r="B223">
-        <v>10.109247963583684</v>
+        <v>10.628995677686707</v>
       </c>
     </row>
     <row r="224">
@@ -1882,7 +1898,7 @@
         <v>0.22</v>
       </c>
       <c r="B224">
-        <v>10.125410380817524</v>
+        <v>10.644487464852341</v>
       </c>
     </row>
     <row r="225">
@@ -1890,7 +1906,7 @@
         <v>0.221</v>
       </c>
       <c r="B225">
-        <v>10.141026318869613</v>
+        <v>10.659449648210879</v>
       </c>
     </row>
     <row r="226">
@@ -1898,7 +1914,7 @@
         <v>0.222</v>
       </c>
       <c r="B226">
-        <v>10.156097231152161</v>
+        <v>10.673884329507404</v>
       </c>
     </row>
     <row r="227">
@@ -1906,7 +1922,7 @@
         <v>0.223</v>
       </c>
       <c r="B227">
-        <v>10.170624558975591</v>
+        <v>10.68779355454037</v>
       </c>
     </row>
     <row r="228">
@@ -1914,7 +1930,7 @@
         <v>0.224</v>
       </c>
       <c r="B228">
-        <v>10.184609727092775</v>
+        <v>10.701179310593728</v>
       </c>
     </row>
     <row r="229">
@@ -1922,7 +1938,7 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="B229">
-        <v>10.198054139487876</v>
+        <v>10.714043524127328</v>
       </c>
     </row>
     <row r="230">
@@ -1930,7 +1946,7 @@
         <v>0.22600000000000001</v>
       </c>
       <c r="B230">
-        <v>10.210959175405556</v>
+        <v>10.726388058709128</v>
       </c>
     </row>
     <row r="231">
@@ -1938,7 +1954,7 @@
         <v>0.22700000000000001</v>
       </c>
       <c r="B231">
-        <v>10.223326185615299</v>
+        <v>10.738214713172898</v>
       </c>
     </row>
     <row r="232">
@@ -1946,7 +1962,7 @@
         <v>0.22800000000000001</v>
       </c>
       <c r="B232">
-        <v>10.235156488904906</v>
+        <v>10.74952521998539</v>
       </c>
     </row>
     <row r="233">
@@ -1954,7 +1970,7 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="B233">
-        <v>10.246451368796496</v>
+        <v>10.760321243807349</v>
       </c>
     </row>
     <row r="234">
@@ -1962,7 +1978,7 @@
         <v>0.23000000000000001</v>
       </c>
       <c r="B234">
-        <v>10.257212070477941</v>
+        <v>10.77060438023303</v>
       </c>
     </row>
     <row r="235">
@@ -1970,7 +1986,7 @@
         <v>0.23100000000000001</v>
       </c>
       <c r="B235">
-        <v>10.267439797942211</v>
+        <v>10.780376154693506</v>
       </c>
     </row>
     <row r="236">
@@ -1978,7 +1994,7 @@
         <v>0.23199999999999998</v>
       </c>
       <c r="B236">
-        <v>10.27713571132691</v>
+        <v>10.789638021509363</v>
       </c>
     </row>
     <row r="237">
@@ -1986,7 +2002,7 @@
         <v>0.23299999999999998</v>
       </c>
       <c r="B237">
-        <v>10.286300924446072</v>
+        <v>10.798391363079091</v>
       </c>
     </row>
     <row r="238">
@@ -1994,7 +2010,7 @@
         <v>0.23399999999999999</v>
       </c>
       <c r="B238">
-        <v>10.294936502506268</v>
+        <v>10.806637489189912</v>
       </c>
     </row>
     <row r="239">
@@ -2002,7 +2018,7 @@
         <v>0.23499999999999999</v>
       </c>
       <c r="B239">
-        <v>10.303043459999042</v>
+        <v>10.814377636438481</v>
       </c>
     </row>
     <row r="240">
@@ -2010,7 +2026,7 @@
         <v>0.23599999999999999</v>
       </c>
       <c r="B240">
-        <v>10.310622758761841</v>
+        <v>10.821612967749436</v>
       </c>
     </row>
     <row r="241">
@@ -2018,7 +2034,7 @@
         <v>0.23699999999999999</v>
       </c>
       <c r="B241">
-        <v>10.317675306199687</v>
+        <v>10.82834457198048</v>
       </c>
     </row>
     <row r="242">
@@ -2026,7 +2042,7 @@
         <v>0.23799999999999999</v>
       </c>
       <c r="B242">
-        <v>10.324201953660145</v>
+        <v>10.834573463603265</v>
       </c>
     </row>
     <row r="243">
@@ -2034,7 +2050,7 @@
         <v>0.23899999999999999</v>
       </c>
       <c r="B243">
-        <v>10.33020349495434</v>
+        <v>10.84030058245007</v>
       </c>
     </row>
     <row r="244">
@@ -2042,7 +2058,7 @@
         <v>0.23999999999999999</v>
       </c>
       <c r="B244">
-        <v>10.335680665017119</v>
+        <v>10.845526793516893</v>
       </c>
     </row>
     <row r="245">
@@ -2050,7 +2066,7 @@
         <v>0.24099999999999999</v>
       </c>
       <c r="B245">
-        <v>10.340634138699858</v>
+        <v>10.850252886814294</v>
       </c>
     </row>
     <row r="246">
@@ -2058,7 +2074,7 @@
         <v>0.24199999999999999</v>
       </c>
       <c r="B246">
-        <v>10.345064529689727</v>
+        <v>10.854479577257974</v>
       </c>
     </row>
     <row r="247">
@@ -2066,7 +2082,7 @@
         <v>0.24299999999999999</v>
       </c>
       <c r="B247">
-        <v>10.348972389549751</v>
+        <v>10.858207504591816</v>
       </c>
     </row>
     <row r="248">
@@ -2074,7 +2090,7 @@
         <v>0.24399999999999999</v>
       </c>
       <c r="B248">
-        <v>10.352358206874406</v>
+        <v>10.861437233336742</v>
       </c>
     </row>
     <row r="249">
@@ -2082,7 +2098,7 @@
         <v>0.245</v>
       </c>
       <c r="B249">
-        <v>10.355222406556013</v>
+        <v>10.864169252759527</v>
       </c>
     </row>
     <row r="250">
@@ -2090,7 +2106,7 @@
         <v>0.246</v>
       </c>
       <c r="B250">
-        <v>10.357565349157676</v>
+        <v>10.866403976856288</v>
       </c>
     </row>
     <row r="251">
@@ -2098,7 +2114,7 @@
         <v>0.247</v>
       </c>
       <c r="B251">
-        <v>10.359387330389055</v>
+        <v>10.868141744346175</v>
       </c>
     </row>
     <row r="252">
@@ -2106,7 +2122,7 @@
         <v>0.248</v>
       </c>
       <c r="B252">
-        <v>10.360688580681831</v>
+        <v>10.869382818671422</v>
       </c>
     </row>
     <row r="253">
@@ -2114,7 +2130,7 @@
         <v>0.249</v>
       </c>
       <c r="B253">
-        <v>10.361469264862219</v>
+        <v>10.870127388000622</v>
       </c>
     </row>
     <row r="254">
@@ -2122,7 +2138,7 @@
         <v>0.25</v>
       </c>
       <c r="B254">
-        <v>10.361729481918514</v>
+        <v>10.870375565232813</v>
       </c>
     </row>
     <row r="255">
@@ -2138,7 +2154,7 @@
         <v>0.25</v>
       </c>
       <c r="B256">
-        <v>10.361729481918514</v>
+        <v>10.870375565232813</v>
       </c>
     </row>
     <row r="257">
@@ -2146,7 +2162,7 @@
         <v>0.251</v>
       </c>
       <c r="B257">
-        <v>10.361700569184009</v>
+        <v>10.870347990294524</v>
       </c>
     </row>
     <row r="258">
@@ -2154,7 +2170,7 @@
         <v>0.252</v>
       </c>
       <c r="B258">
-        <v>10.361613830572855</v>
+        <v>10.870265265015059</v>
       </c>
     </row>
     <row r="259">
@@ -2162,7 +2178,7 @@
         <v>0.253</v>
       </c>
       <c r="B259">
-        <v>10.361469264862219</v>
+        <v>10.870127388000622</v>
       </c>
     </row>
     <row r="260">
@@ -2170,7 +2186,7 @@
         <v>0.254</v>
       </c>
       <c r="B260">
-        <v>10.361266870014244</v>
+        <v>10.869934356928214</v>
       </c>
     </row>
     <row r="261">
@@ -2178,7 +2194,7 @@
         <v>0.255</v>
       </c>
       <c r="B261">
-        <v>10.361006643176383</v>
+        <v>10.869686168545623</v>
       </c>
     </row>
     <row r="262">
@@ -2186,7 +2202,7 @@
         <v>0.25600000000000001</v>
       </c>
       <c r="B262">
-        <v>10.360688580681831</v>
+        <v>10.869382818671422</v>
       </c>
     </row>
     <row r="263">
@@ -2194,7 +2210,7 @@
         <v>0.25700000000000001</v>
       </c>
       <c r="B263">
-        <v>10.3603126780501</v>
+        <v>10.869024302194939</v>
       </c>
     </row>
     <row r="264">
@@ -2202,7 +2218,7 @@
         <v>0.25800000000000001</v>
       </c>
       <c r="B264">
-        <v>10.359878929987719</v>
+        <v>10.868610613076253</v>
       </c>
     </row>
     <row r="265">
@@ -2210,7 +2226,7 @@
         <v>0.25900000000000001</v>
       </c>
       <c r="B265">
-        <v>10.359387330389055</v>
+        <v>10.868141744346175</v>
       </c>
     </row>
     <row r="266">
@@ -2218,7 +2234,7 @@
         <v>0.26000000000000001</v>
       </c>
       <c r="B266">
-        <v>10.358837872337277</v>
+        <v>10.867617688106231</v>
       </c>
     </row>
     <row r="267">
@@ -2226,7 +2242,7 @@
         <v>0.26100000000000001</v>
       </c>
       <c r="B267">
-        <v>10.358230548105436</v>
+        <v>10.867038435528638</v>
       </c>
     </row>
     <row r="268">
@@ -2234,7 +2250,7 @@
         <v>0.26200000000000001</v>
       </c>
       <c r="B268">
-        <v>10.357565349157676</v>
+        <v>10.866403976856288</v>
       </c>
     </row>
     <row r="269">
@@ -2242,7 +2258,7 @@
         <v>0.26300000000000001</v>
       </c>
       <c r="B269">
-        <v>10.356842266150588</v>
+        <v>10.865714301402742</v>
       </c>
     </row>
     <row r="270">
@@ -2250,7 +2266,7 @@
         <v>0.26400000000000001</v>
       </c>
       <c r="B270">
-        <v>10.356061288934686</v>
+        <v>10.864969397552207</v>
       </c>
     </row>
     <row r="271">
@@ -2258,7 +2274,7 @@
         <v>0.26500000000000001</v>
       </c>
       <c r="B271">
-        <v>10.355222406556013</v>
+        <v>10.864169252759527</v>
       </c>
     </row>
     <row r="272">
@@ -2266,7 +2282,7 @@
         <v>0.26600000000000001</v>
       </c>
       <c r="B272">
-        <v>10.354325607257893</v>
+        <v>10.863313853550194</v>
       </c>
     </row>
     <row r="273">
@@ -2274,7 +2290,7 @@
         <v>0.26700000000000002</v>
       </c>
       <c r="B273">
-        <v>10.353370878482805</v>
+        <v>10.862403185520337</v>
       </c>
     </row>
     <row r="274">
@@ -2282,7 +2298,7 @@
         <v>0.26800000000000002</v>
       </c>
       <c r="B274">
-        <v>10.352358206874406</v>
+        <v>10.861437233336742</v>
       </c>
     </row>
     <row r="275">
@@ -2290,7 +2306,7 @@
         <v>0.26900000000000002</v>
       </c>
       <c r="B275">
-        <v>10.351287578279679</v>
+        <v>10.860415980736876</v>
       </c>
     </row>
     <row r="276">
@@ -2298,7 +2314,7 @@
         <v>0.27000000000000002</v>
       </c>
       <c r="B276">
-        <v>10.350158977751239</v>
+        <v>10.85933941052892</v>
       </c>
     </row>
     <row r="277">
@@ -2306,7 +2322,7 @@
         <v>0.27100000000000002</v>
       </c>
       <c r="B277">
-        <v>10.348972389549751</v>
+        <v>10.858207504591816</v>
       </c>
     </row>
     <row r="278">
@@ -2314,7 +2330,7 @@
         <v>0.27200000000000002</v>
       </c>
       <c r="B278">
-        <v>10.34772779714652</v>
+        <v>10.857020243875334</v>
       </c>
     </row>
     <row r="279">
@@ -2322,7 +2338,7 @@
         <v>0.27300000000000002</v>
       </c>
       <c r="B279">
-        <v>10.346425183226216</v>
+        <v>10.855777608400157</v>
       </c>
     </row>
     <row r="280">
@@ -2330,7 +2346,7 @@
         <v>0.27400000000000002</v>
       </c>
       <c r="B280">
-        <v>10.345064529689727</v>
+        <v>10.854479577257974</v>
       </c>
     </row>
     <row r="281">
@@ -2338,7 +2354,7 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="B281">
-        <v>10.343645817657189</v>
+        <v>10.853126128611617</v>
       </c>
     </row>
     <row r="282">
@@ -2346,7 +2362,7 @@
         <v>0.27600000000000002</v>
       </c>
       <c r="B282">
-        <v>10.342169027471142</v>
+        <v>10.8517172396952</v>
       </c>
     </row>
     <row r="283">
@@ -2354,7 +2370,7 @@
         <v>0.27700000000000002</v>
       </c>
       <c r="B283">
-        <v>10.340634138699858</v>
+        <v>10.850252886814294</v>
       </c>
     </row>
     <row r="284">
@@ -2362,7 +2378,7 @@
         <v>0.27800000000000002</v>
       </c>
       <c r="B284">
-        <v>10.339041130140798</v>
+        <v>10.848733045346146</v>
       </c>
     </row>
     <row r="285">
@@ -2370,7 +2386,7 @@
         <v>0.27900000000000003</v>
       </c>
       <c r="B285">
-        <v>10.337389979824252</v>
+        <v>10.847157689739902</v>
       </c>
     </row>
     <row r="286">
@@ -2378,7 +2394,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="B286">
-        <v>10.335680665017119</v>
+        <v>10.845526793516893</v>
       </c>
     </row>
     <row r="287">
@@ -2386,7 +2402,7 @@
         <v>0.28100000000000003</v>
       </c>
       <c r="B287">
-        <v>10.333913162226851</v>
+        <v>10.843840329270934</v>
       </c>
     </row>
     <row r="288">
@@ -2394,7 +2410,7 @@
         <v>0.28200000000000003</v>
       </c>
       <c r="B288">
-        <v>10.332087447205572</v>
+        <v>10.842098268668693</v>
       </c>
     </row>
     <row r="289">
@@ -2402,7 +2418,7 @@
         <v>0.28300000000000003</v>
       </c>
       <c r="B289">
-        <v>10.33020349495434</v>
+        <v>10.84030058245007</v>
       </c>
     </row>
     <row r="290">
@@ -2410,7 +2426,7 @@
         <v>0.28400000000000003</v>
       </c>
       <c r="B290">
-        <v>10.328261279727599</v>
+        <v>10.838447240428653</v>
       </c>
     </row>
     <row r="291">
@@ -2418,7 +2434,7 @@
         <v>0.28500000000000003</v>
       </c>
       <c r="B291">
-        <v>10.326260775037792</v>
+        <v>10.836538211492218</v>
       </c>
     </row>
     <row r="292">
@@ -2426,7 +2442,7 @@
         <v>0.28600000000000003</v>
       </c>
       <c r="B292">
-        <v>10.324201953660145</v>
+        <v>10.834573463603265</v>
       </c>
     </row>
     <row r="293">
@@ -2434,7 +2450,7 @@
         <v>0.28699999999999998</v>
       </c>
       <c r="B293">
-        <v>10.322084787637634</v>
+        <v>10.832552963799634</v>
       </c>
     </row>
     <row r="294">
@@ -2442,7 +2458,7 @@
         <v>0.28799999999999998</v>
       </c>
       <c r="B294">
-        <v>10.319909248286121</v>
+        <v>10.830476678195176</v>
       </c>
     </row>
     <row r="295">
@@ -2450,7 +2466,7 @@
         <v>0.28899999999999998</v>
       </c>
       <c r="B295">
-        <v>10.317675306199687</v>
+        <v>10.82834457198048</v>
       </c>
     </row>
     <row r="296">
@@ -2458,7 +2474,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="B296">
-        <v>10.315382931256131</v>
+        <v>10.826156609423688</v>
       </c>
     </row>
     <row r="297">
@@ -2466,7 +2482,7 @@
         <v>0.29099999999999998</v>
       </c>
       <c r="B297">
-        <v>10.313032092622674</v>
+        <v>10.823912753871362</v>
       </c>
     </row>
     <row r="298">
@@ -2474,7 +2490,7 @@
         <v>0.29199999999999998</v>
       </c>
       <c r="B298">
-        <v>10.310622758761841</v>
+        <v>10.821612967749436</v>
       </c>
     </row>
     <row r="299">
@@ -2482,7 +2498,7 @@
         <v>0.29299999999999998</v>
       </c>
       <c r="B299">
-        <v>10.308154897437548</v>
+        <v>10.819257212564269</v>
       </c>
     </row>
     <row r="300">
@@ -2490,7 +2506,7 @@
         <v>0.29399999999999998</v>
       </c>
       <c r="B300">
-        <v>10.305628475721374</v>
+        <v>10.81684544890374</v>
       </c>
     </row>
     <row r="301">
@@ -2498,7 +2514,7 @@
         <v>0.29499999999999998</v>
       </c>
       <c r="B301">
-        <v>10.303043459999042</v>
+        <v>10.814377636438481</v>
       </c>
     </row>
     <row r="302">
@@ -2506,7 +2522,7 @@
         <v>0.29599999999999999</v>
       </c>
       <c r="B302">
-        <v>10.300399815977103</v>
+        <v>10.811853733923174</v>
       </c>
     </row>
     <row r="303">
@@ -2514,7 +2530,7 @@
         <v>0.29699999999999999</v>
       </c>
       <c r="B303">
-        <v>10.297697508689819</v>
+        <v>10.80927369919795</v>
       </c>
     </row>
     <row r="304">
@@ -2522,7 +2538,7 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="B304">
-        <v>10.294936502506268</v>
+        <v>10.806637489189912</v>
       </c>
     </row>
     <row r="305">
@@ -2530,7 +2546,7 @@
         <v>0.29899999999999999</v>
       </c>
       <c r="B305">
-        <v>10.292116761137653</v>
+        <v>10.803945059914737</v>
       </c>
     </row>
     <row r="306">
@@ -2538,7 +2554,7 @@
         <v>0.29999999999999999</v>
       </c>
       <c r="B306">
-        <v>10.289238247644834</v>
+        <v>10.801196366478413</v>
       </c>
     </row>
     <row r="307">
@@ -2546,7 +2562,7 @@
         <v>0.30099999999999999</v>
       </c>
       <c r="B307">
-        <v>10.286300924446072</v>
+        <v>10.798391363079091</v>
       </c>
     </row>
     <row r="308">
@@ -2554,7 +2570,7 @@
         <v>0.30199999999999999</v>
       </c>
       <c r="B308">
-        <v>10.283304753325014</v>
+        <v>10.795530003009054</v>
       </c>
     </row>
     <row r="309">
@@ -2562,7 +2578,7 @@
         <v>0.30299999999999999</v>
       </c>
       <c r="B309">
-        <v>10.280249695438881</v>
+        <v>10.792612238656815</v>
       </c>
     </row>
     <row r="310">
@@ -2570,7 +2586,7 @@
         <v>0.30399999999999999</v>
       </c>
       <c r="B310">
-        <v>10.27713571132691</v>
+        <v>10.789638021509363</v>
       </c>
     </row>
     <row r="311">
@@ -2578,7 +2594,7 @@
         <v>0.30499999999999999</v>
       </c>
       <c r="B311">
-        <v>10.273962760919018</v>
+        <v>10.786607302154527</v>
       </c>
     </row>
     <row r="312">
@@ -2586,7 +2602,7 @@
         <v>0.30599999999999999</v>
       </c>
       <c r="B312">
-        <v>10.270730803544707</v>
+        <v>10.783520030283498</v>
       </c>
     </row>
     <row r="313">
@@ -2594,7 +2610,7 @@
         <v>0.307</v>
       </c>
       <c r="B313">
-        <v>10.267439797942211</v>
+        <v>10.780376154693506</v>
       </c>
     </row>
     <row r="314">
@@ -2602,7 +2618,7 @@
         <v>0.308</v>
       </c>
       <c r="B314">
-        <v>10.26408970226789</v>
+        <v>10.777175623290638</v>
       </c>
     </row>
     <row r="315">
@@ -2610,7 +2626,7 @@
         <v>0.309</v>
       </c>
       <c r="B315">
-        <v>10.26068047410587</v>
+        <v>10.773918383092832</v>
       </c>
     </row>
     <row r="316">
@@ -2618,7 +2634,7 @@
         <v>0.31</v>
       </c>
       <c r="B316">
-        <v>10.257212070477941</v>
+        <v>10.77060438023303</v>
       </c>
     </row>
     <row r="317">
@@ -2626,7 +2642,7 @@
         <v>0.311</v>
       </c>
       <c r="B317">
-        <v>10.253684447853701</v>
+        <v>10.767233559962511</v>
       </c>
     </row>
     <row r="318">
@@ -2634,7 +2650,7 @@
         <v>0.312</v>
       </c>
       <c r="B318">
-        <v>10.250097562160978</v>
+        <v>10.763805866654396</v>
       </c>
     </row>
     <row r="319">
@@ -2642,7 +2658,7 @@
         <v>0.313</v>
       </c>
       <c r="B319">
-        <v>10.246451368796496</v>
+        <v>10.760321243807349</v>
       </c>
     </row>
     <row r="320">
@@ -2650,7 +2666,7 @@
         <v>0.314</v>
       </c>
       <c r="B320">
-        <v>10.242745822636818</v>
+        <v>10.75677963404946</v>
       </c>
     </row>
     <row r="321">
@@ -2658,7 +2674,7 @@
         <v>0.315</v>
       </c>
       <c r="B321">
-        <v>10.238980878049567</v>
+        <v>10.753180979142337</v>
       </c>
     </row>
     <row r="322">
@@ -2666,7 +2682,7 @@
         <v>0.316</v>
       </c>
       <c r="B322">
-        <v>10.235156488904906</v>
+        <v>10.74952521998539</v>
       </c>
     </row>
     <row r="323">
@@ -2674,7 +2690,7 @@
         <v>0.317</v>
       </c>
       <c r="B323">
-        <v>10.231272608587306</v>
+        <v>10.745812296620342</v>
       </c>
     </row>
     <row r="324">
@@ -2682,7 +2698,7 @@
         <v>0.318</v>
       </c>
       <c r="B324">
-        <v>10.227329190007596</v>
+        <v>10.742042148235937</v>
       </c>
     </row>
     <row r="325">
@@ -2690,7 +2706,7 @@
         <v>0.31900000000000001</v>
       </c>
       <c r="B325">
-        <v>10.223326185615299</v>
+        <v>10.738214713172898</v>
       </c>
     </row>
     <row r="326">
@@ -2698,7 +2714,7 @@
         <v>0.32000000000000001</v>
       </c>
       <c r="B326">
-        <v>10.219263547411247</v>
+        <v>10.734329928929093</v>
       </c>
     </row>
     <row r="327">
@@ -2706,7 +2722,7 @@
         <v>0.32100000000000001</v>
       </c>
       <c r="B327">
-        <v>10.215141226960499</v>
+        <v>10.730387732164951</v>
       </c>
     </row>
     <row r="328">
@@ -2714,7 +2730,7 @@
         <v>0.32200000000000001</v>
       </c>
       <c r="B328">
-        <v>10.210959175405556</v>
+        <v>10.726388058709128</v>
       </c>
     </row>
     <row r="329">
@@ -2722,7 +2738,7 @@
         <v>0.32300000000000001</v>
       </c>
       <c r="B329">
-        <v>10.206717343479857</v>
+        <v>10.722330843564405</v>
       </c>
     </row>
     <row r="330">
@@ -2730,7 +2746,7 @@
         <v>0.32400000000000001</v>
       </c>
       <c r="B330">
-        <v>10.202415681521606</v>
+        <v>10.718216020913866</v>
       </c>
     </row>
     <row r="331">
@@ -2738,7 +2754,7 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="B331">
-        <v>10.198054139487876</v>
+        <v>10.714043524127328</v>
       </c>
     </row>
     <row r="332">
@@ -2746,7 +2762,7 @@
         <v>0.32600000000000001</v>
       </c>
       <c r="B332">
-        <v>10.193632666969041</v>
+        <v>10.70981328576805</v>
       </c>
     </row>
     <row r="333">
@@ -2754,7 +2770,7 @@
         <v>0.32700000000000001</v>
       </c>
       <c r="B333">
-        <v>10.189151213203509</v>
+        <v>10.705525237599717</v>
       </c>
     </row>
     <row r="334">
@@ -2762,7 +2778,7 @@
         <v>0.32800000000000001</v>
       </c>
       <c r="B334">
-        <v>10.184609727092775</v>
+        <v>10.701179310593728</v>
       </c>
     </row>
     <row r="335">
@@ -2770,7 +2786,7 @@
         <v>0.32900000000000001</v>
       </c>
       <c r="B335">
-        <v>10.180008157216788</v>
+        <v>10.696775434936745</v>
       </c>
     </row>
     <row r="336">
@@ -2778,7 +2794,7 @@
         <v>0.33000000000000002</v>
       </c>
       <c r="B336">
-        <v>10.175346451849645</v>
+        <v>10.692313540038581</v>
       </c>
     </row>
     <row r="337">
@@ -2786,7 +2802,7 @@
         <v>0.33100000000000002</v>
       </c>
       <c r="B337">
-        <v>10.170624558975591</v>
+        <v>10.68779355454037</v>
       </c>
     </row>
     <row r="338">
@@ -2794,7 +2810,7 @@
         <v>0.33200000000000002</v>
       </c>
       <c r="B338">
-        <v>10.165842426305371</v>
+        <v>10.68321540632307</v>
       </c>
     </row>
     <row r="339">
@@ -2802,7 +2818,7 @@
         <v>0.33300000000000002</v>
       </c>
       <c r="B339">
-        <v>10.161000001292878</v>
+        <v>10.678579022516283</v>
       </c>
     </row>
     <row r="340">
@@ -2810,7 +2826,7 @@
         <v>0.33400000000000002</v>
       </c>
       <c r="B340">
-        <v>10.156097231152161</v>
+        <v>10.673884329507404</v>
       </c>
     </row>
     <row r="341">
@@ -2818,7 +2834,7 @@
         <v>0.33500000000000002</v>
       </c>
       <c r="B341">
-        <v>10.151134062874748</v>
+        <v>10.669131252951116</v>
       </c>
     </row>
     <row r="342">
@@ -2826,7 +2842,7 @@
         <v>0.33600000000000002</v>
       </c>
       <c r="B342">
-        <v>10.146110443247299</v>
+        <v>10.664319717779231</v>
       </c>
     </row>
     <row r="343">
@@ -2834,7 +2850,7 @@
         <v>0.33700000000000002</v>
       </c>
       <c r="B343">
-        <v>10.141026318869613</v>
+        <v>10.659449648210879</v>
       </c>
     </row>
     <row r="344">
@@ -2842,7 +2858,7 @@
         <v>0.33800000000000002</v>
       </c>
       <c r="B344">
-        <v>10.135881636172957</v>
+        <v>10.654520967763062</v>
       </c>
     </row>
     <row r="345">
@@ -2850,7 +2866,7 @@
         <v>0.33900000000000002</v>
       </c>
       <c r="B345">
-        <v>10.130676341438742</v>
+        <v>10.649533599261582</v>
       </c>
     </row>
     <row r="346">
@@ -2858,7 +2874,7 @@
         <v>0.34000000000000002</v>
       </c>
       <c r="B346">
-        <v>10.125410380817524</v>
+        <v>10.644487464852341</v>
       </c>
     </row>
     <row r="347">
@@ -2866,7 +2882,7 @@
         <v>0.34100000000000003</v>
       </c>
       <c r="B347">
-        <v>10.120083700348381</v>
+        <v>10.639382486013025</v>
       </c>
     </row>
     <row r="348">
@@ -2874,7 +2890,7 @@
         <v>0.34200000000000003</v>
       </c>
       <c r="B348">
-        <v>10.114696245978593</v>
+        <v>10.634218583565183</v>
       </c>
     </row>
     <row r="349">
@@ -2882,7 +2898,7 @@
         <v>0.34300000000000003</v>
       </c>
       <c r="B349">
-        <v>10.109247963583684</v>
+        <v>10.628995677686707</v>
       </c>
     </row>
     <row r="350">
@@ -2890,7 +2906,7 @@
         <v>0.34400000000000003</v>
       </c>
       <c r="B350">
-        <v>10.103738798987807</v>
+        <v>10.623713687924717</v>
       </c>
     </row>
     <row r="351">
@@ -2898,7 +2914,7 @@
         <v>0.34500000000000003</v>
       </c>
       <c r="B351">
-        <v>10.098168697984475</v>
+        <v>10.618372533208861</v>
       </c>
     </row>
     <row r="352">
@@ -2906,7 +2922,7 @@
         <v>0.34600000000000003</v>
       </c>
       <c r="B352">
-        <v>10.092537606357622</v>
+        <v>10.612972131865043</v>
       </c>
     </row>
     <row r="353">
@@ -2914,7 +2930,7 @@
         <v>0.34700000000000003</v>
       </c>
       <c r="B353">
-        <v>10.086845469903022</v>
+        <v>10.60751240162957</v>
       </c>
     </row>
     <row r="354">
@@ -2922,7 +2938,7 @@
         <v>0.34800000000000003</v>
       </c>
       <c r="B354">
-        <v>10.081092234450042</v>
+        <v>10.601993259663747</v>
       </c>
     </row>
     <row r="355">
@@ -2930,7 +2946,7 @@
         <v>0.34900000000000003</v>
       </c>
       <c r="B355">
-        <v>10.075277845883736</v>
+        <v>10.596414622568917</v>
       </c>
     </row>
     <row r="356">
@@ -2938,7 +2954,7 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="B356">
-        <v>10.069402250167286</v>
+        <v>10.590776406401941</v>
       </c>
     </row>
     <row r="357">
@@ -2946,7 +2962,7 @@
         <v>0.35100000000000003</v>
       </c>
       <c r="B357">
-        <v>10.063465393364776</v>
+        <v>10.585078526691161</v>
       </c>
     </row>
     <row r="358">
@@ -2954,7 +2970,7 @@
         <v>0.35200000000000004</v>
       </c>
       <c r="B358">
-        <v>10.057467221664302</v>
+        <v>10.579320898452805</v>
       </c>
     </row>
     <row r="359">
@@ -2962,7 +2978,7 @@
         <v>0.35300000000000004</v>
       </c>
       <c r="B359">
-        <v>10.051407681401418</v>
+        <v>10.573503436207876</v>
       </c>
     </row>
     <row r="360">
@@ -2970,7 +2986,7 @@
         <v>0.35400000000000004</v>
       </c>
       <c r="B360">
-        <v>10.045286719082918</v>
+        <v>10.567626053999538</v>
       </c>
     </row>
     <row r="361">
@@ -2978,7 +2994,7 @@
         <v>0.35500000000000004</v>
       </c>
       <c r="B361">
-        <v>10.039104281410939</v>
+        <v>10.56168866541096</v>
       </c>
     </row>
     <row r="362">
@@ -2986,7 +3002,7 @@
         <v>0.35600000000000004</v>
       </c>
       <c r="B362">
-        <v>10.032860315307399</v>
+        <v>10.555691183583685</v>
       </c>
     </row>
     <row r="363">
@@ -2994,7 +3010,7 @@
         <v>0.35700000000000004</v>
       </c>
       <c r="B363">
-        <v>10.026554767938746</v>
+        <v>10.549633521236473</v>
       </c>
     </row>
     <row r="364">
@@ -3002,7 +3018,7 @@
         <v>0.35800000000000004</v>
       </c>
       <c r="B364">
-        <v>10.020187586741033</v>
+        <v>10.543515590684683</v>
       </c>
     </row>
     <row r="365">
@@ -3010,7 +3026,7 @@
         <v>0.35900000000000004</v>
       </c>
       <c r="B365">
-        <v>10.013758719445301</v>
+        <v>10.537337303860147</v>
       </c>
     </row>
     <row r="366">
@@ -3018,7 +3034,7 @@
         <v>0.36000000000000004</v>
       </c>
       <c r="B366">
-        <v>10.00726811410328</v>
+        <v>10.531098572331571</v>
       </c>
     </row>
     <row r="367">
@@ -3026,7 +3042,7 @@
         <v>0.36100000000000004</v>
       </c>
       <c r="B367">
-        <v>10.000715719113371</v>
+        <v>10.524799307325473</v>
       </c>
     </row>
     <row r="368">
@@ -3034,7 +3050,7 @@
         <v>0.36200000000000004</v>
       </c>
       <c r="B368">
-        <v>9.994101483246947</v>
+        <v>10.518439419747644</v>
       </c>
     </row>
     <row r="369">
@@ -3042,7 +3058,7 @@
         <v>0.36300000000000004</v>
       </c>
       <c r="B369">
-        <v>9.9874253556749348</v>
+        <v>10.512018820205157</v>
       </c>
     </row>
     <row r="370">
@@ -3050,7 +3066,7 @@
         <v>0.36399999999999999</v>
       </c>
       <c r="B370">
-        <v>9.9806872859946676</v>
+        <v>10.505537419028911</v>
       </c>
     </row>
     <row r="371">
@@ -3058,7 +3074,7 @@
         <v>0.36499999999999999</v>
       </c>
       <c r="B371">
-        <v>9.9738872242570391</v>
+        <v>10.498995126296744</v>
       </c>
     </row>
     <row r="372">
@@ -3066,7 +3082,7 @@
         <v>0.36599999999999999</v>
       </c>
       <c r="B372">
-        <v>9.9670251209938918</v>
+        <v>10.492391851857084</v>
       </c>
     </row>
     <row r="373">
@@ -3074,7 +3090,7 @@
         <v>0.36699999999999999</v>
       </c>
       <c r="B373">
-        <v>9.960100927245696</v>
+        <v>10.485727505353175</v>
       </c>
     </row>
     <row r="374">
@@ -3082,7 +3098,7 @@
         <v>0.36799999999999999</v>
       </c>
       <c r="B374">
-        <v>9.9531145945894473</v>
+        <v>10.479001996247856</v>
       </c>
     </row>
     <row r="375">
@@ -3090,7 +3106,7 @@
         <v>0.36899999999999999</v>
       </c>
       <c r="B375">
-        <v>9.9460660751668222</v>
+        <v>10.472215233848928</v>
       </c>
     </row>
     <row r="376">
@@ -3098,7 +3114,7 @@
         <v>0.37</v>
       </c>
       <c r="B376">
-        <v>9.9389553217125535</v>
+        <v>10.465367127335089</v>
       </c>
     </row>
     <row r="377">
@@ -3106,7 +3122,7 @@
         <v>0.371</v>
       </c>
       <c r="B377">
-        <v>9.9317822875830206</v>
+        <v>10.458457585782435</v>
       </c>
     </row>
     <row r="378">
@@ -3114,7 +3130,7 @@
         <v>0.372</v>
       </c>
       <c r="B378">
-        <v>9.9245469267850517</v>
+        <v>10.451486518191569</v>
       </c>
     </row>
     <row r="379">
@@ -3122,7 +3138,7 @@
         <v>0.373</v>
       </c>
       <c r="B379">
-        <v>9.9172491940049046</v>
+        <v>10.444453833515281</v>
       </c>
     </row>
     <row r="380">
@@ -3130,7 +3146,7 @@
         <v>0.374</v>
       </c>
       <c r="B380">
-        <v>9.909889044637433</v>
+        <v>10.437359440686821</v>
       </c>
     </row>
     <row r="381">
@@ -3138,7 +3154,7 @@
         <v>0.375</v>
       </c>
       <c r="B381">
-        <v>9.9024664348154179</v>
+        <v>10.430203248648764</v>
       </c>
     </row>
     <row r="382">
@@ -3146,7 +3162,7 @@
         <v>0.376</v>
       </c>
       <c r="B382">
-        <v>9.8949813214390403</v>
+        <v>10.422985166382475</v>
       </c>
     </row>
     <row r="383">
@@ -3154,7 +3170,7 @@
         <v>0.377</v>
       </c>
       <c r="B383">
-        <v>9.887433662205483</v>
+        <v>10.415705102938162</v>
       </c>
     </row>
     <row r="384">
@@ -3162,7 +3178,7 @@
         <v>0.378</v>
       </c>
       <c r="B384">
-        <v>9.8798234156386666</v>
+        <v>10.408362967465544</v>
       </c>
     </row>
     <row r="385">
@@ -3170,7 +3186,7 @@
         <v>0.379</v>
       </c>
       <c r="B385">
-        <v>9.8721505411190531</v>
+        <v>10.400958669245099</v>
       </c>
     </row>
     <row r="386">
@@ -3178,7 +3194,7 @@
         <v>0.38</v>
       </c>
       <c r="B386">
-        <v>9.8644149989135563</v>
+        <v>10.393492117719932</v>
       </c>
     </row>
     <row r="387">
@@ -3186,7 +3202,7 @@
         <v>0.38100000000000001</v>
       </c>
       <c r="B387">
-        <v>9.856616750205486</v>
+        <v>10.385963222528225</v>
       </c>
     </row>
     <row r="388">
@@ -3194,7 +3210,7 @@
         <v>0.38200000000000001</v>
       </c>
       <c r="B388">
-        <v>9.8487557571245521</v>
+        <v>10.378371893536315</v>
       </c>
     </row>
     <row r="389">
@@ -3202,7 +3218,7 @@
         <v>0.38300000000000001</v>
       </c>
       <c r="B389">
-        <v>9.8408319827768693</v>
+        <v>10.370718040872344</v>
       </c>
     </row>
     <row r="390">
@@ -3210,7 +3226,7 @@
         <v>0.38400000000000001</v>
       </c>
       <c r="B390">
-        <v>9.8328453912749652</v>
+        <v>10.363001574960526</v>
       </c>
     </row>
     <row r="391">
@@ -3218,7 +3234,7 @@
         <v>0.38500000000000001</v>
       </c>
       <c r="B391">
-        <v>9.8247959477677522</v>
+        <v>10.355222406556013</v>
       </c>
     </row>
     <row r="392">
@@ -3226,7 +3242,7 @@
         <v>0.38600000000000001</v>
       </c>
       <c r="B392">
-        <v>9.8166836184704493</v>
+        <v>10.347380446780349</v>
       </c>
     </row>
     <row r="393">
@@ -3234,7 +3250,7 @@
         <v>0.38700000000000001</v>
       </c>
       <c r="B393">
-        <v>9.8085083706944172</v>
+        <v>10.339475607157521</v>
       </c>
     </row>
     <row r="394">
@@ -3242,7 +3258,7 @@
         <v>0.38800000000000001</v>
       </c>
       <c r="B394">
-        <v>9.8002701728768926</v>
+        <v>10.3315077996506</v>
       </c>
     </row>
     <row r="395">
@@ -3250,7 +3266,7 @@
         <v>0.38900000000000001</v>
       </c>
       <c r="B395">
-        <v>9.791968994610583</v>
+        <v>10.323476936698968</v>
       </c>
     </row>
     <row r="396">
@@ -3258,7 +3274,7 @@
         <v>0.39000000000000001</v>
       </c>
       <c r="B396">
-        <v>9.7836048066730932</v>
+        <v>10.315382931256131</v>
       </c>
     </row>
     <row r="397">
@@ -3266,7 +3282,7 @@
         <v>0.39100000000000001</v>
       </c>
       <c r="B397">
-        <v>9.7751775810561607</v>
+        <v>10.307225696828095</v>
       </c>
     </row>
     <row r="398">
@@ -3274,7 +3290,7 @@
         <v>0.39200000000000002</v>
       </c>
       <c r="B398">
-        <v>9.7666872909946516</v>
+        <v>10.299005147512331</v>
       </c>
     </row>
     <row r="399">
@@ -3282,7 +3298,7 @@
         <v>0.39300000000000002</v>
       </c>
       <c r="B399">
-        <v>9.7581339109953102</v>
+        <v>10.290721198037282</v>
       </c>
     </row>
     <row r="400">
@@ -3290,7 +3306,7 @@
         <v>0.39400000000000002</v>
       </c>
       <c r="B400">
-        <v>9.7495174168651939</v>
+        <v>10.282373763802454</v>
       </c>
     </row>
     <row r="401">
@@ -3298,7 +3314,7 @@
         <v>0.39500000000000002</v>
       </c>
       <c r="B401">
-        <v>9.7408377857397905</v>
+        <v>10.273962760919018</v>
       </c>
     </row>
     <row r="402">
@@ -3306,7 +3322,7 @@
         <v>0.39600000000000002</v>
       </c>
       <c r="B402">
-        <v>9.7320949961107424</v>
+        <v>10.265488106250988</v>
       </c>
     </row>
     <row r="403">
@@ -3314,7 +3330,7 @@
         <v>0.39700000000000002</v>
       </c>
       <c r="B403">
-        <v>9.7232890278531858</v>
+        <v>10.2569497174569</v>
       </c>
     </row>
     <row r="404">
@@ -3322,7 +3338,7 @@
         <v>0.39800000000000002</v>
       </c>
       <c r="B404">
-        <v>9.714419862252619</v>
+        <v>10.248347513032023</v>
       </c>
     </row>
     <row r="405">
@@ -3330,7 +3346,7 @@
         <v>0.39900000000000002</v>
       </c>
       <c r="B405">
-        <v>9.7054874820312786</v>
+        <v>10.239681412351075</v>
       </c>
     </row>
     <row r="406">
@@ -3338,7 +3354,7 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="B406">
-        <v>9.6964918713739827</v>
+        <v>10.230951335711424</v>
       </c>
     </row>
     <row r="407">
@@ -3346,7 +3362,7 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="B407">
-        <v>9.6964918713739827</v>
+        <v>10.230951335711424</v>
       </c>
     </row>
     <row r="408">
@@ -3354,7 +3370,7 @@
         <v>0.40100000000000002</v>
       </c>
       <c r="B408">
-        <v>9.6874631168710739</v>
+        <v>10.222186430122717</v>
       </c>
     </row>
     <row r="409">
@@ -3362,7 +3378,7 @@
         <v>0.40200000000000002</v>
       </c>
       <c r="B409">
-        <v>9.6784313467128786</v>
+        <v>10.213415918489519</v>
       </c>
     </row>
     <row r="410">
@@ -3370,7 +3386,7 @@
         <v>0.40300000000000002</v>
       </c>
       <c r="B410">
-        <v>9.669396608598813</v>
+        <v>10.204639835950791</v>
       </c>
     </row>
     <row r="411">
@@ -3378,7 +3394,7 @@
         <v>0.40400000000000003</v>
       </c>
       <c r="B411">
-        <v>9.6603589502247598</v>
+        <v>10.19585821801695</v>
       </c>
     </row>
     <row r="412">
@@ -3386,7 +3402,7 @@
         <v>0.40500000000000003</v>
       </c>
       <c r="B412">
-        <v>9.6513184192744745</v>
+        <v>10.187071100565742</v>
       </c>
     </row>
     <row r="413">
@@ -3394,7 +3410,7 @@
         <v>0.40600000000000003</v>
       </c>
       <c r="B413">
-        <v>9.6422750634109065</v>
+        <v>10.178278519838035</v>
       </c>
     </row>
     <row r="414">
@@ -3402,7 +3418,7 @@
         <v>0.40700000000000003</v>
       </c>
       <c r="B414">
-        <v>9.6332289302674443</v>
+        <v>10.16948051243355</v>
       </c>
     </row>
     <row r="415">
@@ -3410,7 +3426,7 @@
         <v>0.40800000000000003</v>
       </c>
       <c r="B415">
-        <v>9.6241800674390667</v>
+        <v>10.160677115306529</v>
       </c>
     </row>
     <row r="416">
@@ -3418,7 +3434,7 @@
         <v>0.40900000000000003</v>
       </c>
       <c r="B416">
-        <v>9.6151285224734249</v>
+        <v>10.151868365761327</v>
       </c>
     </row>
     <row r="417">
@@ -3426,7 +3442,7 @@
         <v>0.41000000000000003</v>
       </c>
       <c r="B417">
-        <v>9.6060743428618256</v>
+        <v>10.14305430144794</v>
       </c>
     </row>
     <row r="418">
@@ -3434,7 +3450,7 @@
         <v>0.41100000000000003</v>
       </c>
       <c r="B418">
-        <v>9.5970175760301419</v>
+        <v>10.134234960357473</v>
       </c>
     </row>
     <row r="419">
@@ -3442,7 +3458,7 @@
         <v>0.41200000000000003</v>
       </c>
       <c r="B419">
-        <v>9.5879582693296417</v>
+        <v>10.125410380817524</v>
       </c>
     </row>
     <row r="420">
@@ -3450,7 +3466,7 @@
         <v>0.41300000000000003</v>
       </c>
       <c r="B420">
-        <v>9.5788964700277184</v>
+        <v>10.116580601487513</v>
       </c>
     </row>
     <row r="421">
@@ -3458,7 +3474,7 @@
         <v>0.41400000000000003</v>
       </c>
       <c r="B421">
-        <v>9.569832225298553</v>
+        <v>10.107745661353933</v>
       </c>
     </row>
     <row r="422">
@@ -3466,7 +3482,7 @@
         <v>0.41500000000000004</v>
       </c>
       <c r="B422">
-        <v>9.560765582213687</v>
+        <v>10.098905599725544</v>
       </c>
     </row>
     <row r="423">
@@ -3474,7 +3490,7 @@
         <v>0.41600000000000004</v>
       </c>
       <c r="B423">
-        <v>9.5516965877324971</v>
+        <v>10.090060456228485</v>
       </c>
     </row>
     <row r="424">
@@ -3482,7 +3498,7 @@
         <v>0.41700000000000004</v>
       </c>
       <c r="B424">
-        <v>9.5426252886926104</v>
+        <v>10.081210270801318</v>
       </c>
     </row>
     <row r="425">
@@ -3490,7 +3506,7 @@
         <v>0.41800000000000004</v>
       </c>
       <c r="B425">
-        <v>9.5335517318002072</v>
+        <v>10.072355083690017</v>
       </c>
     </row>
     <row r="426">
@@ -3498,7 +3514,7 @@
         <v>0.41900000000000004</v>
       </c>
       <c r="B426">
-        <v>9.5244759636202598</v>
+        <v>10.06349493544286</v>
       </c>
     </row>
     <row r="427">
@@ -3506,7 +3522,7 @@
         <v>0.42000000000000004</v>
       </c>
       <c r="B427">
-        <v>9.5153980305666703</v>
+        <v>10.054629866905286</v>
       </c>
     </row>
     <row r="428">
@@ -3514,7 +3530,7 @@
         <v>0.42100000000000004</v>
       </c>
       <c r="B428">
-        <v>9.5063179788923318</v>
+        <v>10.045759919214643</v>
       </c>
     </row>
     <row r="429">
@@ -3522,7 +3538,7 @@
         <v>0.42200000000000004</v>
       </c>
       <c r="B429">
-        <v>9.4972358546790971</v>
+        <v>10.036885133794899</v>
       </c>
     </row>
     <row r="430">
@@ -3530,7 +3546,7 @@
         <v>0.42300000000000004</v>
       </c>
       <c r="B430">
-        <v>9.4881517038276684</v>
+        <v>10.028005552351258</v>
       </c>
     </row>
     <row r="431">
@@ -3538,7 +3554,7 @@
         <v>0.42400000000000004</v>
       </c>
       <c r="B431">
-        <v>9.4790655720473858</v>
+        <v>10.019121216864718</v>
       </c>
     </row>
     <row r="432">
@@ -3546,7 +3562,7 @@
         <v>0.42500000000000004</v>
       </c>
       <c r="B432">
-        <v>9.4699775048459465</v>
+        <v>10.010232169586553</v>
       </c>
     </row>
     <row r="433">
@@ -3554,7 +3570,7 @@
         <v>0.42600000000000005</v>
       </c>
       <c r="B433">
-        <v>9.4608875475190235</v>
+        <v>10.001338453032721</v>
       </c>
     </row>
     <row r="434">
@@ -3562,7 +3578,7 @@
         <v>0.42700000000000005</v>
       </c>
       <c r="B434">
-        <v>9.4517957451398029</v>
+        <v>9.9924401099782045</v>
       </c>
     </row>
     <row r="435">
@@ -3570,7 +3586,7 @@
         <v>0.42800000000000005</v>
       </c>
       <c r="B435">
-        <v>9.4427021425484252</v>
+        <v>9.9835371834512792</v>
       </c>
     </row>
     <row r="436">
@@ -3578,7 +3594,7 @@
         <v>0.42900000000000005</v>
       </c>
       <c r="B436">
-        <v>9.4336067843413538</v>
+        <v>9.9746297167276978</v>
       </c>
     </row>
     <row r="437">
@@ -3586,7 +3602,7 @@
         <v>0.43000000000000005</v>
       </c>
       <c r="B437">
-        <v>9.4245097148606369</v>
+        <v>9.9657177533248209</v>
       </c>
     </row>
     <row r="438">
@@ -3594,7 +3610,7 @@
         <v>0.43100000000000005</v>
       </c>
       <c r="B438">
-        <v>9.415410978183095</v>
+        <v>9.9568013369956603</v>
       </c>
     </row>
     <row r="439">
@@ -3602,7 +3618,7 @@
         <v>0.43200000000000005</v>
       </c>
       <c r="B439">
-        <v>9.4063106181094085</v>
+        <v>9.9478805117228504</v>
       </c>
     </row>
     <row r="440">
@@ -3610,7 +3626,7 @@
         <v>0.43300000000000005</v>
       </c>
       <c r="B440">
-        <v>9.3972086781531257</v>
+        <v>9.9389553217125535</v>
       </c>
     </row>
     <row r="441">
@@ -3618,7 +3634,7 @@
         <v>0.43400000000000005</v>
       </c>
       <c r="B441">
-        <v>9.3881052015295712</v>
+        <v>9.9300258113882798</v>
       </c>
     </row>
     <row r="442">
@@ -3626,7 +3642,7 @@
         <v>0.43500000000000005</v>
       </c>
       <c r="B442">
-        <v>9.3790002311446798</v>
+        <v>9.9210920253846435</v>
       </c>
     </row>
     <row r="443">
@@ -3634,7 +3650,7 @@
         <v>0.43600000000000005</v>
       </c>
       <c r="B443">
-        <v>9.3698938095837185</v>
+        <v>9.9121540085410409</v>
       </c>
     </row>
     <row r="444">
@@ -3642,7 +3658,7 @@
         <v>0.437</v>
       </c>
       <c r="B444">
-        <v>9.3607859790999335</v>
+        <v>9.9032118058952534</v>
       </c>
     </row>
     <row r="445">
@@ -3650,7 +3666,7 @@
         <v>0.438</v>
       </c>
       <c r="B445">
-        <v>9.3516767816031123</v>
+        <v>9.8942654626769695</v>
       </c>
     </row>
     <row r="446">
@@ -3658,7 +3674,7 @@
         <v>0.439</v>
       </c>
       <c r="B446">
-        <v>9.3425662586480307</v>
+        <v>9.8853150243012475</v>
       </c>
     </row>
     <row r="447">
@@ -3666,7 +3682,7 @@
         <v>0.44</v>
       </c>
       <c r="B447">
-        <v>9.3334544514228348</v>
+        <v>9.8763605363618812</v>
       </c>
     </row>
     <row r="448">
@@ -3674,7 +3690,7 @@
         <v>0.441</v>
       </c>
       <c r="B448">
-        <v>9.3243414007373193</v>
+        <v>9.8674020446247113</v>
       </c>
     </row>
     <row r="449">
@@ -3682,7 +3698,7 @@
         <v>0.442</v>
       </c>
       <c r="B449">
-        <v>9.315227147011111</v>
+        <v>9.8584395950208457</v>
       </c>
     </row>
     <row r="450">
@@ -3690,7 +3706,7 @@
         <v>0.443</v>
       </c>
       <c r="B450">
-        <v>9.3061117302617671</v>
+        <v>9.8494732336398112</v>
       </c>
     </row>
     <row r="451">
@@ -3698,7 +3714,7 @@
         <v>0.44400000000000001</v>
       </c>
       <c r="B451">
-        <v>9.2969951900927814</v>
+        <v>9.8405030067226225</v>
       </c>
     </row>
     <row r="452">
@@ -3706,7 +3722,7 @@
         <v>0.44500000000000001</v>
       </c>
       <c r="B452">
-        <v>9.2878775656814945</v>
+        <v>9.8315289606547793</v>
       </c>
     </row>
     <row r="453">
@@ -3714,7 +3730,7 @@
         <v>0.44600000000000001</v>
       </c>
       <c r="B453">
-        <v>9.2787588957669076</v>
+        <v>9.82255114195919</v>
       </c>
     </row>
     <row r="454">
@@ -3722,7 +3738,7 @@
         <v>0.44700000000000001</v>
       </c>
       <c r="B454">
-        <v>9.2696392186374172</v>
+        <v>9.8135695972890051</v>
       </c>
     </row>
     <row r="455">
@@ -3730,7 +3746,7 @@
         <v>0.44800000000000001</v>
       </c>
       <c r="B455">
-        <v>9.2605185721184409</v>
+        <v>9.8045843734203846</v>
       </c>
     </row>
     <row r="456">
@@ -3738,7 +3754,7 @@
         <v>0.44900000000000001</v>
       </c>
       <c r="B456">
-        <v>9.2513969935599629</v>
+        <v>9.7955955172451876</v>
       </c>
     </row>
     <row r="457">
@@ -3746,7 +3762,7 @@
         <v>0.45000000000000001</v>
       </c>
       <c r="B457">
-        <v>9.2422745198239724</v>
+        <v>9.7866030757635727</v>
       </c>
     </row>
     <row r="458">
@@ -3754,7 +3770,7 @@
         <v>0.45100000000000001</v>
       </c>
       <c r="B458">
-        <v>9.2331511872718171</v>
+        <v>9.7776070960765331</v>
       </c>
     </row>
     <row r="459">
@@ -3762,7 +3778,7 @@
         <v>0.45200000000000001</v>
       </c>
       <c r="B459">
-        <v>9.2240270317514668</v>
+        <v>9.7686076253783494</v>
       </c>
     </row>
     <row r="460">
@@ -3770,7 +3786,7 @@
         <v>0.45300000000000001</v>
       </c>
       <c r="B460">
-        <v>9.2149020885846671</v>
+        <v>9.7596047109489543</v>
       </c>
     </row>
     <row r="461">
@@ -3778,7 +3794,7 @@
         <v>0.45400000000000001</v>
       </c>
       <c r="B461">
-        <v>9.2057763925540179</v>
+        <v>9.7505984001462291</v>
       </c>
     </row>
     <row r="462">
@@ -3786,7 +3802,7 @@
         <v>0.45500000000000002</v>
       </c>
       <c r="B462">
-        <v>9.1966499778899315</v>
+        <v>9.7415887403982193</v>
       </c>
     </row>
     <row r="463">
@@ -3794,7 +3810,7 @@
         <v>0.45600000000000002</v>
       </c>
       <c r="B463">
-        <v>9.1875228782575249</v>
+        <v>9.7325757791952654</v>
       </c>
     </row>
     <row r="464">
@@ -3802,7 +3818,7 @@
         <v>0.45700000000000002</v>
       </c>
       <c r="B464">
-        <v>9.1783951267433981</v>
+        <v>9.7235595640820609</v>
       </c>
     </row>
     <row r="465">
@@ -3810,7 +3826,7 @@
         <v>0.45800000000000002</v>
       </c>
       <c r="B465">
-        <v>9.1692667558423153</v>
+        <v>9.7145401426496196</v>
       </c>
     </row>
     <row r="466">
@@ -3818,7 +3834,7 @@
         <v>0.45900000000000002</v>
       </c>
       <c r="B466">
-        <v>9.160137797443797</v>
+        <v>9.7055175625271719</v>
       </c>
     </row>
     <row r="467">
@@ -3826,7 +3842,7 @@
         <v>0.46000000000000002</v>
       </c>
       <c r="B467">
-        <v>9.151008282818621</v>
+        <v>9.6964918713739827</v>
       </c>
     </row>
     <row r="468">
@@ -3834,7 +3850,7 @@
         <v>0.46100000000000002</v>
       </c>
       <c r="B468">
-        <v>9.1418782426052125</v>
+        <v>9.6874631168710739</v>
       </c>
     </row>
     <row r="469">
@@ -3842,7 +3858,7 @@
         <v>0.46200000000000002</v>
       </c>
       <c r="B469">
-        <v>9.1327477067959464</v>
+        <v>9.6784313467128786</v>
       </c>
     </row>
     <row r="470">
@@ -3850,7 +3866,7 @@
         <v>0.46300000000000002</v>
       </c>
       <c r="B470">
-        <v>9.1236167047233501</v>
+        <v>9.669396608598813</v>
       </c>
     </row>
     <row r="471">
@@ -3858,7 +3874,7 @@
         <v>0.46400000000000002</v>
       </c>
       <c r="B471">
-        <v>9.1144852650462145</v>
+        <v>9.6603589502247598</v>
       </c>
     </row>
     <row r="472">
@@ -3866,7 +3882,7 @@
         <v>0.46500000000000002</v>
       </c>
       <c r="B472">
-        <v>9.1053534157355962</v>
+        <v>9.6513184192744745</v>
       </c>
     </row>
     <row r="473">
@@ -3874,7 +3890,7 @@
         <v>0.46600000000000003</v>
       </c>
       <c r="B473">
-        <v>9.0962211840607345</v>
+        <v>9.6422750634109065</v>
       </c>
     </row>
     <row r="474">
@@ -3882,7 +3898,7 @@
         <v>0.46700000000000003</v>
       </c>
       <c r="B474">
-        <v>9.0870885965748531</v>
+        <v>9.6332289302674443</v>
       </c>
     </row>
     <row r="475">
@@ -3890,7 +3906,7 @@
         <v>0.46800000000000003</v>
       </c>
       <c r="B475">
-        <v>9.0779556791008922</v>
+        <v>9.6241800674390667</v>
       </c>
     </row>
     <row r="476">
@@ -3898,7 +3914,7 @@
         <v>0.46900000000000003</v>
       </c>
       <c r="B476">
-        <v>9.0688224567171023</v>
+        <v>9.6151285224734249</v>
       </c>
     </row>
     <row r="477">
@@ -3906,7 +3922,7 @@
         <v>0.47000000000000003</v>
       </c>
       <c r="B477">
-        <v>9.0596889537425813</v>
+        <v>9.6060743428618256</v>
       </c>
     </row>
     <row r="478">
@@ -3914,7 +3930,7 @@
         <v>0.47100000000000003</v>
       </c>
       <c r="B478">
-        <v>9.050555193722678</v>
+        <v>9.5970175760301419</v>
       </c>
     </row>
     <row r="479">
@@ -3922,7 +3938,7 @@
         <v>0.47200000000000003</v>
       </c>
       <c r="B479">
-        <v>9.0414211994143123</v>
+        <v>9.5879582693296417</v>
       </c>
     </row>
     <row r="480">
@@ -3930,7 +3946,7 @@
         <v>0.47300000000000003</v>
       </c>
       <c r="B480">
-        <v>9.0322869927712013</v>
+        <v>9.5788964700277184</v>
       </c>
     </row>
     <row r="481">
@@ -3938,7 +3954,7 @@
         <v>0.47400000000000003</v>
       </c>
       <c r="B481">
-        <v>9.0231525949289662</v>
+        <v>9.569832225298553</v>
       </c>
     </row>
     <row r="482">
@@ -3946,7 +3962,7 @@
         <v>0.47500000000000003</v>
       </c>
       <c r="B482">
-        <v>9.0140180261901612</v>
+        <v>9.560765582213687</v>
       </c>
     </row>
     <row r="483">
@@ -3954,7 +3970,7 @@
         <v>0.47600000000000003</v>
       </c>
       <c r="B483">
-        <v>9.0048833060091837</v>
+        <v>9.5516965877324971</v>
       </c>
     </row>
     <row r="484">
@@ -3962,7 +3978,7 @@
         <v>0.47700000000000004</v>
       </c>
       <c r="B484">
-        <v>8.9957484529770895</v>
+        <v>9.5426252886926104</v>
       </c>
     </row>
     <row r="485">
@@ -3970,7 +3986,7 @@
         <v>0.47800000000000004</v>
       </c>
       <c r="B485">
-        <v>8.9866134848063215</v>
+        <v>9.5335517318002072</v>
       </c>
     </row>
     <row r="486">
@@ -3978,7 +3994,7 @@
         <v>0.47900000000000004</v>
       </c>
       <c r="B486">
-        <v>8.9774784183153056</v>
+        <v>9.5244759636202598</v>
       </c>
     </row>
     <row r="487">
@@ -3986,7 +4002,7 @@
         <v>0.48000000000000004</v>
       </c>
       <c r="B487">
-        <v>8.9683432694129799</v>
+        <v>9.5153980305666703</v>
       </c>
     </row>
     <row r="488">
@@ -3994,7 +4010,7 @@
         <v>0.48100000000000004</v>
       </c>
       <c r="B488">
-        <v>8.9592080530831986</v>
+        <v>9.5063179788923318</v>
       </c>
     </row>
     <row r="489">
@@ -4002,7 +4018,7 @@
         <v>0.48200000000000004</v>
       </c>
       <c r="B489">
-        <v>8.9500727833690394</v>
+        <v>9.4972358546790971</v>
       </c>
     </row>
     <row r="490">
@@ -4010,7 +4026,7 @@
         <v>0.48300000000000004</v>
       </c>
       <c r="B490">
-        <v>8.9409374733570157</v>
+        <v>9.4881517038276684</v>
       </c>
     </row>
     <row r="491">
@@ -4018,7 +4034,7 @@
         <v>0.48400000000000004</v>
       </c>
       <c r="B491">
-        <v>8.9318021351611794</v>
+        <v>9.4790655720473858</v>
       </c>
     </row>
     <row r="492">
@@ -4026,7 +4042,7 @@
         <v>0.48500000000000004</v>
       </c>
       <c r="B492">
-        <v>8.922666779907118</v>
+        <v>9.4699775048459465</v>
       </c>
     </row>
     <row r="493">
@@ -4034,7 +4050,7 @@
         <v>0.48600000000000004</v>
       </c>
       <c r="B493">
-        <v>8.9135314177158609</v>
+        <v>9.4608875475190235</v>
       </c>
     </row>
     <row r="494">
@@ -4042,7 +4058,7 @@
         <v>0.48700000000000004</v>
       </c>
       <c r="B494">
-        <v>8.9043960576876664</v>
+        <v>9.4517957451398029</v>
       </c>
     </row>
     <row r="495">
@@ -4050,7 +4066,7 @@
         <v>0.48799999999999999</v>
       </c>
       <c r="B495">
-        <v>8.895260707885722</v>
+        <v>9.4427021425484252</v>
       </c>
     </row>
     <row r="496">
@@ -4058,7 +4074,7 @@
         <v>0.48899999999999999</v>
       </c>
       <c r="B496">
-        <v>8.8861253753197236</v>
+        <v>9.4336067843413538</v>
       </c>
     </row>
     <row r="497">
@@ -4066,7 +4082,7 @@
         <v>0.48999999999999999</v>
       </c>
       <c r="B497">
-        <v>8.8769900659293626</v>
+        <v>9.4245097148606369</v>
       </c>
     </row>
     <row r="498">
@@ -4074,7 +4090,7 @@
         <v>0.49099999999999999</v>
       </c>
       <c r="B498">
-        <v>8.867854784567708</v>
+        <v>9.415410978183095</v>
       </c>
     </row>
     <row r="499">
@@ -4082,7 +4098,7 @@
         <v>0.49199999999999999</v>
       </c>
       <c r="B499">
-        <v>8.858719534984477</v>
+        <v>9.4063106181094085</v>
       </c>
     </row>
     <row r="500">
@@ -4090,7 +4106,7 @@
         <v>0.49299999999999999</v>
       </c>
       <c r="B500">
-        <v>8.849584319809205</v>
+        <v>9.3972086781531257</v>
       </c>
     </row>
     <row r="501">
@@ -4098,7 +4114,7 @@
         <v>0.49399999999999999</v>
       </c>
       <c r="B501">
-        <v>8.8404491405343126</v>
+        <v>9.3881052015295712</v>
       </c>
     </row>
     <row r="502">
@@ -4106,7 +4122,7 @@
         <v>0.495</v>
       </c>
       <c r="B502">
-        <v>8.8313139974980626</v>
+        <v>9.3790002311446798</v>
       </c>
     </row>
     <row r="503">
@@ -4114,7 +4130,7 @@
         <v>0.496</v>
       </c>
       <c r="B503">
-        <v>8.8221788898674145</v>
+        <v>9.3698938095837185</v>
       </c>
     </row>
     <row r="504">
@@ -4122,7 +4138,7 @@
         <v>0.497</v>
       </c>
       <c r="B504">
-        <v>8.8130438156207731</v>
+        <v>9.3607859790999335</v>
       </c>
     </row>
     <row r="505">
@@ -4130,7 +4146,7 @@
         <v>0.498</v>
       </c>
       <c r="B505">
-        <v>8.8039087715306241</v>
+        <v>9.3516767816031123</v>
       </c>
     </row>
     <row r="506">
@@ -4138,7 +4154,7 @@
         <v>0.499</v>
       </c>
       <c r="B506">
-        <v>8.7947737531460781</v>
+        <v>9.3425662586480307</v>
       </c>
     </row>
     <row r="507">
@@ -4146,7 +4162,7 @@
         <v>0.5</v>
       </c>
       <c r="B507">
-        <v>8.7856387547752899</v>
+        <v>9.3334544514228348</v>
       </c>
     </row>
     <row r="508">
@@ -4154,7 +4170,7 @@
         <v>0.501</v>
       </c>
       <c r="B508">
-        <v>8.7765037694677872</v>
+        <v>9.3243414007373193</v>
       </c>
     </row>
     <row r="509">
@@ -4162,7 +4178,7 @@
         <v>0.502</v>
       </c>
       <c r="B509">
-        <v>8.7673687889966789</v>
+        <v>9.315227147011111</v>
       </c>
     </row>
     <row r="510">
@@ -4170,7 +4186,7 @@
         <v>0.503</v>
       </c>
       <c r="B510">
-        <v>8.7582338038407634</v>
+        <v>9.3061117302617671</v>
       </c>
     </row>
     <row r="511">
@@ -4178,7 +4194,7 @@
         <v>0.504</v>
       </c>
       <c r="B511">
-        <v>8.7490988031665324</v>
+        <v>9.2969951900927814</v>
       </c>
     </row>
     <row r="512">
@@ -4186,7 +4202,7 @@
         <v>0.505</v>
       </c>
       <c r="B512">
-        <v>8.7399637748100503</v>
+        <v>9.2878775656814945</v>
       </c>
     </row>
     <row r="513">
@@ -4194,7 +4210,7 @@
         <v>0.50600000000000001</v>
       </c>
       <c r="B513">
-        <v>8.7308287052587481</v>
+        <v>9.2787588957669076</v>
       </c>
     </row>
     <row r="514">
@@ -4202,7 +4218,7 @@
         <v>0.50700000000000001</v>
       </c>
       <c r="B514">
-        <v>8.7216935796330919</v>
+        <v>9.2696392186374172</v>
       </c>
     </row>
     <row r="515">
@@ -4210,7 +4226,7 @@
         <v>0.50800000000000001</v>
       </c>
       <c r="B515">
-        <v>8.7125583816681473</v>
+        <v>9.2605185721184409</v>
       </c>
     </row>
     <row r="516">
@@ -4218,7 +4234,7 @@
         <v>0.50900000000000001</v>
       </c>
       <c r="B516">
-        <v>8.7034230936950401</v>
+        <v>9.2513969935599629</v>
       </c>
     </row>
     <row r="517">
@@ -4226,7 +4242,7 @@
         <v>0.51000000000000001</v>
       </c>
       <c r="B517">
-        <v>8.6942876966223004</v>
+        <v>9.2422745198239724</v>
       </c>
     </row>
     <row r="518">
@@ -4234,7 +4250,7 @@
         <v>0.51100000000000001</v>
       </c>
       <c r="B518">
-        <v>8.6851521699170942</v>
+        <v>9.2331511872718171</v>
       </c>
     </row>
     <row r="519">
@@ -4242,7 +4258,7 @@
         <v>0.51200000000000001</v>
       </c>
       <c r="B519">
-        <v>8.6760164915863651</v>
+        <v>9.2240270317514668</v>
       </c>
     </row>
     <row r="520">
@@ -4250,7 +4266,7 @@
         <v>0.51300000000000001</v>
       </c>
       <c r="B520">
-        <v>8.6668806381578367</v>
+        <v>9.2149020885846671</v>
       </c>
     </row>
     <row r="521">
@@ -4258,7 +4274,7 @@
         <v>0.51400000000000001</v>
       </c>
       <c r="B521">
-        <v>8.6577445846609287</v>
+        <v>9.2057763925540179</v>
       </c>
     </row>
     <row r="522">
@@ -4266,7 +4282,7 @@
         <v>0.51500000000000001</v>
       </c>
       <c r="B522">
-        <v>8.6486083046075546</v>
+        <v>9.1966499778899315</v>
       </c>
     </row>
     <row r="523">
@@ -4274,7 +4290,7 @@
         <v>0.51600000000000001</v>
       </c>
       <c r="B523">
-        <v>8.639471769972797</v>
+        <v>9.1875228782575249</v>
       </c>
     </row>
     <row r="524">
@@ -4282,7 +4298,7 @@
         <v>0.51700000000000002</v>
       </c>
       <c r="B524">
-        <v>8.6303349511754952</v>
+        <v>9.1783951267433981</v>
       </c>
     </row>
     <row r="525">
@@ -4290,7 +4306,7 @@
         <v>0.51800000000000002</v>
       </c>
       <c r="B525">
-        <v>8.621197817058702</v>
+        <v>9.1692667558423153</v>
       </c>
     </row>
     <row r="526">
@@ -4298,7 +4314,7 @@
         <v>0.51900000000000002</v>
       </c>
       <c r="B526">
-        <v>8.6120603348700318</v>
+        <v>9.160137797443797</v>
       </c>
     </row>
     <row r="527">
@@ -4306,7 +4322,7 @@
         <v>0.52000000000000002</v>
       </c>
       <c r="B527">
-        <v>8.6029224702419071</v>
+        <v>9.151008282818621</v>
       </c>
     </row>
     <row r="528">
@@ -4314,7 +4330,7 @@
         <v>0.52100000000000002</v>
       </c>
       <c r="B528">
-        <v>8.5937841871716873</v>
+        <v>9.1418782426052125</v>
       </c>
     </row>
     <row r="529">
@@ -4322,7 +4338,7 @@
         <v>0.52200000000000002</v>
       </c>
       <c r="B529">
-        <v>8.5846454480016732</v>
+        <v>9.1327477067959464</v>
       </c>
     </row>
     <row r="530">
@@ -4330,7 +4346,7 @@
         <v>0.52300000000000002</v>
       </c>
       <c r="B530">
-        <v>8.5755062133990236</v>
+        <v>9.1236167047233501</v>
       </c>
     </row>
     <row r="531">
@@ -4338,7 +4354,7 @@
         <v>0.52400000000000002</v>
       </c>
       <c r="B531">
-        <v>8.5663664423355339</v>
+        <v>9.1144852650462145</v>
       </c>
     </row>
     <row r="532">
@@ -4346,7 +4362,7 @@
         <v>0.52500000000000002</v>
       </c>
       <c r="B532">
-        <v>8.5572260920673209</v>
+        <v>9.1053534157355962</v>
       </c>
     </row>
     <row r="533">
@@ -4354,7 +4370,7 @@
         <v>0.52600000000000002</v>
       </c>
       <c r="B533">
-        <v>8.5480851181143791</v>
+        <v>9.0962211840607345</v>
       </c>
     </row>
     <row r="534">
@@ -4362,7 +4378,7 @@
         <v>0.52700000000000002</v>
       </c>
       <c r="B534">
-        <v>8.5389434742400354</v>
+        <v>9.0870885965748531</v>
       </c>
     </row>
     <row r="535">
@@ -4370,7 +4386,7 @@
         <v>0.52800000000000002</v>
       </c>
       <c r="B535">
-        <v>8.5298011124302846</v>
+        <v>9.0779556791008922</v>
       </c>
     </row>
     <row r="536">
@@ -4378,7 +4394,7 @@
         <v>0.52900000000000003</v>
       </c>
       <c r="B536">
-        <v>8.5206579828730042</v>
+        <v>9.0688224567171023</v>
       </c>
     </row>
     <row r="537">
@@ -4386,7 +4402,7 @@
         <v>0.53000000000000003</v>
       </c>
       <c r="B537">
-        <v>8.5115140339370736</v>
+        <v>9.0596889537425813</v>
       </c>
     </row>
     <row r="538">
@@ -4394,7 +4410,7 @@
         <v>0.53100000000000003</v>
       </c>
       <c r="B538">
-        <v>8.5023692121513541</v>
+        <v>9.050555193722678</v>
       </c>
     </row>
     <row r="539">
@@ -4402,7 +4418,7 @@
         <v>0.53200000000000003</v>
       </c>
       <c r="B539">
-        <v>8.4932234621835754</v>
+        <v>9.0414211994143123</v>
       </c>
     </row>
     <row r="540">
@@ -4410,7 +4426,7 @@
         <v>0.53300000000000003</v>
       </c>
       <c r="B540">
-        <v>8.484076726819092</v>
+        <v>9.0322869927712013</v>
       </c>
     </row>
     <row r="541">
@@ -4418,7 +4434,7 @@
         <v>0.53400000000000003</v>
       </c>
       <c r="B541">
-        <v>8.4749289469395332</v>
+        <v>9.0231525949289662</v>
       </c>
     </row>
     <row r="542">
@@ -4426,7 +4442,7 @@
         <v>0.53500000000000003</v>
       </c>
       <c r="B542">
-        <v>8.4657800615013343</v>
+        <v>9.0140180261901612</v>
       </c>
     </row>
     <row r="543">
@@ -4434,7 +4450,7 @@
         <v>0.53600000000000003</v>
       </c>
       <c r="B543">
-        <v>8.4566300075141498</v>
+        <v>9.0048833060091837</v>
       </c>
     </row>
     <row r="544">
@@ -4442,7 +4458,7 @@
         <v>0.53700000000000003</v>
       </c>
       <c r="B544">
-        <v>8.4474787200191557</v>
+        <v>8.9957484529770895</v>
       </c>
     </row>
     <row r="545">
@@ -4450,7 +4466,7 @@
         <v>0.53800000000000003</v>
       </c>
       <c r="B545">
-        <v>8.4383261320672283</v>
+        <v>8.9866134848063215</v>
       </c>
     </row>
     <row r="546">
@@ -4458,7 +4474,7 @@
         <v>0.53900000000000003</v>
       </c>
       <c r="B546">
-        <v>8.4291721746970101</v>
+        <v>8.9774784183153056</v>
       </c>
     </row>
     <row r="547">
@@ -4466,7 +4482,7 @@
         <v>0.54000000000000004</v>
       </c>
       <c r="B547">
-        <v>8.4200167769128633</v>
+        <v>8.9683432694129799</v>
       </c>
     </row>
     <row r="548">
@@ -4474,7 +4490,7 @@
         <v>0.54100000000000004</v>
       </c>
       <c r="B548">
-        <v>8.4108598656626992</v>
+        <v>8.9592080530831986</v>
       </c>
     </row>
     <row r="549">
@@ -4482,7 +4498,7 @@
         <v>0.54200000000000004</v>
       </c>
       <c r="B549">
-        <v>8.401701365815688</v>
+        <v>8.9500727833690394</v>
       </c>
     </row>
     <row r="550">
@@ -4490,7 +4506,7 @@
         <v>0.54300000000000004</v>
       </c>
       <c r="B550">
-        <v>8.3925412001398598</v>
+        <v>8.9409374733570157</v>
       </c>
     </row>
     <row r="551">
@@ -4498,7 +4514,7 @@
         <v>0.54400000000000004</v>
       </c>
       <c r="B551">
-        <v>8.3833792892795849</v>
+        <v>8.9318021351611794</v>
       </c>
     </row>
     <row r="552">
@@ -4506,7 +4522,7 @@
         <v>0.54500000000000004</v>
       </c>
       <c r="B552">
-        <v>8.3742155517329291</v>
+        <v>8.922666779907118</v>
       </c>
     </row>
     <row r="553">
@@ -4514,7 +4530,7 @@
         <v>0.54600000000000004</v>
       </c>
       <c r="B553">
-        <v>8.365049903828897</v>
+        <v>8.9135314177158609</v>
       </c>
     </row>
     <row r="554">
@@ -4522,7 +4538,7 @@
         <v>0.54700000000000004</v>
       </c>
       <c r="B554">
-        <v>8.3558822597045577</v>
+        <v>8.9043960576876664</v>
       </c>
     </row>
     <row r="555">
@@ -4530,7 +4546,7 @@
         <v>0.54800000000000004</v>
       </c>
       <c r="B555">
-        <v>8.3467125312820478</v>
+        <v>8.895260707885722</v>
       </c>
     </row>
     <row r="556">
@@ -4538,7 +4554,7 @@
         <v>0.54900000000000004</v>
       </c>
       <c r="B556">
-        <v>8.3375406282454527</v>
+        <v>8.8861253753197236</v>
       </c>
     </row>
     <row r="557">
@@ -4546,7 +4562,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="B557">
-        <v>8.3283664580175749</v>
+        <v>8.8769900659293626</v>
       </c>
     </row>
     <row r="558">
@@ -4554,7 +4570,7 @@
         <v>0.55100000000000005</v>
       </c>
       <c r="B558">
-        <v>8.3191899257365804</v>
+        <v>8.867854784567708</v>
       </c>
     </row>
     <row r="559">
@@ -4562,7 +4578,7 @@
         <v>0.55200000000000005</v>
       </c>
       <c r="B559">
-        <v>8.3100109342325261</v>
+        <v>8.858719534984477</v>
       </c>
     </row>
     <row r="560">
@@ -4570,7 +4586,7 @@
         <v>0.55300000000000005</v>
       </c>
       <c r="B560">
-        <v>8.300829384003757</v>
+        <v>8.849584319809205</v>
       </c>
     </row>
     <row r="561">
@@ -4578,7 +4594,7 @@
         <v>0.55400000000000005</v>
       </c>
       <c r="B561">
-        <v>8.291645173193201</v>
+        <v>8.8404491405343126</v>
       </c>
     </row>
     <row r="562">
@@ -4586,7 +4602,7 @@
         <v>0.55500000000000005</v>
       </c>
       <c r="B562">
-        <v>8.2824581975645284</v>
+        <v>8.8313139974980626</v>
       </c>
     </row>
     <row r="563">
@@ -4594,7 +4610,7 @@
         <v>0.55600000000000005</v>
       </c>
       <c r="B563">
-        <v>8.2732683504781903</v>
+        <v>8.8221788898674145</v>
       </c>
     </row>
     <row r="564">
@@ -4602,7 +4618,7 @@
         <v>0.55700000000000005</v>
       </c>
       <c r="B564">
-        <v>8.264075522867353</v>
+        <v>8.8130438156207731</v>
       </c>
     </row>
     <row r="565">
@@ -4610,7 +4626,7 @@
         <v>0.55800000000000005</v>
       </c>
       <c r="B565">
-        <v>8.2548796032136877</v>
+        <v>8.8039087715306241</v>
       </c>
     </row>
     <row r="566">
@@ -4618,7 +4634,7 @@
         <v>0.55900000000000005</v>
       </c>
       <c r="B566">
-        <v>8.2456804775230541</v>
+        <v>8.7947737531460781</v>
       </c>
     </row>
     <row r="567">
@@ -4626,7 +4642,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="B567">
-        <v>8.236478029301054</v>
+        <v>8.7856387547752899</v>
       </c>
     </row>
     <row r="568">
@@ -4634,7 +4650,7 @@
         <v>0.56100000000000005</v>
       </c>
       <c r="B568">
-        <v>8.2272721395284698</v>
+        <v>8.7765037694677872</v>
       </c>
     </row>
     <row r="569">
@@ -4642,7 +4658,7 @@
         <v>0.56200000000000006</v>
       </c>
       <c r="B569">
-        <v>8.2180626866365767</v>
+        <v>8.7673687889966789</v>
       </c>
     </row>
     <row r="570">
@@ -4650,7 +4666,7 @@
         <v>0.56300000000000006</v>
       </c>
       <c r="B570">
-        <v>8.2088495464823268</v>
+        <v>8.7582338038407634</v>
       </c>
     </row>
     <row r="571">
@@ -4658,7 +4674,7 @@
         <v>0.56400000000000006</v>
       </c>
       <c r="B571">
-        <v>8.1996325923234217</v>
+        <v>8.7490988031665324</v>
       </c>
     </row>
     <row r="572">
@@ -4666,7 +4682,7 @@
         <v>0.56500000000000006</v>
       </c>
       <c r="B572">
-        <v>8.1904116947932515</v>
+        <v>8.7399637748100503</v>
       </c>
     </row>
     <row r="573">
@@ -4674,7 +4690,7 @@
         <v>0.56600000000000006</v>
       </c>
       <c r="B573">
-        <v>8.1811867218757186</v>
+        <v>8.7308287052587481</v>
       </c>
     </row>
     <row r="574">
@@ -4682,7 +4698,7 @@
         <v>0.56700000000000006</v>
       </c>
       <c r="B574">
-        <v>8.1719575388799317</v>
+        <v>8.7216935796330919</v>
       </c>
     </row>
     <row r="575">
@@ -4690,7 +4706,7 @@
         <v>0.56800000000000006</v>
       </c>
       <c r="B575">
-        <v>8.1627240084147772</v>
+        <v>8.7125583816681473</v>
       </c>
     </row>
     <row r="576">
@@ -4698,7 +4714,7 @@
         <v>0.56900000000000006</v>
       </c>
       <c r="B576">
-        <v>8.1534859903633663</v>
+        <v>8.7034230936950401</v>
       </c>
     </row>
     <row r="577">
@@ -4706,7 +4722,7 @@
         <v>0.57000000000000006</v>
       </c>
       <c r="B577">
-        <v>8.1442433418573668</v>
+        <v>8.6942876966223004</v>
       </c>
     </row>
     <row r="578">
@@ -4714,7 +4730,7 @@
         <v>0.57100000000000006</v>
       </c>
       <c r="B578">
-        <v>8.1349959172511905</v>
+        <v>8.6851521699170942</v>
       </c>
     </row>
     <row r="579">
@@ -4722,7 +4738,7 @@
         <v>0.57200000000000006</v>
       </c>
       <c r="B579">
-        <v>8.1257435680960732</v>
+        <v>8.6760164915863651</v>
       </c>
     </row>
     <row r="580">
@@ -4730,7 +4746,7 @@
         <v>0.57300000000000006</v>
       </c>
       <c r="B580">
-        <v>8.1164861431140274</v>
+        <v>8.6668806381578367</v>
       </c>
     </row>
     <row r="581">
@@ -4738,7 +4754,7 @@
         <v>0.57400000000000007</v>
       </c>
       <c r="B581">
-        <v>8.1072234881716589</v>
+        <v>8.6577445846609287</v>
       </c>
     </row>
     <row r="582">
@@ -4746,7 +4762,7 @@
         <v>0.57500000000000007</v>
       </c>
       <c r="B582">
-        <v>8.0979554462538665</v>
+        <v>8.6486083046075546</v>
       </c>
     </row>
     <row r="583">
@@ -4754,7 +4770,7 @@
         <v>0.57600000000000007</v>
       </c>
       <c r="B583">
-        <v>8.0886818574374182</v>
+        <v>8.639471769972797</v>
       </c>
     </row>
     <row r="584">
@@ -4762,7 +4778,7 @@
         <v>0.57699999999999996</v>
       </c>
       <c r="B584">
-        <v>8.0794025588643947</v>
+        <v>8.6303349511754952</v>
       </c>
     </row>
     <row r="585">
@@ -4770,7 +4786,7 @@
         <v>0.57800000000000007</v>
       </c>
       <c r="B585">
-        <v>8.0701173847155054</v>
+        <v>8.621197817058702</v>
       </c>
     </row>
     <row r="586">
@@ -4778,7 +4794,7 @@
         <v>0.57899999999999996</v>
       </c>
       <c r="B586">
-        <v>8.0608261661832863</v>
+        <v>8.6120603348700318</v>
       </c>
     </row>
     <row r="587">
@@ -4786,7 +4802,7 @@
         <v>0.58000000000000007</v>
       </c>
       <c r="B587">
-        <v>8.0515287314451687</v>
+        <v>8.6029224702419071</v>
       </c>
     </row>
     <row r="588">
@@ -4794,7 +4810,7 @@
         <v>0.58099999999999996</v>
       </c>
       <c r="B588">
-        <v>8.0422249056364095</v>
+        <v>8.5937841871716873</v>
       </c>
     </row>
     <row r="589">
@@ -4802,7 +4818,7 @@
         <v>0.58200000000000007</v>
       </c>
       <c r="B589">
-        <v>8.032914510822911</v>
+        <v>8.5846454480016732</v>
       </c>
     </row>
     <row r="590">
@@ -4810,7 +4826,7 @@
         <v>0.58299999999999996</v>
       </c>
       <c r="B590">
-        <v>8.0235973659739006</v>
+        <v>8.5755062133990236</v>
       </c>
     </row>
     <row r="591">
@@ -4818,7 +4834,7 @@
         <v>0.58400000000000007</v>
       </c>
       <c r="B591">
-        <v>8.0142732869344915</v>
+        <v>8.5663664423355339</v>
       </c>
     </row>
     <row r="592">
@@ -4826,7 +4842,7 @@
         <v>0.58499999999999996</v>
       </c>
       <c r="B592">
-        <v>8.0049420863981116</v>
+        <v>8.5572260920673209</v>
       </c>
     </row>
     <row r="593">
@@ -4834,7 +4850,7 @@
         <v>0.58600000000000008</v>
       </c>
       <c r="B593">
-        <v>7.9956035738787943</v>
+        <v>8.5480851181143791</v>
       </c>
     </row>
     <row r="594">
@@ -4842,7 +4858,7 @@
         <v>0.58699999999999997</v>
       </c>
       <c r="B594">
-        <v>7.9862575556833653</v>
+        <v>8.5389434742400354</v>
       </c>
     </row>
     <row r="595">
@@ -4850,7 +4866,7 @@
         <v>0.58800000000000008</v>
       </c>
       <c r="B595">
-        <v>7.9769038348834762</v>
+        <v>8.5298011124302846</v>
       </c>
     </row>
     <row r="596">
@@ -4858,7 +4874,7 @@
         <v>0.58899999999999997</v>
       </c>
       <c r="B596">
-        <v>7.9675422112875198</v>
+        <v>8.5206579828730042</v>
       </c>
     </row>
     <row r="597">
@@ -4866,7 +4882,7 @@
         <v>0.59000000000000008</v>
       </c>
       <c r="B597">
-        <v>7.9581724814124186</v>
+        <v>8.5115140339370736</v>
       </c>
     </row>
     <row r="598">
@@ -4874,7 +4890,7 @@
         <v>0.59099999999999997</v>
       </c>
       <c r="B598">
-        <v>7.9487944384552778</v>
+        <v>8.5023692121513541</v>
       </c>
     </row>
     <row r="599">
@@ -4882,7 +4898,7 @@
         <v>0.59200000000000008</v>
       </c>
       <c r="B599">
-        <v>7.9394078722649128</v>
+        <v>8.4932234621835754</v>
       </c>
     </row>
     <row r="600">
@@ -4890,7 +4906,7 @@
         <v>0.59299999999999997</v>
       </c>
       <c r="B600">
-        <v>7.9300125693132451</v>
+        <v>8.484076726819092</v>
       </c>
     </row>
     <row r="601">
@@ -4898,7 +4914,7 @@
         <v>0.59400000000000008</v>
       </c>
       <c r="B601">
-        <v>7.9206083126665687</v>
+        <v>8.4749289469395332</v>
       </c>
     </row>
     <row r="602">
@@ -4906,7 +4922,7 @@
         <v>0.59499999999999997</v>
       </c>
       <c r="B602">
-        <v>7.9111948819566882</v>
+        <v>8.4657800615013343</v>
       </c>
     </row>
     <row r="603">
@@ -4914,7 +4930,7 @@
         <v>0.59600000000000009</v>
       </c>
       <c r="B603">
-        <v>7.9017720533519187</v>
+        <v>8.4566300075141498</v>
       </c>
     </row>
     <row r="604">
@@ -4922,7 +4938,7 @@
         <v>0.59699999999999998</v>
       </c>
       <c r="B604">
-        <v>7.8923395995279666</v>
+        <v>8.4474787200191557</v>
       </c>
     </row>
     <row r="605">
@@ -4930,7 +4946,7 @@
         <v>0.59800000000000009</v>
       </c>
       <c r="B605">
-        <v>7.8828972896386702</v>
+        <v>8.4383261320672283</v>
       </c>
     </row>
     <row r="606">
@@ -4938,7 +4954,7 @@
         <v>0.59899999999999998</v>
       </c>
       <c r="B606">
-        <v>7.8734448892866125</v>
+        <v>8.4291721746970101</v>
       </c>
     </row>
     <row r="607">
@@ -4946,7 +4962,7 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="B607">
-        <v>7.8639821604936042</v>
+        <v>8.4200167769128633</v>
       </c>
     </row>
     <row r="608">
@@ -4954,7 +4970,7 @@
         <v>0.60099999999999998</v>
       </c>
       <c r="B608">
-        <v>7.8545088616710288</v>
+        <v>8.4108598656626992</v>
       </c>
     </row>
     <row r="609">
@@ -4962,7 +4978,7 @@
         <v>0.60200000000000009</v>
       </c>
       <c r="B609">
-        <v>7.8450247475900667</v>
+        <v>8.401701365815688</v>
       </c>
     </row>
     <row r="610">
@@ -4970,7 +4986,7 @@
         <v>0.60299999999999998</v>
       </c>
       <c r="B610">
-        <v>7.8355295693517739</v>
+        <v>8.3925412001398598</v>
       </c>
     </row>
     <row r="611">
@@ -4978,7 +4994,7 @@
         <v>0.60400000000000009</v>
       </c>
       <c r="B611">
-        <v>7.8260230743570407</v>
+        <v>8.3833792892795849</v>
       </c>
     </row>
     <row r="612">
@@ -4986,7 +5002,7 @@
         <v>0.60499999999999998</v>
       </c>
       <c r="B612">
-        <v>7.8165050062764081</v>
+        <v>8.3742155517329291</v>
       </c>
     </row>
     <row r="613">
@@ -4994,7 +5010,7 @@
         <v>0.60600000000000009</v>
       </c>
       <c r="B613">
-        <v>7.8069751050197587</v>
+        <v>8.365049903828897</v>
       </c>
     </row>
     <row r="614">
@@ -5002,7 +5018,7 @@
         <v>0.60699999999999998</v>
       </c>
       <c r="B614">
-        <v>7.7974331067058706</v>
+        <v>8.3558822597045577</v>
       </c>
     </row>
     <row r="615">
@@ -5010,7 +5026,7 @@
         <v>0.6080000000000001</v>
       </c>
       <c r="B615">
-        <v>7.7878787436318397</v>
+        <v>8.3467125312820478</v>
       </c>
     </row>
     <row r="616">
@@ -5018,7 +5034,7 @@
         <v>0.60899999999999999</v>
       </c>
       <c r="B616">
-        <v>7.7783117442423668</v>
+        <v>8.3375406282454527</v>
       </c>
     </row>
     <row r="617">
@@ -5026,7 +5042,7 @@
         <v>0.60999999999999999</v>
       </c>
       <c r="B617">
-        <v>7.7687318330989124</v>
+        <v>8.3283664580175749</v>
       </c>
     </row>
     <row r="618">
@@ -5034,7 +5050,7 @@
         <v>0.61099999999999999</v>
       </c>
       <c r="B618">
-        <v>7.7591387308487203</v>
+        <v>8.3191899257365804</v>
       </c>
     </row>
     <row r="619">
@@ -5042,7 +5058,7 @@
         <v>0.61199999999999999</v>
       </c>
       <c r="B619">
-        <v>7.7495321541937008</v>
+        <v>8.3100109342325261</v>
       </c>
     </row>
     <row r="620">
@@ -5050,7 +5066,7 @@
         <v>0.61299999999999999</v>
       </c>
       <c r="B620">
-        <v>7.7399118158591866</v>
+        <v>8.300829384003757</v>
       </c>
     </row>
     <row r="621">
@@ -5058,7 +5074,7 @@
         <v>0.61399999999999999</v>
       </c>
       <c r="B621">
-        <v>7.7302774245625487</v>
+        <v>8.291645173193201</v>
       </c>
     </row>
     <row r="622">
@@ -5066,7 +5082,7 @@
         <v>0.61499999999999999</v>
       </c>
       <c r="B622">
-        <v>7.7206286849816808</v>
+        <v>8.2824581975645284</v>
       </c>
     </row>
     <row r="623">
@@ -5074,7 +5090,7 @@
         <v>0.61599999999999999</v>
       </c>
       <c r="B623">
-        <v>7.710965297723348</v>
+        <v>8.2732683504781903</v>
       </c>
     </row>
     <row r="624">
@@ -5082,7 +5098,7 @@
         <v>0.61699999999999999</v>
       </c>
       <c r="B624">
-        <v>7.7012869592914015</v>
+        <v>8.264075522867353</v>
       </c>
     </row>
     <row r="625">
@@ -5090,7 +5106,7 @@
         <v>0.61799999999999999</v>
       </c>
       <c r="B625">
-        <v>7.6915933620548538</v>
+        <v>8.2548796032136877</v>
       </c>
     </row>
     <row r="626">
@@ -5098,7 +5114,7 @@
         <v>0.61899999999999999</v>
       </c>
       <c r="B626">
-        <v>7.681884194215824</v>
+        <v>8.2456804775230541</v>
       </c>
     </row>
     <row r="627">
@@ -5106,7 +5122,7 @@
         <v>0.62</v>
       </c>
       <c r="B627">
-        <v>7.6721591397773459</v>
+        <v>8.236478029301054</v>
       </c>
     </row>
     <row r="628">
@@ -5114,7 +5130,7 @@
         <v>0.621</v>
       </c>
       <c r="B628">
-        <v>7.6624178785110368</v>
+        <v>8.2272721395284698</v>
       </c>
     </row>
     <row r="629">
@@ -5122,7 +5138,7 @@
         <v>0.622</v>
       </c>
       <c r="B629">
-        <v>7.6526600859246319</v>
+        <v>8.2180626866365767</v>
       </c>
     </row>
     <row r="630">
@@ -5130,7 +5146,7 @@
         <v>0.623</v>
       </c>
       <c r="B630">
-        <v>7.6428854332293881</v>
+        <v>8.2088495464823268</v>
       </c>
     </row>
     <row r="631">
@@ -5138,7 +5154,7 @@
         <v>0.624</v>
       </c>
       <c r="B631">
-        <v>7.6330935873073393</v>
+        <v>8.1996325923234217</v>
       </c>
     </row>
     <row r="632">
@@ -5146,7 +5162,7 @@
         <v>0.625</v>
       </c>
       <c r="B632">
-        <v>7.6232842106784284</v>
+        <v>8.1904116947932515</v>
       </c>
     </row>
     <row r="633">
@@ -5154,7 +5170,7 @@
         <v>0.626</v>
       </c>
       <c r="B633">
-        <v>7.6134569614674934</v>
+        <v>8.1811867218757186</v>
       </c>
     </row>
     <row r="634">
@@ -5162,7 +5178,7 @@
         <v>0.627</v>
       </c>
       <c r="B634">
-        <v>7.6036114933711172</v>
+        <v>8.1719575388799317</v>
       </c>
     </row>
     <row r="635">
@@ -5170,7 +5186,7 @@
         <v>0.628</v>
       </c>
       <c r="B635">
-        <v>7.5937474556243449</v>
+        <v>8.1627240084147772</v>
       </c>
     </row>
     <row r="636">
@@ -5178,7 +5194,7 @@
         <v>0.629</v>
       </c>
       <c r="B636">
-        <v>7.583864492967261</v>
+        <v>8.1534859903633663</v>
       </c>
     </row>
     <row r="637">
@@ -5186,7 +5202,7 @@
         <v>0.63</v>
       </c>
       <c r="B637">
-        <v>7.5739622456114253</v>
+        <v>8.1442433418573668</v>
       </c>
     </row>
     <row r="638">
@@ -5194,7 +5210,7 @@
         <v>0.63100000000000001</v>
       </c>
       <c r="B638">
-        <v>7.5640403492061781</v>
+        <v>8.1349959172511905</v>
       </c>
     </row>
     <row r="639">
@@ -5202,7 +5218,7 @@
         <v>0.63200000000000001</v>
       </c>
       <c r="B639">
-        <v>7.5540984348048008</v>
+        <v>8.1257435680960732</v>
       </c>
     </row>
     <row r="640">
@@ -5210,7 +5226,7 @@
         <v>0.63300000000000001</v>
       </c>
       <c r="B640">
-        <v>7.5441361288305435</v>
+        <v>8.1164861431140274</v>
       </c>
     </row>
     <row r="641">
@@ -5218,7 +5234,7 @@
         <v>0.63400000000000001</v>
       </c>
       <c r="B641">
-        <v>7.5341530530425098</v>
+        <v>8.1072234881716589</v>
       </c>
     </row>
     <row r="642">
@@ -5226,7 +5242,7 @@
         <v>0.63500000000000001</v>
       </c>
       <c r="B642">
-        <v>7.5241488245014052</v>
+        <v>8.0979554462538665</v>
       </c>
     </row>
     <row r="643">
@@ -5234,7 +5250,7 @@
         <v>0.63600000000000001</v>
       </c>
       <c r="B643">
-        <v>7.5141230555351495</v>
+        <v>8.0886818574374182</v>
       </c>
     </row>
     <row r="644">
@@ -5242,7 +5258,7 @@
         <v>0.63700000000000001</v>
       </c>
       <c r="B644">
-        <v>7.5040753537043416</v>
+        <v>8.0794025588643947</v>
       </c>
     </row>
     <row r="645">
@@ -5250,7 +5266,7 @@
         <v>0.63800000000000001</v>
       </c>
       <c r="B645">
-        <v>7.4940053217675979</v>
+        <v>8.0701173847155054</v>
       </c>
     </row>
     <row r="646">
@@ -5258,7 +5274,7 @@
         <v>0.63900000000000001</v>
       </c>
       <c r="B646">
-        <v>7.4839125576467378</v>
+        <v>8.0608261661832863</v>
       </c>
     </row>
     <row r="647">
@@ -5266,7 +5282,7 @@
         <v>0.64000000000000001</v>
       </c>
       <c r="B647">
-        <v>7.4737966543918395</v>
+        <v>8.0515287314451687</v>
       </c>
     </row>
     <row r="648">
@@ -5274,7 +5290,7 @@
         <v>0.64100000000000001</v>
       </c>
       <c r="B648">
-        <v>7.4636572001461552</v>
+        <v>8.0422249056364095</v>
       </c>
     </row>
     <row r="649">
@@ -5282,7 +5298,7 @@
         <v>0.6419999999999999</v>
       </c>
       <c r="B649">
-        <v>7.4534937781108788</v>
+        <v>8.032914510822911</v>
       </c>
     </row>
     <row r="650">
@@ -5290,7 +5306,7 @@
         <v>0.64300000000000002</v>
       </c>
       <c r="B650">
-        <v>7.4433059665097829</v>
+        <v>8.0235973659739006</v>
       </c>
     </row>
     <row r="651">
@@ -5298,7 +5314,7 @@
         <v>0.64399999999999991</v>
       </c>
       <c r="B651">
-        <v>7.4330933385537117</v>
+        <v>8.0142732869344915</v>
       </c>
     </row>
     <row r="652">
@@ -5306,7 +5322,7 @@
         <v>0.64500000000000002</v>
       </c>
       <c r="B652">
-        <v>7.4228554624049314</v>
+        <v>8.0049420863981116</v>
       </c>
     </row>
     <row r="653">
@@ -5314,7 +5330,7 @@
         <v>0.64599999999999991</v>
       </c>
       <c r="B653">
-        <v>7.4125919011413455</v>
+        <v>7.9956035738787943</v>
       </c>
     </row>
     <row r="654">
@@ -5322,7 +5338,7 @@
         <v>0.64700000000000002</v>
       </c>
       <c r="B654">
-        <v>7.4023022127205627</v>
+        <v>7.9862575556833653</v>
       </c>
     </row>
     <row r="655">
@@ -5330,7 +5346,7 @@
         <v>0.64799999999999991</v>
       </c>
       <c r="B655">
-        <v>7.3919859499438303</v>
+        <v>7.9769038348834762</v>
       </c>
     </row>
     <row r="656">
@@ -5338,7 +5354,7 @@
         <v>0.64900000000000002</v>
       </c>
       <c r="B656">
-        <v>7.3816426604198231</v>
+        <v>7.9675422112875198</v>
       </c>
     </row>
     <row r="657">
@@ -5346,7 +5362,7 @@
         <v>0.64999999999999991</v>
       </c>
       <c r="B657">
-        <v>7.3712718865282936</v>
+        <v>7.9581724814124186</v>
       </c>
     </row>
     <row r="658">
@@ -5354,7 +5370,7 @@
         <v>0.65100000000000002</v>
       </c>
       <c r="B658">
-        <v>7.3608731653835742</v>
+        <v>7.9487944384552778</v>
       </c>
     </row>
     <row r="659">
@@ -5362,7 +5378,7 @@
         <v>0.65199999999999991</v>
       </c>
       <c r="B659">
-        <v>7.3504460287979505</v>
+        <v>7.9394078722649128</v>
       </c>
     </row>
     <row r="660">
@@ -5370,7 +5386,7 @@
         <v>0.65300000000000002</v>
       </c>
       <c r="B660">
-        <v>7.3399900032448793</v>
+        <v>7.9300125693132451</v>
       </c>
     </row>
     <row r="661">
@@ -5378,7 +5394,7 @@
         <v>0.65399999999999991</v>
       </c>
       <c r="B661">
-        <v>7.3295046098220737</v>
+        <v>7.9206083126665687</v>
       </c>
     </row>
     <row r="662">
@@ -5386,7 +5402,7 @@
         <v>0.65500000000000003</v>
       </c>
       <c r="B662">
-        <v>7.3189893642144463</v>
+        <v>7.9111948819566882</v>
       </c>
     </row>
     <row r="663">
@@ -5394,7 +5410,7 @@
         <v>0.65599999999999992</v>
       </c>
       <c r="B663">
-        <v>7.3084437766569019</v>
+        <v>7.9017720533519187</v>
       </c>
     </row>
     <row r="664">
@@ -5402,7 +5418,7 @@
         <v>0.65700000000000003</v>
       </c>
       <c r="B664">
-        <v>7.2978673518969996</v>
+        <v>7.8923395995279666</v>
       </c>
     </row>
     <row r="665">
@@ -5410,7 +5426,7 @@
         <v>0.65799999999999992</v>
       </c>
       <c r="B665">
-        <v>7.287259589157463</v>
+        <v>7.8828972896386702</v>
       </c>
     </row>
     <row r="666">
@@ -5418,7 +5434,7 @@
         <v>0.65900000000000003</v>
       </c>
       <c r="B666">
-        <v>7.2766199820985547</v>
+        <v>7.8734448892866125</v>
       </c>
     </row>
     <row r="667">
@@ -5426,7 +5442,7 @@
         <v>0.65999999999999992</v>
       </c>
       <c r="B667">
-        <v>7.2659480187803052</v>
+        <v>7.8639821604936042</v>
       </c>
     </row>
     <row r="668">
@@ -5434,7 +5450,7 @@
         <v>0.66100000000000003</v>
       </c>
       <c r="B668">
-        <v>7.2552431816245964</v>
+        <v>7.8545088616710288</v>
       </c>
     </row>
     <row r="669">
@@ -5442,7 +5458,7 @@
         <v>0.66199999999999992</v>
       </c>
       <c r="B669">
-        <v>7.2445049473771084</v>
+        <v>7.8450247475900667</v>
       </c>
     </row>
     <row r="670">
@@ -5450,7 +5466,7 @@
         <v>0.66300000000000003</v>
       </c>
       <c r="B670">
-        <v>7.233732787069119</v>
+        <v>7.8355295693517739</v>
       </c>
     </row>
     <row r="671">
@@ -5458,7 +5474,7 @@
         <v>0.66399999999999992</v>
       </c>
       <c r="B671">
-        <v>7.2229261659791595</v>
+        <v>7.8260230743570407</v>
       </c>
     </row>
     <row r="672">
@@ -5466,7 +5482,7 @@
         <v>0.66500000000000004</v>
       </c>
       <c r="B672">
-        <v>7.212084543594532</v>
+        <v>7.8165050062764081</v>
       </c>
     </row>
     <row r="673">
@@ -5474,7 +5490,7 @@
         <v>0.66599999999999993</v>
       </c>
       <c r="B673">
-        <v>7.2012073735726778</v>
+        <v>7.8069751050197587</v>
       </c>
     </row>
     <row r="674">
@@ -5482,7 +5498,7 @@
         <v>0.66700000000000004</v>
       </c>
       <c r="B674">
-        <v>7.1902941037024064</v>
+        <v>7.7974331067058706</v>
       </c>
     </row>
     <row r="675">
@@ -5490,7 +5506,7 @@
         <v>0.66799999999999993</v>
       </c>
       <c r="B675">
-        <v>7.1793441758649772</v>
+        <v>7.7878787436318397</v>
       </c>
     </row>
     <row r="676">
@@ -5498,7 +5514,7 @@
         <v>0.66900000000000004</v>
       </c>
       <c r="B676">
-        <v>7.1683570259950411</v>
+        <v>7.7783117442423668</v>
       </c>
     </row>
     <row r="677">
@@ -5506,7 +5522,7 @@
         <v>0.66999999999999993</v>
       </c>
       <c r="B677">
-        <v>7.1573320840414381</v>
+        <v>7.7687318330989124</v>
       </c>
     </row>
     <row r="678">
@@ -5514,7 +5530,7 @@
         <v>0.67100000000000004</v>
       </c>
       <c r="B678">
-        <v>7.1462687739278454</v>
+        <v>7.7591387308487203</v>
       </c>
     </row>
     <row r="679">
@@ -5522,7 +5538,7 @@
         <v>0.67199999999999993</v>
       </c>
       <c r="B679">
-        <v>7.1351665135132905</v>
+        <v>7.7495321541937008</v>
       </c>
     </row>
     <row r="680">
@@ -5530,7 +5546,7 @@
         <v>0.67300000000000004</v>
       </c>
       <c r="B680">
-        <v>7.1240247145525109</v>
+        <v>7.7399118158591866</v>
       </c>
     </row>
     <row r="681">
@@ -5538,7 +5554,7 @@
         <v>0.67399999999999993</v>
       </c>
       <c r="B681">
-        <v>7.1128427826561778</v>
+        <v>7.7302774245625487</v>
       </c>
     </row>
     <row r="682">
@@ -5546,7 +5562,7 @@
         <v>0.67499999999999993</v>
       </c>
       <c r="B682">
-        <v>7.1016201172509685</v>
+        <v>7.7206286849816808</v>
       </c>
     </row>
     <row r="683">
@@ -5554,7 +5570,7 @@
         <v>0.67599999999999993</v>
       </c>
       <c r="B683">
-        <v>7.0903561115395011</v>
+        <v>7.710965297723348</v>
       </c>
     </row>
     <row r="684">
@@ -5562,7 +5578,7 @@
         <v>0.67699999999999994</v>
       </c>
       <c r="B684">
-        <v>7.0790501524601153</v>
+        <v>7.7012869592914015</v>
       </c>
     </row>
     <row r="685">
@@ -5570,7 +5586,7 @@
         <v>0.67799999999999994</v>
       </c>
       <c r="B685">
-        <v>7.0677016206465204</v>
+        <v>7.6915933620548538</v>
       </c>
     </row>
     <row r="686">
@@ -5578,7 +5594,7 @@
         <v>0.67899999999999994</v>
       </c>
       <c r="B686">
-        <v>7.0563098903872898</v>
+        <v>7.681884194215824</v>
       </c>
     </row>
     <row r="687">
@@ -5586,7 +5602,7 @@
         <v>0.67999999999999994</v>
       </c>
       <c r="B687">
-        <v>7.0448743295852108</v>
+        <v>7.6721591397773459</v>
       </c>
     </row>
     <row r="688">
@@ -5594,7 +5610,7 @@
         <v>0.68099999999999994</v>
       </c>
       <c r="B688">
-        <v>7.0333942997164973</v>
+        <v>7.6624178785110368</v>
       </c>
     </row>
     <row r="689">
@@ -5602,7 +5618,7 @@
         <v>0.68199999999999994</v>
       </c>
       <c r="B689">
-        <v>7.0218691557898483</v>
+        <v>7.6526600859246319</v>
       </c>
     </row>
     <row r="690">
@@ -5610,7 +5626,7 @@
         <v>0.68299999999999994</v>
       </c>
       <c r="B690">
-        <v>7.0102982463053687</v>
+        <v>7.6428854332293881</v>
       </c>
     </row>
     <row r="691">
@@ -5618,7 +5634,7 @@
         <v>0.68399999999999994</v>
       </c>
       <c r="B691">
-        <v>6.9986809132133363</v>
+        <v>7.6330935873073393</v>
       </c>
     </row>
     <row r="692">
@@ -5626,7 +5642,7 @@
         <v>0.68499999999999994</v>
       </c>
       <c r="B692">
-        <v>6.9870164918728355</v>
+        <v>7.6232842106784284</v>
       </c>
     </row>
     <row r="693">
@@ -5634,7 +5650,7 @@
         <v>0.68599999999999994</v>
       </c>
       <c r="B693">
-        <v>6.975304311010234</v>
+        <v>7.6134569614674934</v>
       </c>
     </row>
     <row r="694">
@@ -5642,7 +5658,7 @@
         <v>0.68699999999999994</v>
       </c>
       <c r="B694">
-        <v>6.9635436926775229</v>
+        <v>7.6036114933711172</v>
       </c>
     </row>
     <row r="695">
@@ -5650,7 +5666,7 @@
         <v>0.68799999999999994</v>
       </c>
       <c r="B695">
-        <v>6.9517339522105059</v>
+        <v>7.5937474556243449</v>
       </c>
     </row>
     <row r="696">
@@ -5658,7 +5674,7 @@
         <v>0.68899999999999995</v>
       </c>
       <c r="B696">
-        <v>6.9398743981868458</v>
+        <v>7.583864492967261</v>
       </c>
     </row>
     <row r="697">
@@ -5666,7 +5682,7 @@
         <v>0.68999999999999995</v>
       </c>
       <c r="B697">
-        <v>6.927964332383965</v>
+        <v>7.5739622456114253</v>
       </c>
     </row>
     <row r="698">
@@ -5674,7 +5690,7 @@
         <v>0.69099999999999995</v>
       </c>
       <c r="B698">
-        <v>6.9160030497367995</v>
+        <v>7.5640403492061781</v>
       </c>
     </row>
     <row r="699">
@@ -5682,7 +5698,7 @@
         <v>0.69199999999999995</v>
       </c>
       <c r="B699">
-        <v>6.9039898382954084</v>
+        <v>7.5540984348048008</v>
       </c>
     </row>
     <row r="700">
@@ -5690,7 +5706,7 @@
         <v>0.69299999999999995</v>
       </c>
       <c r="B700">
-        <v>6.8919239791824394</v>
+        <v>7.5441361288305435</v>
       </c>
     </row>
     <row r="701">
@@ -5698,7 +5714,7 @@
         <v>0.69399999999999995</v>
       </c>
       <c r="B701">
-        <v>6.8798047465504419</v>
+        <v>7.5341530530425098</v>
       </c>
     </row>
     <row r="702">
@@ -5706,7 +5722,7 @@
         <v>0.69499999999999995</v>
       </c>
       <c r="B702">
-        <v>6.8676314075390463</v>
+        <v>7.5241488245014052</v>
       </c>
     </row>
     <row r="703">
@@ -5714,7 +5730,7 @@
         <v>0.69599999999999995</v>
       </c>
       <c r="B703">
-        <v>6.8554032222319821</v>
+        <v>7.5141230555351495</v>
       </c>
     </row>
     <row r="704">
@@ -5722,7 +5738,7 @@
         <v>0.69699999999999995</v>
       </c>
       <c r="B704">
-        <v>6.8431194436139666</v>
+        <v>7.5040753537043416</v>
       </c>
     </row>
     <row r="705">
@@ -5730,7 +5746,7 @@
         <v>0.69799999999999995</v>
       </c>
       <c r="B705">
-        <v>6.8307793175274334</v>
+        <v>7.4940053217675979</v>
       </c>
     </row>
     <row r="706">
@@ -5738,7 +5754,7 @@
         <v>0.69899999999999995</v>
       </c>
       <c r="B706">
-        <v>6.8183820826291264</v>
+        <v>7.4839125576467378</v>
       </c>
     </row>
     <row r="707">
@@ -5746,7 +5762,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="B707">
-        <v>6.8059269703465386</v>
+        <v>7.4737966543918395</v>
       </c>
     </row>
     <row r="708">
@@ -5754,7 +5770,7 @@
         <v>0.70099999999999996</v>
       </c>
       <c r="B708">
-        <v>6.7934132048342128</v>
+        <v>7.4636572001461552</v>
       </c>
     </row>
     <row r="709">
@@ -5762,7 +5778,7 @@
         <v>0.70199999999999996</v>
       </c>
       <c r="B709">
-        <v>6.7808400029298932</v>
+        <v>7.4534937781108788</v>
       </c>
     </row>
     <row r="710">
@@ -5770,7 +5786,7 @@
         <v>0.70299999999999996</v>
       </c>
       <c r="B710">
-        <v>6.7682065741105282</v>
+        <v>7.4433059665097829</v>
       </c>
     </row>
     <row r="711">
@@ -5778,7 +5794,7 @@
         <v>0.70399999999999996</v>
       </c>
       <c r="B711">
-        <v>6.7555121204481337</v>
+        <v>7.4330933385537117</v>
       </c>
     </row>
     <row r="712">
@@ -5786,7 +5802,7 @@
         <v>0.70499999999999996</v>
       </c>
       <c r="B712">
-        <v>6.7427558365655029</v>
+        <v>7.4228554624049314</v>
       </c>
     </row>
     <row r="713">
@@ -5794,7 +5810,7 @@
         <v>0.70599999999999996</v>
       </c>
       <c r="B713">
-        <v>6.72993690959178</v>
+        <v>7.4125919011413455</v>
       </c>
     </row>
     <row r="714">
@@ -5802,7 +5818,7 @@
         <v>0.70699999999999996</v>
       </c>
       <c r="B714">
-        <v>6.7170545191178768</v>
+        <v>7.4023022127205627</v>
       </c>
     </row>
     <row r="715">
@@ -5810,7 +5826,7 @@
         <v>0.70799999999999996</v>
       </c>
       <c r="B715">
-        <v>6.7041078371517537</v>
+        <v>7.3919859499438303</v>
       </c>
     </row>
     <row r="716">
@@ -5818,7 +5834,7 @@
         <v>0.70899999999999996</v>
       </c>
       <c r="B716">
-        <v>6.691096028073547</v>
+        <v>7.3816426604198231</v>
       </c>
     </row>
     <row r="717">
@@ -5826,7 +5842,7 @@
         <v>0.70999999999999996</v>
       </c>
       <c r="B717">
-        <v>6.678018248590555</v>
+        <v>7.3712718865282936</v>
       </c>
     </row>
     <row r="718">
@@ -5834,7 +5850,7 @@
         <v>0.71099999999999997</v>
       </c>
       <c r="B718">
-        <v>6.6648736476920787</v>
+        <v>7.3608731653835742</v>
       </c>
     </row>
     <row r="719">
@@ -5842,7 +5858,7 @@
         <v>0.71199999999999997</v>
       </c>
       <c r="B719">
-        <v>6.6516613666041113</v>
+        <v>7.3504460287979505</v>
       </c>
     </row>
     <row r="720">
@@ -5850,7 +5866,7 @@
         <v>0.71299999999999997</v>
       </c>
       <c r="B720">
-        <v>6.6383805387438901</v>
+        <v>7.3399900032448793</v>
       </c>
     </row>
     <row r="721">
@@ -5858,7 +5874,7 @@
         <v>0.71399999999999997</v>
       </c>
       <c r="B721">
-        <v>6.6250302896742959</v>
+        <v>7.3295046098220737</v>
       </c>
     </row>
     <row r="722">
@@ -5866,7 +5882,7 @@
         <v>0.71499999999999997</v>
       </c>
       <c r="B722">
-        <v>6.6116097370581084</v>
+        <v>7.3189893642144463</v>
       </c>
     </row>
     <row r="723">
@@ -5874,7 +5890,7 @@
         <v>0.71599999999999997</v>
       </c>
       <c r="B723">
-        <v>6.5981179906121215</v>
+        <v>7.3084437766569019</v>
       </c>
     </row>
     <row r="724">
@@ -5882,7 +5898,7 @@
         <v>0.71699999999999997</v>
       </c>
       <c r="B724">
-        <v>6.5845541520611039</v>
+        <v>7.2978673518969996</v>
       </c>
     </row>
     <row r="725">
@@ -5890,7 +5906,7 @@
         <v>0.71799999999999997</v>
       </c>
       <c r="B725">
-        <v>6.57091731509162</v>
+        <v>7.287259589157463</v>
       </c>
     </row>
     <row r="726">
@@ -5898,7 +5914,7 @@
         <v>0.71899999999999997</v>
       </c>
       <c r="B726">
-        <v>6.557206565305707</v>
+        <v>7.2766199820985547</v>
       </c>
     </row>
     <row r="727">
@@ -5906,7 +5922,7 @@
         <v>0.71999999999999997</v>
       </c>
       <c r="B727">
-        <v>6.5434209801744014</v>
+        <v>7.2659480187803052</v>
       </c>
     </row>
     <row r="728">
@@ -5914,7 +5930,7 @@
         <v>0.72099999999999997</v>
       </c>
       <c r="B728">
-        <v>6.5295596289911249</v>
+        <v>7.2552431816245964</v>
       </c>
     </row>
     <row r="729">
@@ -5922,7 +5938,7 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="B729">
-        <v>6.5156215728249194</v>
+        <v>7.2445049473771084</v>
       </c>
     </row>
     <row r="730">
@@ -5930,7 +5946,7 @@
         <v>0.72299999999999998</v>
       </c>
       <c r="B730">
-        <v>6.5016058644735457</v>
+        <v>7.233732787069119</v>
       </c>
     </row>
     <row r="731">
@@ -5938,7 +5954,7 @@
         <v>0.72399999999999998</v>
       </c>
       <c r="B731">
-        <v>6.4875115484164283</v>
+        <v>7.2229261659791595</v>
       </c>
     </row>
     <row r="732">
@@ -5946,7 +5962,7 @@
         <v>0.72499999999999998</v>
       </c>
       <c r="B732">
-        <v>6.4733376607674638</v>
+        <v>7.212084543594532</v>
       </c>
     </row>
     <row r="733">
@@ -5954,7 +5970,7 @@
         <v>0.72599999999999998</v>
       </c>
       <c r="B733">
-        <v>6.459083229227673</v>
+        <v>7.2012073735726778</v>
       </c>
     </row>
     <row r="734">
@@ -5962,7 +5978,7 @@
         <v>0.72699999999999998</v>
       </c>
       <c r="B734">
-        <v>6.4447472730377209</v>
+        <v>7.1902941037024064</v>
       </c>
     </row>
     <row r="735">
@@ -5970,7 +5986,7 @@
         <v>0.72799999999999998</v>
       </c>
       <c r="B735">
-        <v>6.4303288029302861</v>
+        <v>7.1793441758649772</v>
       </c>
     </row>
     <row r="736">
@@ -5978,7 +5994,7 @@
         <v>0.72899999999999998</v>
       </c>
       <c r="B736">
-        <v>6.4158268210822831</v>
+        <v>7.1683570259950411</v>
       </c>
     </row>
     <row r="737">
@@ -5986,7 +6002,7 @@
         <v>0.72999999999999998</v>
       </c>
       <c r="B737">
-        <v>6.4012403210669451</v>
+        <v>7.1573320840414381</v>
       </c>
     </row>
     <row r="738">
@@ -5994,7 +6010,7 @@
         <v>0.73099999999999998</v>
       </c>
       <c r="B738">
-        <v>6.386568287805761</v>
+        <v>7.1462687739278454</v>
       </c>
     </row>
     <row r="739">
@@ -6002,7 +6018,7 @@
         <v>0.73199999999999998</v>
       </c>
       <c r="B739">
-        <v>6.3718096975202663</v>
+        <v>7.1351665135132905</v>
       </c>
     </row>
     <row r="740">
@@ -6010,7 +6026,7 @@
         <v>0.73299999999999998</v>
       </c>
       <c r="B740">
-        <v>6.3569635176836963</v>
+        <v>7.1240247145525109</v>
       </c>
     </row>
     <row r="741">
@@ -6018,7 +6034,7 @@
         <v>0.73399999999999999</v>
       </c>
       <c r="B741">
-        <v>6.342028706972485</v>
+        <v>7.1128427826561778</v>
       </c>
     </row>
     <row r="742">
@@ -6026,7 +6042,7 @@
         <v>0.73499999999999999</v>
       </c>
       <c r="B742">
-        <v>6.32700421521763</v>
+        <v>7.1016201172509685</v>
       </c>
     </row>
     <row r="743">
@@ -6034,7 +6050,7 @@
         <v>0.73599999999999999</v>
       </c>
       <c r="B743">
-        <v>6.3118889833559093</v>
+        <v>7.0903561115395011</v>
       </c>
     </row>
     <row r="744">
@@ -6042,7 +6058,7 @@
         <v>0.73699999999999999</v>
       </c>
       <c r="B744">
-        <v>6.2966819433809578</v>
+        <v>7.0790501524601153</v>
       </c>
     </row>
     <row r="745">
@@ -6050,7 +6066,7 @@
         <v>0.73799999999999999</v>
       </c>
       <c r="B745">
-        <v>6.2813820182941944</v>
+        <v>7.0677016206465204</v>
       </c>
     </row>
     <row r="746">
@@ -6058,7 +6074,7 @@
         <v>0.73899999999999999</v>
       </c>
       <c r="B746">
-        <v>6.2659881220556146</v>
+        <v>7.0563098903872898</v>
       </c>
     </row>
     <row r="747">
@@ -6066,7 +6082,7 @@
         <v>0.73999999999999999</v>
       </c>
       <c r="B747">
-        <v>6.2504991595344332</v>
+        <v>7.0448743295852108</v>
       </c>
     </row>
     <row r="748">
@@ -6074,7 +6090,7 @@
         <v>0.74099999999999999</v>
       </c>
       <c r="B748">
-        <v>6.2349140264595873</v>
+        <v>7.0333942997164973</v>
       </c>
     </row>
     <row r="749">
@@ -6082,7 +6098,7 @@
         <v>0.74199999999999999</v>
       </c>
       <c r="B749">
-        <v>6.2192316093700981</v>
+        <v>7.0218691557898483</v>
       </c>
     </row>
     <row r="750">
@@ -6090,7 +6106,7 @@
         <v>0.74299999999999999</v>
       </c>
       <c r="B750">
-        <v>6.2034507855652903</v>
+        <v>7.0102982463053687</v>
       </c>
     </row>
     <row r="751">
@@ -6098,7 +6114,7 @@
         <v>0.74399999999999999</v>
       </c>
       <c r="B751">
-        <v>6.1875704230548632</v>
+        <v>6.9986809132133363</v>
       </c>
     </row>
     <row r="752">
@@ -6106,7 +6122,7 @@
         <v>0.745</v>
       </c>
       <c r="B752">
-        <v>6.1715893805088307</v>
+        <v>6.9870164918728355</v>
       </c>
     </row>
     <row r="753">
@@ -6114,7 +6130,7 @@
         <v>0.746</v>
       </c>
       <c r="B753">
-        <v>6.1555065072073107</v>
+        <v>6.975304311010234</v>
       </c>
     </row>
     <row r="754">
@@ -6122,7 +6138,7 @@
         <v>0.747</v>
       </c>
       <c r="B754">
-        <v>6.1393206429901763</v>
+        <v>6.9635436926775229</v>
       </c>
     </row>
     <row r="755">
@@ -6130,7 +6146,7 @@
         <v>0.748</v>
       </c>
       <c r="B755">
-        <v>6.1230306182065704</v>
+        <v>6.9517339522105059</v>
       </c>
     </row>
     <row r="756">
@@ -6138,7 +6154,7 @@
         <v>0.749</v>
       </c>
       <c r="B756">
-        <v>6.1066352536642672</v>
+        <v>6.9398743981868458</v>
       </c>
     </row>
     <row r="757">
@@ -6146,7 +6162,7 @@
         <v>0.75</v>
       </c>
       <c r="B757">
-        <v>6.0901333605789096</v>
+        <v>6.927964332383965</v>
       </c>
     </row>
     <row r="758">
@@ -6154,7 +6170,7 @@
         <v>0.751</v>
       </c>
       <c r="B758">
-        <v>6.0735237405230915</v>
+        <v>6.9160030497367995</v>
       </c>
     </row>
     <row r="759">
@@ -6162,7 +6178,7 @@
         <v>0.752</v>
       </c>
       <c r="B759">
-        <v>6.0568051853753078</v>
+        <v>6.9039898382954084</v>
       </c>
     </row>
     <row r="760">
@@ -6170,7 +6186,7 @@
         <v>0.753</v>
       </c>
       <c r="B760">
-        <v>6.0399764772687616</v>
+        <v>6.8919239791824394</v>
       </c>
     </row>
     <row r="761">
@@ -6178,7 +6194,7 @@
         <v>0.754</v>
       </c>
       <c r="B761">
-        <v>6.023036388540036</v>
+        <v>6.8798047465504419</v>
       </c>
     </row>
     <row r="762">
@@ -6186,7 +6202,7 @@
         <v>0.755</v>
       </c>
       <c r="B762">
-        <v>6.0059836816776198</v>
+        <v>6.8676314075390463</v>
       </c>
     </row>
     <row r="763">
@@ -6194,7 +6210,7 @@
         <v>0.75600000000000001</v>
       </c>
       <c r="B763">
-        <v>5.9888171092702995</v>
+        <v>6.8554032222319821</v>
       </c>
     </row>
     <row r="764">
@@ -6202,7 +6218,7 @@
         <v>0.75700000000000001</v>
       </c>
       <c r="B764">
-        <v>5.9715354139554115</v>
+        <v>6.8431194436139666</v>
       </c>
     </row>
     <row r="765">
@@ -6210,7 +6226,7 @@
         <v>0.75800000000000001</v>
       </c>
       <c r="B765">
-        <v>5.9541373283669534</v>
+        <v>6.8307793175274334</v>
       </c>
     </row>
     <row r="766">
@@ -6218,7 +6234,7 @@
         <v>0.75900000000000001</v>
       </c>
       <c r="B766">
-        <v>5.9366215750835609</v>
+        <v>6.8183820826291264</v>
       </c>
     </row>
     <row r="767">
@@ -6226,7 +6242,7 @@
         <v>0.76000000000000001</v>
       </c>
       <c r="B767">
-        <v>5.9189868665763425</v>
+        <v>6.8059269703465386</v>
       </c>
     </row>
     <row r="768">
@@ -6234,7 +6250,7 @@
         <v>0.76100000000000001</v>
       </c>
       <c r="B768">
-        <v>5.9012319051565818</v>
+        <v>6.7934132048342128</v>
       </c>
     </row>
     <row r="769">
@@ -6242,7 +6258,7 @@
         <v>0.76200000000000001</v>
       </c>
       <c r="B769">
-        <v>5.883355382923301</v>
+        <v>6.7808400029298932</v>
       </c>
     </row>
     <row r="770">
@@ -6250,7 +6266,7 @@
         <v>0.76300000000000001</v>
       </c>
       <c r="B770">
-        <v>5.8653559817106826</v>
+        <v>6.7682065741105282</v>
       </c>
     </row>
     <row r="771">
@@ -6258,7 +6274,7 @@
         <v>0.76400000000000001</v>
       </c>
       <c r="B771">
-        <v>5.8472323730353608</v>
+        <v>6.7555121204481337</v>
       </c>
     </row>
     <row r="772">
@@ -6266,7 +6282,7 @@
         <v>0.76500000000000001</v>
       </c>
       <c r="B772">
-        <v>5.828983218043577</v>
+        <v>6.7427558365655029</v>
       </c>
     </row>
     <row r="773">
@@ -6274,7 +6290,7 @@
         <v>0.76600000000000001</v>
       </c>
       <c r="B773">
-        <v>5.8106071674581949</v>
+        <v>6.72993690959178</v>
       </c>
     </row>
     <row r="774">
@@ -6282,7 +6298,7 @@
         <v>0.76700000000000002</v>
       </c>
       <c r="B774">
-        <v>5.7921028615255814</v>
+        <v>6.7170545191178768</v>
       </c>
     </row>
     <row r="775">
@@ -6290,7 +6306,7 @@
         <v>0.76800000000000002</v>
       </c>
       <c r="B775">
-        <v>5.7734689299623581</v>
+        <v>6.7041078371517537</v>
       </c>
     </row>
     <row r="776">
@@ -6298,7 +6314,7 @@
         <v>0.76900000000000002</v>
       </c>
       <c r="B776">
-        <v>5.7547039919020122</v>
+        <v>6.691096028073547</v>
       </c>
     </row>
     <row r="777">
@@ -6306,7 +6322,7 @@
         <v>0.77000000000000002</v>
       </c>
       <c r="B777">
-        <v>5.7358066558413707</v>
+        <v>6.678018248590555</v>
       </c>
     </row>
     <row r="778">
@@ -6314,7 +6330,7 @@
         <v>0.77100000000000002</v>
       </c>
       <c r="B778">
-        <v>5.716775519586955</v>
+        <v>6.6648736476920787</v>
       </c>
     </row>
     <row r="779">
@@ -6322,7 +6338,7 @@
         <v>0.77200000000000002</v>
       </c>
       <c r="B779">
-        <v>5.6976091702011811</v>
+        <v>6.6516613666041113</v>
       </c>
     </row>
     <row r="780">
@@ -6330,7 +6346,7 @@
         <v>0.77300000000000002</v>
       </c>
       <c r="B780">
-        <v>5.6783061839484468</v>
+        <v>6.6383805387438901</v>
       </c>
     </row>
     <row r="781">
@@ -6338,7 +6354,7 @@
         <v>0.77400000000000002</v>
       </c>
       <c r="B781">
-        <v>5.6588651262410732</v>
+        <v>6.6250302896742959</v>
       </c>
     </row>
     <row r="782">
@@ -6346,7 +6362,7 @@
         <v>0.77500000000000002</v>
       </c>
       <c r="B782">
-        <v>5.6392845515851224</v>
+        <v>6.6116097370581084</v>
       </c>
     </row>
     <row r="783">
@@ -6354,7 +6370,7 @@
         <v>0.77600000000000002</v>
       </c>
       <c r="B783">
-        <v>5.6195630035260757</v>
+        <v>6.5981179906121215</v>
       </c>
     </row>
     <row r="784">
@@ -6362,7 +6378,7 @@
         <v>0.77700000000000002</v>
       </c>
       <c r="B784">
-        <v>5.5996990145943881</v>
+        <v>6.5845541520611039</v>
       </c>
     </row>
     <row r="785">
@@ -6370,7 +6386,7 @@
         <v>0.77800000000000002</v>
       </c>
       <c r="B785">
-        <v>5.5796911062509098</v>
+        <v>6.57091731509162</v>
       </c>
     </row>
     <row r="786">
@@ -6378,7 +6394,7 @@
         <v>0.77899999999999991</v>
       </c>
       <c r="B786">
-        <v>5.5595377888321744</v>
+        <v>6.557206565305707</v>
       </c>
     </row>
     <row r="787">
@@ -6386,7 +6402,7 @@
         <v>0.78000000000000003</v>
       </c>
       <c r="B787">
-        <v>5.5392375614955611</v>
+        <v>6.5434209801744014</v>
       </c>
     </row>
     <row r="788">
@@ -6394,7 +6410,7 @@
         <v>0.78099999999999992</v>
       </c>
       <c r="B788">
-        <v>5.5187889121643279</v>
+        <v>6.5295596289911249</v>
       </c>
     </row>
     <row r="789">
@@ -6402,7 +6418,7 @@
         <v>0.78200000000000003</v>
       </c>
       <c r="B789">
-        <v>5.4981903174725115</v>
+        <v>6.5156215728249194</v>
       </c>
     </row>
     <row r="790">
@@ -6410,7 +6426,7 @@
         <v>0.78299999999999992</v>
       </c>
       <c r="B790">
-        <v>5.477440242709708</v>
+        <v>6.5016058644735457</v>
       </c>
     </row>
     <row r="791">
@@ -6418,7 +6434,7 @@
         <v>0.78400000000000003</v>
       </c>
       <c r="B791">
-        <v>5.4565371417657147</v>
+        <v>6.4875115484164283</v>
       </c>
     </row>
     <row r="792">
@@ -6426,7 +6442,7 @@
         <v>0.78499999999999992</v>
       </c>
       <c r="B792">
-        <v>5.435479457075056</v>
+        <v>6.4733376607674638</v>
       </c>
     </row>
     <row r="793">
@@ -6434,7 +6450,7 @@
         <v>0.78600000000000003</v>
       </c>
       <c r="B793">
-        <v>5.4142656195613732</v>
+        <v>6.459083229227673</v>
       </c>
     </row>
     <row r="794">
@@ -6442,7 +6458,7 @@
         <v>0.78699999999999992</v>
       </c>
       <c r="B794">
-        <v>5.3928940485816952</v>
+        <v>6.4447472730377209</v>
       </c>
     </row>
     <row r="795">
@@ -6450,7 +6466,7 @@
         <v>0.78800000000000003</v>
       </c>
       <c r="B795">
-        <v>5.3713631518705807</v>
+        <v>6.4303288029302861</v>
       </c>
     </row>
     <row r="796">
@@ -6458,7 +6474,7 @@
         <v>0.78899999999999992</v>
       </c>
       <c r="B796">
-        <v>5.3496713254841373</v>
+        <v>6.4158268210822831</v>
       </c>
     </row>
     <row r="797">
@@ -6466,7 +6482,7 @@
         <v>0.79000000000000004</v>
       </c>
       <c r="B797">
-        <v>5.3278169537439144</v>
+        <v>6.4012403210669451</v>
       </c>
     </row>
     <row r="798">
@@ -6474,7 +6490,7 @@
         <v>0.79099999999999993</v>
       </c>
       <c r="B798">
-        <v>5.3057984091806745</v>
+        <v>6.386568287805761</v>
       </c>
     </row>
     <row r="799">
@@ -6482,7 +6498,7 @@
         <v>0.79199999999999993</v>
       </c>
       <c r="B799">
-        <v>5.2836140524780406</v>
+        <v>6.3718096975202663</v>
       </c>
     </row>
     <row r="800">
@@ -6490,7 +6506,7 @@
         <v>0.79299999999999993</v>
       </c>
       <c r="B800">
-        <v>5.261262232416021</v>
+        <v>6.3569635176836963</v>
       </c>
     </row>
     <row r="801">
@@ -6498,7 +6514,7 @@
         <v>0.79399999999999993</v>
       </c>
       <c r="B801">
-        <v>5.238741285814414</v>
+        <v>6.342028706972485</v>
       </c>
     </row>
     <row r="802">
@@ -6506,7 +6522,7 @@
         <v>0.79499999999999993</v>
       </c>
       <c r="B802">
-        <v>5.2160495374760902</v>
+        <v>6.32700421521763</v>
       </c>
     </row>
     <row r="803">
@@ -6514,7 +6530,7 @@
         <v>0.79599999999999993</v>
       </c>
       <c r="B803">
-        <v>5.1931853001301524</v>
+        <v>6.3118889833559093</v>
       </c>
     </row>
     <row r="804">
@@ -6522,7 +6538,7 @@
         <v>0.79699999999999993</v>
       </c>
       <c r="B804">
-        <v>5.1701468743749839</v>
+        <v>6.2966819433809578</v>
       </c>
     </row>
     <row r="805">
@@ -6530,7 +6546,7 @@
         <v>0.79799999999999993</v>
       </c>
       <c r="B805">
-        <v>5.146932548621165</v>
+        <v>6.2813820182941944</v>
       </c>
     </row>
     <row r="806">
@@ -6538,7 +6554,7 @@
         <v>0.79899999999999993</v>
       </c>
       <c r="B806">
-        <v>5.1235405990342855</v>
+        <v>6.2659881220556146</v>
       </c>
     </row>
     <row r="807">
@@ -6546,7 +6562,7 @@
         <v>0.79999999999999993</v>
       </c>
       <c r="B807">
-        <v>5.0999692894776265</v>
+        <v>6.2504991595344332</v>
       </c>
     </row>
     <row r="808">
@@ -6554,7 +6570,7 @@
         <v>0.80099999999999993</v>
       </c>
       <c r="B808">
-        <v>5.0762168714547355</v>
+        <v>6.2349140264595873</v>
       </c>
     </row>
     <row r="809">
@@ -6562,7 +6578,7 @@
         <v>0.80199999999999994</v>
       </c>
       <c r="B809">
-        <v>5.0522815840518787</v>
+        <v>6.2192316093700981</v>
       </c>
     </row>
     <row r="810">
@@ -6570,7 +6586,7 @@
         <v>0.80299999999999994</v>
       </c>
       <c r="B810">
-        <v>5.0281616538803817</v>
+        <v>6.2034507855652903</v>
       </c>
     </row>
     <row r="811">
@@ -6578,7 +6594,7 @@
         <v>0.80399999999999994</v>
       </c>
       <c r="B811">
-        <v>5.0038552950188544</v>
+        <v>6.1875704230548632</v>
       </c>
     </row>
     <row r="812">
@@ -6586,7 +6602,7 @@
         <v>0.80499999999999994</v>
       </c>
       <c r="B812">
-        <v>4.9793607089553023</v>
+        <v>6.1715893805088307</v>
       </c>
     </row>
     <row r="813">
@@ -6594,7 +6610,7 @@
         <v>0.80599999999999994</v>
       </c>
       <c r="B813">
-        <v>4.9546760845291207</v>
+        <v>6.1555065072073107</v>
       </c>
     </row>
     <row r="814">
@@ -6602,7 +6618,7 @@
         <v>0.80699999999999994</v>
       </c>
       <c r="B814">
-        <v>4.9297995978729876</v>
+        <v>6.1393206429901763</v>
       </c>
     </row>
     <row r="815">
@@ -6610,7 +6626,7 @@
         <v>0.80799999999999994</v>
       </c>
       <c r="B815">
-        <v>4.9047294123546319</v>
+        <v>6.1230306182065704</v>
       </c>
     </row>
     <row r="816">
@@ -6618,7 +6634,7 @@
         <v>0.80899999999999994</v>
       </c>
       <c r="B816">
-        <v>4.8794636785184977</v>
+        <v>6.1066352536642672</v>
       </c>
     </row>
     <row r="817">
@@ -6626,7 +6642,7 @@
         <v>0.80999999999999994</v>
       </c>
       <c r="B817">
-        <v>4.8540005340273016</v>
+        <v>6.0901333605789096</v>
       </c>
     </row>
     <row r="818">
@@ -6634,7 +6650,7 @@
         <v>0.81099999999999994</v>
       </c>
       <c r="B818">
-        <v>4.8283381036034738</v>
+        <v>6.0735237405230915</v>
       </c>
     </row>
     <row r="819">
@@ -6642,7 +6658,7 @@
         <v>0.81199999999999994</v>
       </c>
       <c r="B819">
-        <v>4.8024744989704962</v>
+        <v>6.0568051853753078</v>
       </c>
     </row>
     <row r="820">
@@ -6650,7 +6666,7 @@
         <v>0.81299999999999994</v>
       </c>
       <c r="B820">
-        <v>4.7764078187941319</v>
+        <v>6.0399764772687616</v>
       </c>
     </row>
     <row r="821">
@@ -6658,7 +6674,7 @@
         <v>0.81399999999999995</v>
       </c>
       <c r="B821">
-        <v>4.7501361486235485</v>
+        <v>6.023036388540036</v>
       </c>
     </row>
     <row r="822">
@@ -6666,7 +6682,7 @@
         <v>0.81499999999999995</v>
       </c>
       <c r="B822">
-        <v>4.7236575608323372</v>
+        <v>6.0059836816776198</v>
       </c>
     </row>
     <row r="823">
@@ -6674,7 +6690,7 @@
         <v>0.81599999999999995</v>
       </c>
       <c r="B823">
-        <v>4.6969701145594218</v>
+        <v>5.9888171092702995</v>
       </c>
     </row>
     <row r="824">
@@ -6682,7 +6698,7 @@
         <v>0.81699999999999995</v>
       </c>
       <c r="B824">
-        <v>4.6700718556498728</v>
+        <v>5.9715354139554115</v>
       </c>
     </row>
     <row r="825">
@@ -6690,7 +6706,7 @@
         <v>0.81799999999999995</v>
       </c>
       <c r="B825">
-        <v>4.642960816595612</v>
+        <v>5.9541373283669534</v>
       </c>
     </row>
     <row r="826">
@@ -6698,7 +6714,7 @@
         <v>0.81899999999999995</v>
       </c>
       <c r="B826">
-        <v>4.6156350164760207</v>
+        <v>5.9366215750835609</v>
       </c>
     </row>
     <row r="827">
@@ -6706,7 +6722,7 @@
         <v>0.81999999999999995</v>
       </c>
       <c r="B827">
-        <v>4.5880924608984381</v>
+        <v>5.9189868665763425</v>
       </c>
     </row>
     <row r="828">
@@ -6714,7 +6730,7 @@
         <v>0.82099999999999995</v>
       </c>
       <c r="B828">
-        <v>4.5603311419385753</v>
+        <v>5.9012319051565818</v>
       </c>
     </row>
     <row r="829">
@@ -6722,7 +6738,7 @@
         <v>0.82199999999999995</v>
       </c>
       <c r="B829">
-        <v>4.5323490380808114</v>
+        <v>5.883355382923301</v>
       </c>
     </row>
     <row r="830">
@@ -6730,7 +6746,7 @@
         <v>0.82299999999999995</v>
       </c>
       <c r="B830">
-        <v>4.5041441141584118</v>
+        <v>5.8653559817106826</v>
       </c>
     </row>
     <row r="831">
@@ -6738,7 +6754,7 @@
         <v>0.82399999999999995</v>
       </c>
       <c r="B831">
-        <v>4.4757143212936317</v>
+        <v>5.8472323730353608</v>
       </c>
     </row>
     <row r="832">
@@ -6746,7 +6762,7 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="B832">
-        <v>4.4470575968377375</v>
+        <v>5.828983218043577</v>
       </c>
     </row>
     <row r="833">
@@ -6754,7 +6770,7 @@
         <v>0.82599999999999996</v>
       </c>
       <c r="B833">
-        <v>4.4181718643109278</v>
+        <v>5.8106071674581949</v>
       </c>
     </row>
     <row r="834">
@@ -6762,7 +6778,7 @@
         <v>0.82699999999999996</v>
       </c>
       <c r="B834">
-        <v>4.3890550333421592</v>
+        <v>5.7921028615255814</v>
       </c>
     </row>
     <row r="835">
@@ -6770,7 +6786,7 @@
         <v>0.82799999999999996</v>
       </c>
       <c r="B835">
-        <v>4.3597049996088844</v>
+        <v>5.7734689299623581</v>
       </c>
     </row>
     <row r="836">
@@ -6778,7 +6794,7 @@
         <v>0.82899999999999996</v>
       </c>
       <c r="B836">
-        <v>4.3301196447766941</v>
+        <v>5.7547039919020122</v>
       </c>
     </row>
     <row r="837">
@@ -6786,7 +6802,7 @@
         <v>0.82999999999999996</v>
       </c>
       <c r="B837">
-        <v>4.3002968364388767</v>
+        <v>5.7358066558413707</v>
       </c>
     </row>
     <row r="838">
@@ -6794,7 +6810,7 @@
         <v>0.83099999999999996</v>
       </c>
       <c r="B838">
-        <v>4.2702344280558773</v>
+        <v>5.716775519586955</v>
       </c>
     </row>
     <row r="839">
@@ -6802,7 +6818,7 @@
         <v>0.83199999999999996</v>
       </c>
       <c r="B839">
-        <v>4.2399302588946783</v>
+        <v>5.6976091702011811</v>
       </c>
     </row>
     <row r="840">
@@ -6810,7 +6826,7 @@
         <v>0.83299999999999996</v>
       </c>
       <c r="B840">
-        <v>4.2093821539680905</v>
+        <v>5.6783061839484468</v>
       </c>
     </row>
     <row r="841">
@@ -6818,7 +6834,7 @@
         <v>0.83399999999999996</v>
       </c>
       <c r="B841">
-        <v>4.178587923973959</v>
+        <v>5.6588651262410732</v>
       </c>
     </row>
     <row r="842">
@@ -6826,7 +6842,7 @@
         <v>0.83499999999999996</v>
       </c>
       <c r="B842">
-        <v>4.147545365234282</v>
+        <v>5.6392845515851224</v>
       </c>
     </row>
     <row r="843">
@@ -6834,7 +6850,7 @@
         <v>0.83599999999999997</v>
       </c>
       <c r="B843">
-        <v>4.1162522596342495</v>
+        <v>5.6195630035260757</v>
       </c>
     </row>
     <row r="844">
@@ -6842,7 +6858,7 @@
         <v>0.83699999999999997</v>
       </c>
       <c r="B844">
-        <v>4.0847063745612022</v>
+        <v>5.5996990145943881</v>
       </c>
     </row>
     <row r="845">
@@ -6850,7 +6866,7 @@
         <v>0.83799999999999997</v>
       </c>
       <c r="B845">
-        <v>4.0529054628435022</v>
+        <v>5.5796911062509098</v>
       </c>
     </row>
     <row r="846">
@@ -6858,7 +6874,7 @@
         <v>0.83899999999999997</v>
       </c>
       <c r="B846">
-        <v>4.020847262689335</v>
+        <v>5.5595377888321744</v>
       </c>
     </row>
     <row r="847">
@@ -6866,7 +6882,7 @@
         <v>0.83999999999999997</v>
       </c>
       <c r="B847">
-        <v>3.9885294976254242</v>
+        <v>5.5392375614955611</v>
       </c>
     </row>
     <row r="848">
@@ -6874,7 +6890,7 @@
         <v>0.84099999999999997</v>
       </c>
       <c r="B848">
-        <v>3.9559498764356738</v>
+        <v>5.5187889121643279</v>
       </c>
     </row>
     <row r="849">
@@ -6882,7 +6898,7 @@
         <v>0.84199999999999997</v>
       </c>
       <c r="B849">
-        <v>3.9231060930997352</v>
+        <v>5.4981903174725115</v>
       </c>
     </row>
     <row r="850">
@@ -6890,7 +6906,7 @@
         <v>0.84299999999999997</v>
       </c>
       <c r="B850">
-        <v>3.8899958267314996</v>
+        <v>5.477440242709708</v>
       </c>
     </row>
     <row r="851">
@@ -6898,7 +6914,7 @@
         <v>0.84399999999999997</v>
       </c>
       <c r="B851">
-        <v>3.8566167415175188</v>
+        <v>5.4565371417657147</v>
       </c>
     </row>
     <row r="852">
@@ -6906,7 +6922,7 @@
         <v>0.84499999999999997</v>
       </c>
       <c r="B852">
-        <v>3.8229664866553503</v>
+        <v>5.435479457075056</v>
       </c>
     </row>
     <row r="853">
@@ -6914,7 +6930,7 @@
         <v>0.84599999999999997</v>
       </c>
       <c r="B853">
-        <v>3.78904269629184</v>
+        <v>5.4142656195613732</v>
       </c>
     </row>
     <row r="854">
@@ -6922,7 +6938,7 @@
         <v>0.84699999999999998</v>
       </c>
       <c r="B854">
-        <v>3.7548429894613311</v>
+        <v>5.3928940485816952</v>
       </c>
     </row>
     <row r="855">
@@ -6930,7 +6946,7 @@
         <v>0.84799999999999998</v>
       </c>
       <c r="B855">
-        <v>3.7203649700238057</v>
+        <v>5.3713631518705807</v>
       </c>
     </row>
     <row r="856">
@@ -6938,7 +6954,7 @@
         <v>0.84899999999999998</v>
       </c>
       <c r="B856">
-        <v>3.6856062266029652</v>
+        <v>5.3496713254841373</v>
       </c>
     </row>
     <row r="857">
@@ -6946,7 +6962,7 @@
         <v>0.84999999999999998</v>
       </c>
       <c r="B857">
-        <v>3.6505643325242425</v>
+        <v>5.3278169537439144</v>
       </c>
     </row>
     <row r="858">
@@ -6954,7 +6970,7 @@
         <v>0.84999999999999998</v>
       </c>
       <c r="B858">
-        <v>3.6505643325242425</v>
+        <v>5.3278169537439144</v>
       </c>
     </row>
     <row r="859">
@@ -6962,7 +6978,7 @@
         <v>0.85099999999999998</v>
       </c>
       <c r="B859">
-        <v>3.6153550811557702</v>
+        <v>5.3058720788475897</v>
       </c>
     </row>
     <row r="860">
@@ -6970,7 +6986,7 @@
         <v>0.85199999999999998</v>
       </c>
       <c r="B860">
-        <v>3.5800980881415683</v>
+        <v>5.2839109417556083</v>
       </c>
     </row>
     <row r="861">
@@ -6978,7 +6994,7 @@
         <v>0.85299999999999998</v>
       </c>
       <c r="B861">
-        <v>3.5447966814669565</v>
+        <v>5.2619352394711081</v>
       </c>
     </row>
     <row r="862">
@@ -6986,7 +7002,7 @@
         <v>0.85399999999999998</v>
       </c>
       <c r="B862">
-        <v>3.5094542322413718</v>
+        <v>5.2399466998611874</v>
       </c>
     </row>
     <row r="863">
@@ -6994,7 +7010,7 @@
         <v>0.85499999999999998</v>
       </c>
       <c r="B863">
-        <v>3.4740741539974058</v>
+        <v>5.2179470812745095</v>
       </c>
     </row>
     <row r="864">
@@ -7002,7 +7018,7 @@
         <v>0.85599999999999998</v>
       </c>
       <c r="B864">
-        <v>3.4386599019766564</v>
+        <v>5.1959381721483764</v>
       </c>
     </row>
     <row r="865">
@@ -7010,7 +7026,7 @@
         <v>0.85699999999999998</v>
       </c>
       <c r="B865">
-        <v>3.4032149724026048</v>
+        <v>5.1739217906054122</v>
       </c>
     </row>
     <row r="866">
@@ -7018,7 +7034,7 @@
         <v>0.85799999999999998</v>
       </c>
       <c r="B866">
-        <v>3.3677429017407361</v>
+        <v>5.1518997840399754</v>
       </c>
     </row>
     <row r="867">
@@ -7026,7 +7042,7 @@
         <v>0.85899999999999999</v>
       </c>
       <c r="B867">
-        <v>3.3322472659461155</v>
+        <v>5.1298740286944646</v>
       </c>
     </row>
     <row r="868">
@@ -7034,7 +7050,7 @@
         <v>0.85999999999999999</v>
       </c>
       <c r="B868">
-        <v>3.2967316796986545</v>
+        <v>5.1078464292256438</v>
       </c>
     </row>
     <row r="869">
@@ -7042,7 +7058,7 @@
         <v>0.86099999999999999</v>
       </c>
       <c r="B869">
-        <v>3.261199795626279</v>
+        <v>5.0858189182611353</v>
       </c>
     </row>
     <row r="870">
@@ -7050,7 +7066,7 @@
         <v>0.86199999999999999</v>
       </c>
       <c r="B870">
-        <v>3.2256553035162367</v>
+        <v>5.0637934559462403</v>
       </c>
     </row>
     <row r="871">
@@ -7058,7 +7074,7 @@
         <v>0.86299999999999999</v>
       </c>
       <c r="B871">
-        <v>3.1901019295147726</v>
+        <v>5.0417720294812236</v>
       </c>
     </row>
     <row r="872">
@@ -7066,7 +7082,7 @@
         <v>0.86399999999999999</v>
       </c>
       <c r="B872">
-        <v>3.1545434353154076</v>
+        <v>5.0197566526492343</v>
       </c>
     </row>
     <row r="873">
@@ -7074,7 +7090,7 @@
         <v>0.86499999999999999</v>
       </c>
       <c r="B873">
-        <v>3.1189836173360561</v>
+        <v>4.9977493653350082</v>
       </c>
     </row>
     <row r="874">
@@ -7082,7 +7098,7 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="B874">
-        <v>3.0834263058852254</v>
+        <v>4.975752233034509</v>
       </c>
     </row>
     <row r="875">
@@ -7090,7 +7106,7 @@
         <v>0.86699999999999999</v>
       </c>
       <c r="B875">
-        <v>3.0478753643175369</v>
+        <v>4.953767346355689</v>
       </c>
     </row>
     <row r="876">
@@ -7098,7 +7114,7 @@
         <v>0.86799999999999999</v>
       </c>
       <c r="B876">
-        <v>3.0123346881788167</v>
+        <v>4.9317968205105149</v>
       </c>
     </row>
     <row r="877">
@@ -7106,7 +7122,7 @@
         <v>0.86899999999999999</v>
       </c>
       <c r="B877">
-        <v>2.9768082043410047</v>
+        <v>4.9098427947984353</v>
       </c>
     </row>
     <row r="878">
@@ -7114,7 +7130,7 @@
         <v>0.87</v>
       </c>
       <c r="B878">
-        <v>2.9412998701271271</v>
+        <v>4.8879074320814668</v>
       </c>
     </row>
     <row r="879">
@@ -7122,7 +7138,7 @@
         <v>0.871</v>
       </c>
       <c r="B879">
-        <v>2.9058136724265946</v>
+        <v>4.8659929182510533</v>
       </c>
     </row>
     <row r="880">
@@ -7130,7 +7146,7 @@
         <v>0.872</v>
       </c>
       <c r="B880">
-        <v>2.8703536268010721</v>
+        <v>4.8441014616868925</v>
       </c>
     </row>
     <row r="881">
@@ -7138,7 +7154,7 @@
         <v>0.873</v>
       </c>
       <c r="B881">
-        <v>2.8349237765811837</v>
+        <v>4.8222352927078962</v>
       </c>
     </row>
     <row r="882">
@@ -7146,7 +7162,7 @@
         <v>0.874</v>
       </c>
       <c r="B882">
-        <v>2.7995281919543111</v>
+        <v>4.8003966630154631</v>
       </c>
     </row>
     <row r="883">
@@ -7154,7 +7170,7 @@
         <v>0.875</v>
       </c>
       <c r="B883">
-        <v>2.7641709690437439</v>
+        <v>4.7785878451292492</v>
       </c>
     </row>
     <row r="884">
@@ -7162,7 +7178,7 @@
         <v>0.876</v>
       </c>
       <c r="B884">
-        <v>2.7288562289794536</v>
+        <v>4.7568111318156232</v>
       </c>
     </row>
     <row r="885">
@@ -7170,7 +7186,7 @@
         <v>0.877</v>
       </c>
       <c r="B885">
-        <v>2.6935881169607456</v>
+        <v>4.7350688355089776</v>
       </c>
     </row>
     <row r="886">
@@ -7178,7 +7194,7 @@
         <v>0.878</v>
       </c>
       <c r="B886">
-        <v>2.6583708013110674</v>
+        <v>4.7133632877261009</v>
       </c>
     </row>
     <row r="887">
@@ -7186,7 +7202,7 @@
         <v>0.879</v>
       </c>
       <c r="B887">
-        <v>2.6232084725252367</v>
+        <v>4.6916968384737858</v>
       </c>
     </row>
     <row r="888">
@@ -7194,7 +7210,7 @@
         <v>0.88</v>
       </c>
       <c r="B888">
-        <v>2.5881053423093587</v>
+        <v>4.6700718556498728</v>
       </c>
     </row>
     <row r="889">
@@ -7202,7 +7218,7 @@
         <v>0.88100000000000001</v>
       </c>
       <c r="B889">
-        <v>2.5530656426137135</v>
+        <v>4.6484907244379166</v>
       </c>
     </row>
     <row r="890">
@@ -7210,7 +7226,7 @@
         <v>0.88200000000000001</v>
       </c>
       <c r="B890">
-        <v>2.518093624658873</v>
+        <v>4.6269558466956751</v>
       </c>
     </row>
     <row r="891">
@@ -7218,7 +7234,7 @@
         <v>0.88300000000000001</v>
       </c>
       <c r="B891">
-        <v>2.4831935579553419</v>
+        <v>4.6054696403376099</v>
       </c>
     </row>
     <row r="892">
@@ -7226,7 +7242,7 @@
         <v>0.88400000000000001</v>
       </c>
       <c r="B892">
-        <v>2.4483697293169793</v>
+        <v>4.5840345387115988</v>
       </c>
     </row>
     <row r="893">
@@ -7234,7 +7250,7 @@
         <v>0.88500000000000001</v>
       </c>
       <c r="B893">
-        <v>2.4136264418684972</v>
+        <v>4.5626529899700641</v>
       </c>
     </row>
     <row r="894">
@@ -7242,7 +7258,7 @@
         <v>0.88600000000000001</v>
       </c>
       <c r="B894">
-        <v>2.3789680140472989</v>
+        <v>4.5413274564357087</v>
       </c>
     </row>
     <row r="895">
@@ -7250,7 +7266,7 @@
         <v>0.88700000000000001</v>
       </c>
       <c r="B895">
-        <v>2.3443987785999525</v>
+        <v>4.5200604139620646</v>
       </c>
     </row>
     <row r="896">
@@ -7258,7 +7274,7 @@
         <v>0.88800000000000001</v>
       </c>
       <c r="B896">
-        <v>2.3099230815735674</v>
+        <v>4.4988543512890589</v>
       </c>
     </row>
     <row r="897">
@@ -7266,7 +7282,7 @@
         <v>0.88900000000000001</v>
       </c>
       <c r="B897">
-        <v>2.2755452813023673</v>
+        <v>4.4777117693937996</v>
       </c>
     </row>
     <row r="898">
@@ -7274,7 +7290,7 @@
         <v>0.89000000000000001</v>
       </c>
       <c r="B898">
-        <v>2.2412697473897332</v>
+        <v>4.4566351808367859</v>
       </c>
     </row>
     <row r="899">
@@ -7282,7 +7298,7 @@
         <v>0.89100000000000001</v>
       </c>
       <c r="B899">
-        <v>2.2071008596860078</v>
+        <v>4.4356271091037476</v>
       </c>
     </row>
     <row r="900">
@@ -7290,7 +7306,7 @@
         <v>0.89200000000000002</v>
       </c>
       <c r="B900">
-        <v>2.1730430072623426</v>
+        <v>4.4146900879433248</v>
       </c>
     </row>
     <row r="901">
@@ -7298,7 +7314,7 @@
         <v>0.89300000000000002</v>
       </c>
       <c r="B901">
-        <v>2.1391005873808693</v>
+        <v>4.3938266607007934</v>
       </c>
     </row>
     <row r="902">
@@ -7306,7 +7322,7 @@
         <v>0.89400000000000002</v>
       </c>
       <c r="B902">
-        <v>2.1052780044614909</v>
+        <v>4.3730393796480458</v>
       </c>
     </row>
     <row r="903">
@@ -7314,7 +7330,7 @@
         <v>0.89500000000000002</v>
       </c>
       <c r="B903">
-        <v>2.0715796690455655</v>
+        <v>4.3523308053100385</v>
       </c>
     </row>
     <row r="904">
@@ -7322,7 +7338,7 @@
         <v>0.89600000000000002</v>
       </c>
       <c r="B904">
-        <v>2.0380099967567831</v>
+        <v>4.3317035057879085</v>
       </c>
     </row>
     <row r="905">
@@ -7330,7 +7346,7 @@
         <v>0.89700000000000002</v>
       </c>
       <c r="B905">
-        <v>2.0045734072595098</v>
+        <v>4.311160056078986</v>
       </c>
     </row>
     <row r="906">
@@ -7338,7 +7354,7 @@
         <v>0.89800000000000002</v>
       </c>
       <c r="B906">
-        <v>1.9712743232148944</v>
+        <v>4.2907030373939001</v>
       </c>
     </row>
     <row r="907">
@@ -7346,7 +7362,7 @@
         <v>0.89900000000000002</v>
       </c>
       <c r="B907">
-        <v>1.938117169235023</v>
+        <v>4.2703350364709953</v>
       </c>
     </row>
     <row r="908">
@@ -7354,7 +7370,7 @@
         <v>0.90000000000000002</v>
       </c>
       <c r="B908">
-        <v>1.9051063708354048</v>
+        <v>4.2500586448882727</v>
       </c>
     </row>
     <row r="909">
@@ -7362,7 +7378,7 @@
         <v>0.90100000000000002</v>
       </c>
       <c r="B909">
-        <v>1.8722463533860825</v>
+        <v>4.2298764583730701</v>
       </c>
     </row>
     <row r="910">
@@ -7370,7 +7386,7 @@
         <v>0.90200000000000002</v>
       </c>
       <c r="B910">
-        <v>1.8395415410616476</v>
+        <v>4.2097910761096902</v>
       </c>
     </row>
     <row r="911">
@@ -7378,7 +7394,7 @@
         <v>0.90300000000000002</v>
       </c>
       <c r="B911">
-        <v>1.806996355790454</v>
+        <v>4.1898051000451968</v>
       </c>
     </row>
     <row r="912">
@@ -7386,7 +7402,7 @@
         <v>0.90400000000000003</v>
       </c>
       <c r="B912">
-        <v>1.7746152162033124</v>
+        <v>4.1699211341935811</v>
       </c>
     </row>
     <row r="913">
@@ -7394,7 +7410,7 @@
         <v>0.90500000000000003</v>
       </c>
       <c r="B913">
-        <v>1.7424025365819511</v>
+        <v>4.1501417839385359</v>
       </c>
     </row>
     <row r="914">
@@ -7402,7 +7418,7 @@
         <v>0.90600000000000003</v>
       </c>
       <c r="B914">
-        <v>1.7103627258075336</v>
+        <v>4.1304696553350189</v>
       </c>
     </row>
     <row r="915">
@@ -7410,7 +7426,7 @@
         <v>0.90700000000000003</v>
       </c>
       <c r="B915">
-        <v>1.678500186309513</v>
+        <v>4.1109073544098562</v>
       </c>
     </row>
     <row r="916">
@@ -7418,7 +7434,7 @@
         <v>0.90800000000000003</v>
       </c>
       <c r="B916">
-        <v>1.646819313015113</v>
+        <v>4.0914574864615654</v>
       </c>
     </row>
     <row r="917">
@@ -7426,7 +7442,7 @@
         <v>0.90900000000000003</v>
       </c>
       <c r="B917">
-        <v>1.6153244922997159</v>
+        <v>4.0721226553596424</v>
       </c>
     </row>
     <row r="918">
@@ -7434,7 +7450,7 @@
         <v>0.90999999999999992</v>
       </c>
       <c r="B918">
-        <v>1.5840201009384418</v>
+        <v>4.0529054628435022</v>
       </c>
     </row>
     <row r="919">
@@ -7442,7 +7458,7 @@
         <v>0.91100000000000003</v>
       </c>
       <c r="B919">
-        <v>1.5529105050592054</v>
+        <v>4.0338085078213073</v>
       </c>
     </row>
     <row r="920">
@@ -7450,7 +7466,7 @@
         <v>0.91199999999999992</v>
       </c>
       <c r="B920">
-        <v>1.5220000590975267</v>
+        <v>4.0148343856688813</v>
       </c>
     </row>
     <row r="921">
@@ -7458,7 +7474,7 @@
         <v>0.91300000000000003</v>
       </c>
       <c r="B921">
-        <v>1.49129310475338</v>
+        <v>3.9959856875289281</v>
       </c>
     </row>
     <row r="922">
@@ -7466,7 +7482,7 @@
         <v>0.91399999999999992</v>
       </c>
       <c r="B922">
-        <v>1.460793969950362</v>
+        <v>3.9772649996107776</v>
       </c>
     </row>
     <row r="923">
@@ -7474,7 +7490,7 @@
         <v>0.91500000000000004</v>
       </c>
       <c r="B923">
-        <v>1.4305069677974558</v>
+        <v>3.9586749024908499</v>
       </c>
     </row>
     <row r="924">
@@ -7482,7 +7498,7 @@
         <v>0.91599999999999993</v>
       </c>
       <c r="B924">
-        <v>1.4004363955536676</v>
+        <v>3.9402179704140723</v>
       </c>
     </row>
     <row r="925">
@@ -7490,7 +7506,7 @@
         <v>0.91700000000000004</v>
       </c>
       <c r="B925">
-        <v>1.3705865335958172</v>
+        <v>3.9218967705964434</v>
       </c>
     </row>
     <row r="926">
@@ -7498,7 +7514,7 @@
         <v>0.91799999999999993</v>
       </c>
       <c r="B926">
-        <v>1.3409616443897543</v>
+        <v>3.9037138625289667</v>
       </c>
     </row>
     <row r="927">
@@ -7506,7 +7522,7 @@
         <v>0.91900000000000004</v>
       </c>
       <c r="B927">
-        <v>1.3115659714652743</v>
+        <v>3.8856717972831549</v>
       </c>
     </row>
     <row r="928">
@@ -7514,7 +7530,7 @@
         <v>0.91999999999999993</v>
       </c>
       <c r="B928">
-        <v>1.2824037383950082</v>
+        <v>3.86777311681832</v>
       </c>
     </row>
     <row r="929">
@@ -7522,7 +7538,7 @@
         <v>0.92100000000000004</v>
       </c>
       <c r="B929">
-        <v>1.2534791477775575</v>
+        <v>3.8500203532908559</v>
       </c>
     </row>
     <row r="930">
@@ -7530,7 +7546,7 @@
         <v>0.92199999999999993</v>
       </c>
       <c r="B930">
-        <v>1.2247963802251423</v>
+        <v>3.8324160283657194</v>
       </c>
     </row>
     <row r="931">
@@ -7538,7 +7554,7 @@
         <v>0.92299999999999993</v>
       </c>
       <c r="B931">
-        <v>1.1963595933560318</v>
+        <v>3.8149626525303164</v>
       </c>
     </row>
     <row r="932">
@@ -7546,7 +7562,7 @@
         <v>0.92399999999999993</v>
       </c>
       <c r="B932">
-        <v>1.1681729207920239</v>
+        <v>3.7976627244110057</v>
       </c>
     </row>
     <row r="933">
@@ -7554,7 +7570,7 @@
         <v>0.92500000000000004</v>
       </c>
       <c r="B933">
-        <v>1.1402404711612382</v>
+        <v>3.7805187300924099</v>
       </c>
     </row>
     <row r="934">
@@ -7562,7 +7578,7 @@
         <v>0.92600000000000005</v>
       </c>
       <c r="B934">
-        <v>1.1125663271064852</v>
+        <v>3.7635331424397562</v>
       </c>
     </row>
     <row r="935">
@@ -7570,7 +7586,7 @@
         <v>0.92700000000000005</v>
       </c>
       <c r="B935">
-        <v>1.0851545442994723</v>
+        <v>3.7467084204244312</v>
       </c>
     </row>
     <row r="936">
@@ -7578,7 +7594,7 @@
         <v>0.92799999999999994</v>
       </c>
       <c r="B936">
-        <v>1.0580091504611082</v>
+        <v>3.7300470084529644</v>
       </c>
     </row>
     <row r="937">
@@ -7586,7 +7602,7 @@
         <v>0.92900000000000005</v>
       </c>
       <c r="B937">
-        <v>1.0311341443881585</v>
+        <v>3.713551335699631</v>
       </c>
     </row>
     <row r="938">
@@ -7594,7 +7610,7 @@
         <v>0.92999999999999994</v>
       </c>
       <c r="B938">
-        <v>1.0045334949865135</v>
+        <v>3.69722381544288</v>
       </c>
     </row>
     <row r="939">
@@ -7602,7 +7618,7 @@
         <v>0.93100000000000005</v>
       </c>
       <c r="B939">
-        <v>0.97821114031131584</v>
+        <v>3.6810668444057772</v>
       </c>
     </row>
     <row r="940">
@@ -7610,7 +7626,7 @@
         <v>0.93199999999999994</v>
       </c>
       <c r="B940">
-        <v>0.95217098661420252</v>
+        <v>3.6650828021006654</v>
       </c>
     </row>
     <row r="941">
@@ -7618,7 +7634,7 @@
         <v>0.93300000000000005</v>
       </c>
       <c r="B941">
-        <v>0.9264169073979085</v>
+        <v>3.649274050178231</v>
       </c>
     </row>
     <row r="942">
@@ -7626,7 +7642,7 @@
         <v>0.93399999999999994</v>
       </c>
       <c r="B942">
-        <v>0.90095274247847923</v>
+        <v>3.6336429317811749</v>
       </c>
     </row>
     <row r="943">
@@ -7634,7 +7650,7 @@
         <v>0.93500000000000005</v>
       </c>
       <c r="B943">
-        <v>0.87578229705533572</v>
+        <v>3.6181917709026723</v>
       </c>
     </row>
     <row r="944">
@@ -7642,7 +7658,7 @@
         <v>0.93599999999999994</v>
       </c>
       <c r="B944">
-        <v>0.85090934078943459</v>
+        <v>3.6029228717498167</v>
       </c>
     </row>
     <row r="945">
@@ -7650,7 +7666,7 @@
         <v>0.93700000000000006</v>
       </c>
       <c r="B945">
-        <v>0.82633760688976221</v>
+        <v>3.5878385181122336</v>
       </c>
     </row>
     <row r="946">
@@ -7658,7 +7674,7 @@
         <v>0.93799999999999994</v>
       </c>
       <c r="B946">
-        <v>0.80207079120840008</v>
+        <v>3.5729409727360468</v>
       </c>
     </row>
     <row r="947">
@@ -7666,7 +7682,7 @@
         <v>0.93900000000000006</v>
       </c>
       <c r="B947">
-        <v>0.7781125513443955</v>
+        <v>3.5582324767033899</v>
       </c>
     </row>
     <row r="948">
@@ -7674,7 +7690,7 @@
         <v>0.93999999999999995</v>
       </c>
       <c r="B948">
-        <v>0.75446650575667051</v>
+        <v>3.5437152488176364</v>
       </c>
     </row>
     <row r="949">
@@ -7682,7 +7698,7 @@
         <v>0.94099999999999995</v>
       </c>
       <c r="B949">
-        <v>0.73113623288619722</v>
+        <v>3.5293914849945338</v>
       </c>
     </row>
     <row r="950">
@@ -7690,7 +7706,7 @@
         <v>0.94199999999999995</v>
       </c>
       <c r="B950">
-        <v>0.70812527028766703</v>
+        <v>3.5152633576594199</v>
       </c>
     </row>
     <row r="951">
@@ -7698,7 +7714,7 @@
         <v>0.94299999999999995</v>
       </c>
       <c r="B951">
-        <v>0.68543711377087646</v>
+        <v>3.5013330151506961</v>
       </c>
     </row>
     <row r="952">
@@ -7706,7 +7722,7 @@
         <v>0.94399999999999995</v>
       </c>
       <c r="B952">
-        <v>0.6630752165520527</v>
+        <v>3.487602581129738</v>
       </c>
     </row>
     <row r="953">
@@ -7714,7 +7730,7 @@
         <v>0.94499999999999995</v>
       </c>
       <c r="B953">
-        <v>0.64104298841533502</v>
+        <v>3.4740741539974058</v>
       </c>
     </row>
     <row r="954">
@@ -7722,7 +7738,7 @@
         <v>0.94599999999999995</v>
       </c>
       <c r="B954">
-        <v>0.61934379488462865</v>
+        <v>3.4607498063173354</v>
       </c>
     </row>
     <row r="955">
@@ -7730,7 +7746,7 @@
         <v>0.94699999999999995</v>
       </c>
       <c r="B955">
-        <v>0.59798095640604387</v>
+        <v>3.4476315842461722</v>
       </c>
     </row>
     <row r="956">
@@ -7738,7 +7754,7 @@
         <v>0.94799999999999995</v>
       </c>
       <c r="B956">
-        <v>0.57695774754112927</v>
+        <v>3.4347215069709178</v>
       </c>
     </row>
     <row r="957">
@@ -7746,7 +7762,7 @@
         <v>0.94899999999999995</v>
       </c>
       <c r="B957">
-        <v>0.55627739617110605</v>
+        <v>3.422021566153548</v>
       </c>
     </row>
     <row r="958">
@@ -7754,7 +7770,7 @@
         <v>0.94999999999999996</v>
       </c>
       <c r="B958">
-        <v>0.53594308271230662</v>
+        <v>3.4095337253830724</v>
       </c>
     </row>
     <row r="959">
@@ -7762,7 +7778,7 @@
         <v>0.95099999999999996</v>
       </c>
       <c r="B959">
-        <v>0.51595793934301881</v>
+        <v>3.3972599196351845</v>
       </c>
     </row>
     <row r="960">
@@ -7770,7 +7786,7 @@
         <v>0.95199999999999996</v>
       </c>
       <c r="B960">
-        <v>0.49632504924193194</v>
+        <v>3.3852020547396702</v>
       </c>
     </row>
     <row r="961">
@@ -7778,7 +7794,7 @@
         <v>0.95299999999999996</v>
       </c>
       <c r="B961">
-        <v>0.47704744583837971</v>
+        <v>3.3733620068557197</v>
       </c>
     </row>
     <row r="962">
@@ -7786,7 +7802,7 @@
         <v>0.95399999999999996</v>
       </c>
       <c r="B962">
-        <v>0.45812811207457038</v>
+        <v>3.3617416219553022</v>
       </c>
     </row>
     <row r="963">
@@ -7794,7 +7810,7 @@
         <v>0.95499999999999996</v>
       </c>
       <c r="B963">
-        <v>0.43956997967999267</v>
+        <v>3.3503427153147491</v>
       </c>
     </row>
     <row r="964">
@@ -7802,7 +7818,7 @@
         <v>0.95599999999999996</v>
       </c>
       <c r="B964">
-        <v>0.42137592845818084</v>
+        <v>3.3391670710146943</v>
       </c>
     </row>
     <row r="965">
@@ -7810,7 +7826,7 @@
         <v>0.95699999999999996</v>
       </c>
       <c r="B965">
-        <v>0.40354878558602114</v>
+        <v>3.3282164414485171</v>
       </c>
     </row>
     <row r="966">
@@ -7818,7 +7834,7 @@
         <v>0.95799999999999996</v>
       </c>
       <c r="B966">
-        <v>0.38609132492577647</v>
+        <v>3.3174925468394285</v>
       </c>
     </row>
     <row r="967">
@@ -7826,7 +7842,7 @@
         <v>0.95899999999999996</v>
       </c>
       <c r="B967">
-        <v>0.36900626635000411</v>
+        <v>3.3069970747663398</v>
       </c>
     </row>
     <row r="968">
@@ -7834,7 +7850,7 @@
         <v>0.95999999999999996</v>
       </c>
       <c r="B968">
-        <v>0.35229627507953787</v>
+        <v>3.2967316796986545</v>
       </c>
     </row>
     <row r="969">
@@ -7842,7 +7858,7 @@
         <v>0.96099999999999997</v>
       </c>
       <c r="B969">
-        <v>0.33596396103470122</v>
+        <v>3.2866979825401121</v>
       </c>
     </row>
     <row r="970">
@@ -7850,7 +7866,7 @@
         <v>0.96199999999999997</v>
       </c>
       <c r="B970">
-        <v>0.32001187819991611</v>
+        <v>3.2768975701818199</v>
       </c>
     </row>
     <row r="971">
@@ -7858,7 +7874,7 @@
         <v>0.96299999999999997</v>
       </c>
       <c r="B971">
-        <v>0.30444252400186772</v>
+        <v>3.2673319950645974</v>
       </c>
     </row>
     <row r="972">
@@ -7866,7 +7882,7 @@
         <v>0.96399999999999997</v>
       </c>
       <c r="B972">
-        <v>0.28925833870138218</v>
+        <v>3.2580027747507665</v>
       </c>
     </row>
     <row r="973">
@@ -7874,7 +7890,7 @@
         <v>0.96499999999999997</v>
       </c>
       <c r="B973">
-        <v>0.27446170479917054</v>
+        <v>3.2489113915054992</v>
       </c>
     </row>
     <row r="974">
@@ -7882,7 +7898,7 @@
         <v>0.96599999999999997</v>
       </c>
       <c r="B974">
-        <v>0.26005494645558852</v>
+        <v>3.240059291887857</v>
       </c>
     </row>
     <row r="975">
@@ -7890,7 +7906,7 @@
         <v>0.96699999999999997</v>
       </c>
       <c r="B975">
-        <v>0.24604032892455854</v>
+        <v>3.2314478863516256</v>
       </c>
     </row>
     <row r="976">
@@ -7898,7 +7914,7 @@
         <v>0.96799999999999997</v>
       </c>
       <c r="B976">
-        <v>0.23242005800179588</v>
+        <v>3.2230785488560723</v>
       </c>
     </row>
     <row r="977">
@@ -7906,7 +7922,7 @@
         <v>0.96899999999999997</v>
       </c>
       <c r="B977">
-        <v>0.21919627948747836</v>
+        <v>3.2149526164867286</v>
       </c>
     </row>
     <row r="978">
@@ -7914,7 +7930,7 @@
         <v>0.96999999999999997</v>
       </c>
       <c r="B978">
-        <v>0.20637107866349372</v>
+        <v>3.2070713890863103</v>
       </c>
     </row>
     <row r="979">
@@ -7922,7 +7938,7 @@
         <v>0.97099999999999997</v>
       </c>
       <c r="B979">
-        <v>0.1939464797853965</v>
+        <v>3.1994361288958815</v>
       </c>
     </row>
     <row r="980">
@@ -7930,7 +7946,7 @@
         <v>0.97199999999999998</v>
       </c>
       <c r="B980">
-        <v>0.18192444558920165</v>
+        <v>3.1920480602063646</v>
       </c>
     </row>
     <row r="981">
@@ -7938,7 +7954,7 @@
         <v>0.97299999999999998</v>
       </c>
       <c r="B981">
-        <v>0.17030687681313852</v>
+        <v>3.1849083690204951</v>
       </c>
     </row>
     <row r="982">
@@ -7946,7 +7962,7 @@
         <v>0.97399999999999998</v>
       </c>
       <c r="B982">
-        <v>0.15909561173448478</v>
+        <v>3.1780182027253199</v>
       </c>
     </row>
     <row r="983">
@@ -7954,7 +7970,7 @@
         <v>0.97499999999999998</v>
       </c>
       <c r="B983">
-        <v>0.14829242572159682</v>
+        <v>3.1713786697753297</v>
       </c>
     </row>
     <row r="984">
@@ -7962,7 +7978,7 @@
         <v>0.97599999999999998</v>
       </c>
       <c r="B984">
-        <v>0.13789903080124799</v>
+        <v>3.1649908393863222</v>
       </c>
     </row>
     <row r="985">
@@ -7970,7 +7986,7 @@
         <v>0.97699999999999998</v>
       </c>
       <c r="B985">
-        <v>0.12791707524138338</v>
+        <v>3.1588557412400746</v>
       </c>
     </row>
     <row r="986">
@@ -7978,7 +7994,7 @@
         <v>0.97799999999999998</v>
       </c>
       <c r="B986">
-        <v>0.11834814314939518</v>
+        <v>3.1529743651999187</v>
       </c>
     </row>
     <row r="987">
@@ -7986,7 +8002,7 @@
         <v>0.97899999999999998</v>
       </c>
       <c r="B987">
-        <v>0.10919375408601902</v>
+        <v>3.1473476610372924</v>
       </c>
     </row>
     <row r="988">
@@ -7994,7 +8010,7 @@
         <v>0.97999999999999998</v>
       </c>
       <c r="B988">
-        <v>0.10045536269494756</v>
+        <v>3.1419765381693532</v>
       </c>
     </row>
     <row r="989">
@@ -8002,7 +8018,7 @@
         <v>0.98099999999999998</v>
       </c>
       <c r="B989">
-        <v>0.092134358348253981</v>
+        <v>3.1368618654077194</v>
       </c>
     </row>
     <row r="990">
@@ -8010,7 +8026,7 @@
         <v>0.98199999999999998</v>
       </c>
       <c r="B990">
-        <v>0.084232064807713461</v>
+        <v>3.1320044707184214</v>
       </c>
     </row>
     <row r="991">
@@ -8018,7 +8034,7 @@
         <v>0.98299999999999998</v>
       </c>
       <c r="B991">
-        <v>0.076749739902107497</v>
+        <v>3.1274051409931185</v>
       </c>
     </row>
     <row r="992">
@@ -8026,7 +8042,7 @@
         <v>0.98399999999999999</v>
       </c>
       <c r="B992">
-        <v>0.069688575220590909</v>
+        <v>3.1230646218316633</v>
       </c>
     </row>
     <row r="993">
@@ -8034,7 +8050,7 @@
         <v>0.98499999999999999</v>
       </c>
       <c r="B993">
-        <v>0.063049695822198493</v>
+        <v>3.1189836173360561</v>
       </c>
     </row>
     <row r="994">
@@ -8042,7 +8058,7 @@
         <v>0.98599999999999999</v>
       </c>
       <c r="B994">
-        <v>0.056834159961563158</v>
+        <v>3.1151627899158645</v>
       </c>
     </row>
     <row r="995">
@@ -8050,7 +8066,7 @@
         <v>0.98699999999999999</v>
       </c>
       <c r="B995">
-        <v>0.051042958830914045</v>
+        <v>3.1116027601051552</v>
       </c>
     </row>
     <row r="996">
@@ -8058,7 +8074,7 @@
         <v>0.98799999999999999</v>
       </c>
       <c r="B996">
-        <v>0.045677016318418834</v>
+        <v>3.1083041063909911</v>
       </c>
     </row>
     <row r="997">
@@ -8066,7 +8082,7 @@
         <v>0.98899999999999999</v>
       </c>
       <c r="B997">
-        <v>0.040737188782930138</v>
+        <v>3.1052673650535447</v>
       </c>
     </row>
     <row r="998">
@@ -8074,7 +8090,7 @@
         <v>0.98999999999999999</v>
       </c>
       <c r="B998">
-        <v>0.0362242648451922</v>
+        <v>3.1024930300178704</v>
       </c>
     </row>
     <row r="999">
@@ -8082,7 +8098,7 @@
         <v>0.99099999999999999</v>
       </c>
       <c r="B999">
-        <v>0.03213896519555965</v>
+        <v>3.0999815527173822</v>
       </c>
     </row>
     <row r="1000">
@@ -8090,7 +8106,7 @@
         <v>0.99199999999999999</v>
       </c>
       <c r="B1000">
-        <v>0.028481942418276115</v>
+        <v>3.0977333419690671</v>
       </c>
     </row>
     <row r="1001">
@@ -8098,7 +8114,7 @@
         <v>0.99299999999999999</v>
       </c>
       <c r="B1001">
-        <v>0.025253780832356406</v>
+        <v>3.0957487638604837</v>
       </c>
     </row>
     <row r="1002">
@@ -8106,7 +8122,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="B1002">
-        <v>0.02245499634911171</v>
+        <v>3.094028141648562</v>
       </c>
     </row>
     <row r="1003">
@@ -8114,7 +8130,7 @@
         <v>0.995</v>
       </c>
       <c r="B1003">
-        <v>0.020086036346353208</v>
+        <v>3.092571755670245</v>
       </c>
     </row>
     <row r="1004">
@@ -8122,7 +8138,7 @@
         <v>0.996</v>
       </c>
       <c r="B1004">
-        <v>0.018147279559305333</v>
+        <v>3.0913798432649937</v>
       </c>
     </row>
     <row r="1005">
@@ -8130,7 +8146,7 @@
         <v>0.997</v>
       </c>
       <c r="B1005">
-        <v>0.016639035988255758</v>
+        <v>3.0904525987091747</v>
       </c>
     </row>
     <row r="1006">
@@ -8138,7 +8154,7 @@
         <v>0.998</v>
       </c>
       <c r="B1006">
-        <v>0.015561546822965041</v>
+        <v>3.0897901731623536</v>
       </c>
     </row>
     <row r="1007">
@@ -8146,7 +8162,7 @@
         <v>0.999</v>
       </c>
       <c r="B1007">
-        <v>0.01491498438385463</v>
+        <v>3.0893926746255085</v>
       </c>
     </row>
     <row r="1008">
@@ -8154,7 +8170,7 @@
         <v>1</v>
       </c>
       <c r="B1008">
-        <v>0.014699452079987907</v>
+        <v>3.0892601679111706</v>
       </c>
     </row>
   </sheetData>
